--- a/project_1b (marketcap_weighted_spdr)/recommended trades (marketcap).xlsx
+++ b/project_1b (marketcap_weighted_spdr)/recommended trades (marketcap).xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>123.14</v>
+        <v>118.76</v>
       </c>
       <c r="C2" s="2">
-        <v>36759299818</v>
+        <v>37159303206</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>15.97</v>
+        <v>16.15</v>
       </c>
       <c r="C3" s="2">
-        <v>9583521504</v>
+        <v>9877752814</v>
       </c>
       <c r="D3" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>166.97</v>
+        <v>165.96</v>
       </c>
       <c r="C4" s="2">
-        <v>10909153125</v>
+        <v>11103307387</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>135</v>
+        <v>136.61</v>
       </c>
       <c r="C5" s="2">
-        <v>2348184328800</v>
+        <v>2336171167946</v>
       </c>
       <c r="D5" s="3">
-        <v>500</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>105.33</v>
+        <v>108.17</v>
       </c>
       <c r="C6" s="2">
-        <v>188970262221</v>
+        <v>189309958807</v>
       </c>
       <c r="D6" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>98.68000000000001</v>
+        <v>100.03</v>
       </c>
       <c r="C7" s="2">
-        <v>20495551774</v>
+        <v>19915556137</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,13 +2021,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>311.14</v>
+        <v>306.92</v>
       </c>
       <c r="C8" s="2">
-        <v>13827600845</v>
+        <v>13946374979</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>111.63</v>
+        <v>113.22</v>
       </c>
       <c r="C9" s="2">
-        <v>198336726887</v>
+        <v>201497508447</v>
       </c>
       <c r="D9" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>261.1</v>
+        <v>259.8</v>
       </c>
       <c r="C10" s="2">
-        <v>175144457098</v>
+        <v>170311730698</v>
       </c>
       <c r="D10" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>504.17</v>
+        <v>504.79</v>
       </c>
       <c r="C11" s="2">
-        <v>243714093002</v>
+        <v>245135310760</v>
       </c>
       <c r="D11" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>146.67</v>
+        <v>146.76</v>
       </c>
       <c r="C12" s="2">
-        <v>54834183133</v>
+        <v>54710887297</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>51.45</v>
+        <v>50.51</v>
       </c>
       <c r="C13" s="2">
-        <v>28772279996</v>
+        <v>28082277272</v>
       </c>
       <c r="D13" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>179.11</v>
+        <v>183.56</v>
       </c>
       <c r="C14" s="2">
-        <v>75957850484</v>
+        <v>77066202011</v>
       </c>
       <c r="D14" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>312.65</v>
+        <v>315.44</v>
       </c>
       <c r="C15" s="2">
-        <v>67042508756</v>
+        <v>66894974704</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2133,13 +2133,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>80.01000000000001</v>
+        <v>78.56</v>
       </c>
       <c r="C16" s="2">
-        <v>18970096373</v>
+        <v>19834119954</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>84.69</v>
+        <v>82.52</v>
       </c>
       <c r="C17" s="2">
-        <v>40476869758</v>
+        <v>41932075305</v>
       </c>
       <c r="D17" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>23.36</v>
+        <v>23.68</v>
       </c>
       <c r="C18" s="2">
-        <v>16122871939</v>
+        <v>16017003212</v>
       </c>
       <c r="D18" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>44.97</v>
+        <v>44.2</v>
       </c>
       <c r="C19" s="2">
-        <v>32047945172</v>
+        <v>31851916468</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>38.27</v>
+        <v>38.72</v>
       </c>
       <c r="C20" s="2">
-        <v>33503165436</v>
+        <v>32763645504</v>
       </c>
       <c r="D20" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.06</v>
+        <v>5.15</v>
       </c>
       <c r="C21" s="2">
-        <v>789782200</v>
+        <v>789681281</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2217,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>135.24</v>
+        <v>136.7</v>
       </c>
       <c r="C22" s="2">
-        <v>8084767259</v>
+        <v>8176316302</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>128.35</v>
+        <v>127.81</v>
       </c>
       <c r="C23" s="2">
-        <v>24223336856</v>
+        <v>24361004315</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>111.07</v>
+        <v>108.23</v>
       </c>
       <c r="C24" s="2">
-        <v>17543358045</v>
+        <v>18141474759</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>150.38</v>
+        <v>154.08</v>
       </c>
       <c r="C25" s="2">
-        <v>16233538171</v>
+        <v>16592814332</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>531.5599999999999</v>
+        <v>551.0599999999999</v>
       </c>
       <c r="C26" s="2">
-        <v>41711359056</v>
+        <v>43528958973</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>53.16</v>
+        <v>53.59</v>
       </c>
       <c r="C27" s="2">
-        <v>6594878732</v>
+        <v>6615907647</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>111.67</v>
+        <v>111.06</v>
       </c>
       <c r="C28" s="2">
-        <v>33472754142</v>
+        <v>33791380544</v>
       </c>
       <c r="D28" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>116.83</v>
+        <v>117.14</v>
       </c>
       <c r="C29" s="2">
-        <v>10407816937</v>
+        <v>10625687193</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2329,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>156.79</v>
+        <v>155.92</v>
       </c>
       <c r="C30" s="2">
-        <v>35047035523</v>
+        <v>34820194273</v>
       </c>
       <c r="D30" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>87.79000000000001</v>
+        <v>88.62</v>
       </c>
       <c r="C31" s="2">
-        <v>79126646924</v>
+        <v>81905381336</v>
       </c>
       <c r="D31" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="C32" s="2">
-        <v>18709551561</v>
+        <v>18706375464</v>
       </c>
       <c r="D32" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>92.27</v>
+        <v>95.17</v>
       </c>
       <c r="C33" s="2">
-        <v>114699402813</v>
+        <v>111395276041</v>
       </c>
       <c r="D33" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>123.44</v>
+        <v>124.53</v>
       </c>
       <c r="C34" s="2">
-        <v>28047586010</v>
+        <v>27612996933</v>
       </c>
       <c r="D34" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>224.71</v>
+        <v>230.99</v>
       </c>
       <c r="C35" s="2">
-        <v>132095433028</v>
+        <v>135569213974</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>196.1</v>
+        <v>195.3</v>
       </c>
       <c r="C36" s="2">
-        <v>22519740544</v>
+        <v>23158127995</v>
       </c>
       <c r="D36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2427,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>221.56</v>
+        <v>224.52</v>
       </c>
       <c r="C37" s="2">
-        <v>101354308957</v>
+        <v>100961812299</v>
       </c>
       <c r="D37" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,13 +2441,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3188.73</v>
+        <v>3295.08</v>
       </c>
       <c r="C38" s="2">
-        <v>1660728345046</v>
+        <v>1596741136429</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>293.4</v>
+        <v>296.81</v>
       </c>
       <c r="C39" s="2">
-        <v>22484662623</v>
+        <v>22138850968</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>364.94</v>
+        <v>370.01</v>
       </c>
       <c r="C40" s="2">
-        <v>31506999124</v>
+        <v>31649376332</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,13 +2483,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>310.27</v>
+        <v>314.88</v>
       </c>
       <c r="C41" s="2">
-        <v>79827556034</v>
+        <v>78707958342</v>
       </c>
       <c r="D41" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>215.8</v>
+        <v>218.08</v>
       </c>
       <c r="C42" s="2">
-        <v>48960711954</v>
+        <v>48922481975</v>
       </c>
       <c r="D42" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>57.04</v>
+        <v>55.93</v>
       </c>
       <c r="C43" s="2">
-        <v>9279251839</v>
+        <v>8980141687</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="C44" s="2">
-        <v>5654962263</v>
+        <v>5608367990</v>
       </c>
       <c r="D44" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>278.81</v>
+        <v>268.56</v>
       </c>
       <c r="C45" s="2">
-        <v>61230354980</v>
+        <v>60829923600</v>
       </c>
       <c r="D45" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>133.37</v>
+        <v>133.74</v>
       </c>
       <c r="C46" s="2">
-        <v>39208276657</v>
+        <v>40521408096</v>
       </c>
       <c r="D46" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>131.69</v>
+        <v>130.28</v>
       </c>
       <c r="C47" s="2">
-        <v>35926832082</v>
+        <v>36065044130</v>
       </c>
       <c r="D47" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>182.7</v>
+        <v>177.9</v>
       </c>
       <c r="C48" s="2">
-        <v>23555462353</v>
+        <v>24186451526</v>
       </c>
       <c r="D48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>96.97</v>
+        <v>95.59</v>
       </c>
       <c r="C49" s="2">
-        <v>11879851699</v>
+        <v>11900533590</v>
       </c>
       <c r="D49" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>95.08</v>
+        <v>94.87</v>
       </c>
       <c r="C50" s="2">
-        <v>73246352703</v>
+        <v>73480253024</v>
       </c>
       <c r="D50" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>160.45</v>
+        <v>161.36</v>
       </c>
       <c r="C51" s="2">
-        <v>22802632417</v>
+        <v>22079323881</v>
       </c>
       <c r="D51" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2637,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>434.31</v>
+        <v>442.44</v>
       </c>
       <c r="C52" s="2">
-        <v>176192530401</v>
+        <v>176697510636</v>
       </c>
       <c r="D52" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2651,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>154.7</v>
+        <v>155.2</v>
       </c>
       <c r="C53" s="2">
-        <v>13033606995</v>
+        <v>13069265432</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>151.17</v>
+        <v>155.74</v>
       </c>
       <c r="C54" s="2">
-        <v>27631414656</v>
+        <v>27865996651</v>
       </c>
       <c r="D54" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>120.9</v>
+        <v>119.91</v>
       </c>
       <c r="C55" s="2">
-        <v>97091831242</v>
+        <v>95083163878</v>
       </c>
       <c r="D55" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1245.97</v>
+        <v>1228.76</v>
       </c>
       <c r="C56" s="2">
-        <v>27732070593</v>
+        <v>27845352134</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>224.67</v>
+        <v>222.67</v>
       </c>
       <c r="C57" s="2">
-        <v>125364762564</v>
+        <v>127174771410</v>
       </c>
       <c r="D57" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>30.83</v>
+        <v>30.4</v>
       </c>
       <c r="C58" s="2">
-        <v>271741598994</v>
+        <v>270100590074</v>
       </c>
       <c r="D58" s="3">
-        <v>253</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>80.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C59" s="2">
-        <v>42122593378</v>
+        <v>42575391832</v>
       </c>
       <c r="D59" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>105.92</v>
+        <v>104.25</v>
       </c>
       <c r="C60" s="2">
-        <v>27784306057</v>
+        <v>27375118946</v>
       </c>
       <c r="D60" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>253.67</v>
+        <v>251.79</v>
       </c>
       <c r="C61" s="2">
-        <v>75242105490</v>
+        <v>73677170581</v>
       </c>
       <c r="D61" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2">
-        <v>12562319278</v>
+        <v>12740498088</v>
       </c>
       <c r="D62" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>79.98999999999999</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>36876623138</v>
+        <v>37231227522</v>
       </c>
       <c r="D63" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2805,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>250.03</v>
+        <v>256.11</v>
       </c>
       <c r="C64" s="2">
-        <v>39135711888</v>
+        <v>39196210570</v>
       </c>
       <c r="D64" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>602.47</v>
+        <v>588.11</v>
       </c>
       <c r="C65" s="2">
-        <v>17505312384</v>
+        <v>17283680194</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>41.07</v>
+        <v>42.16</v>
       </c>
       <c r="C66" s="2">
-        <v>36813192673</v>
+        <v>37726732482</v>
       </c>
       <c r="D66" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2847,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2169.7</v>
+        <v>2115.39</v>
       </c>
       <c r="C67" s="2">
-        <v>87861768486</v>
+        <v>86918534260</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>21.9</v>
+        <v>21.06</v>
       </c>
       <c r="C68" s="2">
-        <v>21768058133</v>
+        <v>22444750160</v>
       </c>
       <c r="D68" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>714.22</v>
+        <v>719.79</v>
       </c>
       <c r="C69" s="2">
-        <v>109435921218</v>
+        <v>108393291609</v>
       </c>
       <c r="D69" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>95.64</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>31642716709</v>
+        <v>31394439686</v>
       </c>
       <c r="D70" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>62.46</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>144976959452</v>
+        <v>144402052919</v>
       </c>
       <c r="D71" s="3">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>150.72</v>
+        <v>150.54</v>
       </c>
       <c r="C72" s="2">
-        <v>18200361271</v>
+        <v>17953023304</v>
       </c>
       <c r="D72" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2931,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>230.47</v>
+        <v>230.84</v>
       </c>
       <c r="C73" s="2">
-        <v>542458651153</v>
+        <v>556675390947</v>
       </c>
       <c r="D73" s="3">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>36.15</v>
+        <v>35.52</v>
       </c>
       <c r="C74" s="2">
-        <v>51205980981</v>
+        <v>50346235725</v>
       </c>
       <c r="D74" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>39.12</v>
+        <v>40.09</v>
       </c>
       <c r="C75" s="2">
-        <v>9688557977</v>
+        <v>9936722725</v>
       </c>
       <c r="D75" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>97.20999999999999</v>
+        <v>97.38</v>
       </c>
       <c r="C76" s="2">
-        <v>15305730723</v>
+        <v>14978091839</v>
       </c>
       <c r="D76" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>63.57</v>
+        <v>63.33</v>
       </c>
       <c r="C77" s="2">
-        <v>130450910480</v>
+        <v>128086584275</v>
       </c>
       <c r="D77" s="3">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>37.26</v>
+        <v>37.01</v>
       </c>
       <c r="C78" s="2">
-        <v>18585059340</v>
+        <v>18034347498</v>
       </c>
       <c r="D78" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="C79" s="2">
-        <v>16518017067</v>
+        <v>16392249176</v>
       </c>
       <c r="D79" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>39.58</v>
+        <v>38.33</v>
       </c>
       <c r="C80" s="2">
-        <v>33143094694</v>
+        <v>32840918508</v>
       </c>
       <c r="D80" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3043,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>182.79</v>
+        <v>188.26</v>
       </c>
       <c r="C81" s="2">
-        <v>98373939323</v>
+        <v>102314555704</v>
       </c>
       <c r="D81" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3057,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>155.65</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2">
-        <v>69711477084</v>
+        <v>69652705479</v>
       </c>
       <c r="D82" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>93.83</v>
+        <v>95.45</v>
       </c>
       <c r="C83" s="2">
-        <v>10167216390</v>
+        <v>10363037753</v>
       </c>
       <c r="D83" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>64.66</v>
+        <v>65.48</v>
       </c>
       <c r="C84" s="2">
-        <v>21380877870</v>
+        <v>21887292291</v>
       </c>
       <c r="D84" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C85" s="2">
-        <v>69387107279</v>
+        <v>68641221169</v>
       </c>
       <c r="D85" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>21.74</v>
+        <v>21.75</v>
       </c>
       <c r="C86" s="2">
-        <v>23053357142</v>
+        <v>23442285976</v>
       </c>
       <c r="D86" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3127,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2">
-        <v>39172021432</v>
+        <v>38568513880</v>
       </c>
       <c r="D87" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>133.97</v>
+        <v>132.76</v>
       </c>
       <c r="C88" s="2">
-        <v>18679221433</v>
+        <v>18867976970</v>
       </c>
       <c r="D88" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>131.1</v>
+        <v>134.05</v>
       </c>
       <c r="C89" s="2">
-        <v>15849495902</v>
+        <v>15411310044</v>
       </c>
       <c r="D89" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>81.65000000000001</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>24696557364</v>
+        <v>25145742224</v>
       </c>
       <c r="D90" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>37.63</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2">
-        <v>8197652934</v>
+        <v>8001220360</v>
       </c>
       <c r="D91" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>36.71</v>
+        <v>35.39</v>
       </c>
       <c r="C92" s="2">
-        <v>15393701389</v>
+        <v>15298555114</v>
       </c>
       <c r="D92" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>88.34</v>
+        <v>88.05</v>
       </c>
       <c r="C93" s="2">
-        <v>21839210730</v>
+        <v>21957525944</v>
       </c>
       <c r="D93" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>98.41</v>
+        <v>97.81</v>
       </c>
       <c r="C94" s="2">
-        <v>13129957948</v>
+        <v>13051387818</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,13 +3239,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>665.8200000000001</v>
+        <v>658.33</v>
       </c>
       <c r="C95" s="2">
-        <v>136729718693</v>
+        <v>132559193981</v>
       </c>
       <c r="D95" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>200.48</v>
+        <v>202.45</v>
       </c>
       <c r="C96" s="2">
-        <v>74341783240</v>
+        <v>75327898910</v>
       </c>
       <c r="D96" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>87.37</v>
+        <v>85.41</v>
       </c>
       <c r="C97" s="2">
-        <v>14375398808</v>
+        <v>13821216074</v>
       </c>
       <c r="D97" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>86.09999999999999</v>
+        <v>88.47</v>
       </c>
       <c r="C98" s="2">
-        <v>75582501927</v>
+        <v>72970053828</v>
       </c>
       <c r="D98" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>210.4</v>
+        <v>210.8</v>
       </c>
       <c r="C99" s="2">
-        <v>26434726683</v>
+        <v>26515721596</v>
       </c>
       <c r="D99" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>56</v>
+        <v>56.6</v>
       </c>
       <c r="C100" s="2">
-        <v>7875014498</v>
+        <v>8147853228</v>
       </c>
       <c r="D100" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>51.84</v>
+        <v>50.95</v>
       </c>
       <c r="C101" s="2">
-        <v>232119130473</v>
+        <v>240203392329</v>
       </c>
       <c r="D101" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>187.35</v>
+        <v>182.62</v>
       </c>
       <c r="C102" s="2">
-        <v>64878951949</v>
+        <v>66049740279</v>
       </c>
       <c r="D102" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1436.19</v>
+        <v>1448.57</v>
       </c>
       <c r="C103" s="2">
-        <v>41356264482</v>
+        <v>40871502242</v>
       </c>
       <c r="D103" s="3">
         <v>0</v>
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>228.77</v>
+        <v>232.88</v>
       </c>
       <c r="C104" s="2">
-        <v>34471376882</v>
+        <v>33748558989</v>
       </c>
       <c r="D104" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>60</v>
+        <v>60.86</v>
       </c>
       <c r="C105" s="2">
-        <v>16964853221</v>
+        <v>16831606038</v>
       </c>
       <c r="D105" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>58.41</v>
+        <v>59.71</v>
       </c>
       <c r="C106" s="2">
-        <v>34189189448</v>
+        <v>33747345248</v>
       </c>
       <c r="D106" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.67</v>
+        <v>21.82</v>
       </c>
       <c r="C107" s="2">
-        <v>11898509069</v>
+        <v>11898271984</v>
       </c>
       <c r="D107" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C108" s="2">
-        <v>45930753191</v>
+        <v>45560269039</v>
       </c>
       <c r="D108" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>16.96</v>
+        <v>17.4</v>
       </c>
       <c r="C109" s="2">
-        <v>7011879022</v>
+        <v>6804468394</v>
       </c>
       <c r="D109" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>367.47</v>
+        <v>367.09</v>
       </c>
       <c r="C110" s="2">
-        <v>20020893492</v>
+        <v>19806232711</v>
       </c>
       <c r="D110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>40.1</v>
+        <v>39.51</v>
       </c>
       <c r="C111" s="2">
-        <v>43775526755</v>
+        <v>44475564362</v>
       </c>
       <c r="D111" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>367.91</v>
+        <v>368.67</v>
       </c>
       <c r="C112" s="2">
-        <v>163590932726</v>
+        <v>166992156353</v>
       </c>
       <c r="D112" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
       <c r="C113" s="2">
-        <v>5717618394</v>
+        <v>5706913337</v>
       </c>
       <c r="D113" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>48.64</v>
+        <v>50.6</v>
       </c>
       <c r="C114" s="2">
-        <v>14796178798</v>
+        <v>15435782250</v>
       </c>
       <c r="D114" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>128.12</v>
+        <v>128.11</v>
       </c>
       <c r="C115" s="2">
-        <v>29824715130</v>
+        <v>30587594856</v>
       </c>
       <c r="D115" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>235.15</v>
+        <v>234.15</v>
       </c>
       <c r="C116" s="2">
-        <v>209958260696</v>
+        <v>211558897674</v>
       </c>
       <c r="D116" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.82</v>
+        <v>46.57</v>
       </c>
       <c r="C117" s="2">
-        <v>191780989918</v>
+        <v>188875494990</v>
       </c>
       <c r="D117" s="3">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>92.81999999999999</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="C118" s="2">
-        <v>70279728406</v>
+        <v>70440371703</v>
       </c>
       <c r="D118" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3575,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>347.6</v>
+        <v>351.8</v>
       </c>
       <c r="C119" s="2">
-        <v>36294847430</v>
+        <v>35416390768</v>
       </c>
       <c r="D119" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,10 +3592,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12093056076</v>
+        <v>12648291654</v>
       </c>
       <c r="D120" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3603,13 +3603,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>81.19</v>
+        <v>82.19</v>
       </c>
       <c r="C121" s="2">
-        <v>43536867400</v>
+        <v>44238947619</v>
       </c>
       <c r="D121" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>40.2</v>
+        <v>41.3</v>
       </c>
       <c r="C122" s="2">
-        <v>30847877607</v>
+        <v>30315489956</v>
       </c>
       <c r="D122" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>134.83</v>
+        <v>134.55</v>
       </c>
       <c r="C123" s="2">
-        <v>16514021133</v>
+        <v>16550504393</v>
       </c>
       <c r="D123" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>69.94</v>
+        <v>68.67</v>
       </c>
       <c r="C124" s="2">
-        <v>93219897655</v>
+        <v>89865209132</v>
       </c>
       <c r="D124" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3659,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>87.73999999999999</v>
+        <v>85.61</v>
       </c>
       <c r="C125" s="2">
-        <v>164993795728</v>
+        <v>160974005980</v>
       </c>
       <c r="D125" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>60.1</v>
+        <v>59.5</v>
       </c>
       <c r="C126" s="2">
-        <v>11286381948</v>
+        <v>11639333752</v>
       </c>
       <c r="D126" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>74.42</v>
+        <v>77.33</v>
       </c>
       <c r="C127" s="2">
-        <v>63332026325</v>
+        <v>60705959873</v>
       </c>
       <c r="D127" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3701,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>39.83</v>
+        <v>39.99</v>
       </c>
       <c r="C128" s="2">
-        <v>26172130929</v>
+        <v>25372637152</v>
       </c>
       <c r="D128" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>71.44</v>
+        <v>70.25</v>
       </c>
       <c r="C129" s="2">
-        <v>51964712206</v>
+        <v>52140650994</v>
       </c>
       <c r="D129" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3729,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>275.14</v>
+        <v>277.26</v>
       </c>
       <c r="C130" s="2">
-        <v>85402876365</v>
+        <v>87782330781</v>
       </c>
       <c r="D130" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>89.64</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="C131" s="2">
-        <v>27523264651</v>
+        <v>27879255706</v>
       </c>
       <c r="D131" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3757,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>219.02</v>
+        <v>217.22</v>
       </c>
       <c r="C132" s="2">
-        <v>53366133584</v>
+        <v>54160919383</v>
       </c>
       <c r="D132" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3771,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>122.2</v>
+        <v>120.91</v>
       </c>
       <c r="C133" s="2">
-        <v>16764859598</v>
+        <v>16635334586</v>
       </c>
       <c r="D133" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>72.81</v>
+        <v>73.58</v>
       </c>
       <c r="C134" s="2">
-        <v>27479712453</v>
+        <v>27428351339</v>
       </c>
       <c r="D134" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>227.89</v>
+        <v>231.73</v>
       </c>
       <c r="C135" s="2">
-        <v>160471061047</v>
+        <v>164664065713</v>
       </c>
       <c r="D135" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>179.75</v>
+        <v>177.29</v>
       </c>
       <c r="C136" s="2">
-        <v>318785552201</v>
+        <v>315590682996</v>
       </c>
       <c r="D136" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>29.42</v>
+        <v>29.24</v>
       </c>
       <c r="C137" s="2">
-        <v>13202980575</v>
+        <v>13083693284</v>
       </c>
       <c r="D137" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3841,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>25.59</v>
+        <v>26.38</v>
       </c>
       <c r="C138" s="2">
-        <v>12952232826</v>
+        <v>13271743383</v>
       </c>
       <c r="D138" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>31.9</v>
+        <v>31.76</v>
       </c>
       <c r="C139" s="2">
-        <v>16587692920</v>
+        <v>17072918397</v>
       </c>
       <c r="D139" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>142.38</v>
+        <v>140.8</v>
       </c>
       <c r="C140" s="2">
-        <v>39565256434</v>
+        <v>38753563445</v>
       </c>
       <c r="D140" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>112.97</v>
+        <v>110.23</v>
       </c>
       <c r="C141" s="2">
-        <v>26888231960</v>
+        <v>26071572427</v>
       </c>
       <c r="D141" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>128.35</v>
+        <v>130.04</v>
       </c>
       <c r="C142" s="2">
-        <v>18042500333</v>
+        <v>18303639037</v>
       </c>
       <c r="D142" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>55.92</v>
+        <v>57.39</v>
       </c>
       <c r="C143" s="2">
-        <v>40899619738</v>
+        <v>42450330784</v>
       </c>
       <c r="D143" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3925,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>409.79</v>
+        <v>410.85</v>
       </c>
       <c r="C144" s="2">
-        <v>15647428171</v>
+        <v>16310656484</v>
       </c>
       <c r="D144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>40.2</v>
+        <v>39.3</v>
       </c>
       <c r="C145" s="2">
-        <v>14922386586</v>
+        <v>15232474957</v>
       </c>
       <c r="D145" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>122.4</v>
+        <v>120.98</v>
       </c>
       <c r="C146" s="2">
-        <v>15505916469</v>
+        <v>15655919111</v>
       </c>
       <c r="D146" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3967,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>121.2</v>
+        <v>122.48</v>
       </c>
       <c r="C147" s="2">
-        <v>23770111395</v>
+        <v>23641858204</v>
       </c>
       <c r="D147" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>91.79000000000001</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="C148" s="2">
-        <v>67529870977</v>
+        <v>66074721863</v>
       </c>
       <c r="D148" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3995,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>118.49</v>
+        <v>119.78</v>
       </c>
       <c r="C149" s="2">
-        <v>13026022930</v>
+        <v>12935191172</v>
       </c>
       <c r="D149" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>15.71</v>
+        <v>15.47</v>
       </c>
       <c r="C150" s="2">
-        <v>6050029488</v>
+        <v>6077528479</v>
       </c>
       <c r="D150" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C151" s="2">
-        <v>5837954637</v>
+        <v>6062855325</v>
       </c>
       <c r="D151" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,13 +4037,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>367.9</v>
+        <v>366.47</v>
       </c>
       <c r="C152" s="2">
-        <v>35220664033</v>
+        <v>34665025924</v>
       </c>
       <c r="D152" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>142.93</v>
+        <v>144.28</v>
       </c>
       <c r="C153" s="2">
-        <v>42905482474</v>
+        <v>41178178880</v>
       </c>
       <c r="D153" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>51</v>
+        <v>50.62</v>
       </c>
       <c r="C154" s="2">
-        <v>34610738842</v>
+        <v>35055218111</v>
       </c>
       <c r="D154" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>220.04</v>
+        <v>221.44</v>
       </c>
       <c r="C155" s="2">
-        <v>62057000970</v>
+        <v>63086395576</v>
       </c>
       <c r="D155" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4093,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>70.64</v>
+        <v>71.95</v>
       </c>
       <c r="C156" s="2">
-        <v>24659278852</v>
+        <v>23967070337</v>
       </c>
       <c r="D156" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>195.11</v>
+        <v>195.14</v>
       </c>
       <c r="C157" s="2">
-        <v>24613410015</v>
+        <v>23899986985</v>
       </c>
       <c r="D157" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4121,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>63.6</v>
+        <v>62.7</v>
       </c>
       <c r="C158" s="2">
-        <v>23663089754</v>
+        <v>23915033324</v>
       </c>
       <c r="D158" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,13 +4135,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>269.88</v>
+        <v>262.07</v>
       </c>
       <c r="C159" s="2">
-        <v>97898218538</v>
+        <v>99050549258</v>
       </c>
       <c r="D159" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>103.4</v>
+        <v>102.38</v>
       </c>
       <c r="C160" s="2">
-        <v>13955221306</v>
+        <v>14194076268</v>
       </c>
       <c r="D160" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>81.20999999999999</v>
+        <v>81.03</v>
       </c>
       <c r="C161" s="2">
-        <v>48429602454</v>
+        <v>48851487183</v>
       </c>
       <c r="D161" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>51.2</v>
+        <v>50.2</v>
       </c>
       <c r="C162" s="2">
-        <v>29188909352</v>
+        <v>29557967553</v>
       </c>
       <c r="D162" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4191,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>708.87</v>
+        <v>712.36</v>
       </c>
       <c r="C163" s="2">
-        <v>64842168266</v>
+        <v>63495549596</v>
       </c>
       <c r="D163" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>60.7</v>
+        <v>59.9</v>
       </c>
       <c r="C164" s="2">
-        <v>21945441988</v>
+        <v>22702832756</v>
       </c>
       <c r="D164" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>84.53</v>
+        <v>87.95</v>
       </c>
       <c r="C165" s="2">
-        <v>30052092752</v>
+        <v>29945236435</v>
       </c>
       <c r="D165" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>237.4</v>
+        <v>245.67</v>
       </c>
       <c r="C166" s="2">
-        <v>15616195225</v>
+        <v>15839291246</v>
       </c>
       <c r="D166" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>50.38</v>
+        <v>51.38</v>
       </c>
       <c r="C167" s="2">
-        <v>11055133067</v>
+        <v>11055819166</v>
       </c>
       <c r="D167" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>121.59</v>
+        <v>123.77</v>
       </c>
       <c r="C168" s="2">
-        <v>47994137221</v>
+        <v>47745412462</v>
       </c>
       <c r="D168" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>97.18000000000001</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C169" s="2">
-        <v>19192599739</v>
+        <v>19973303019</v>
       </c>
       <c r="D169" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>55.23</v>
+        <v>53.57</v>
       </c>
       <c r="C170" s="2">
-        <v>12691671793</v>
+        <v>12531910626</v>
       </c>
       <c r="D170" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>92.56999999999999</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>56226775534</v>
+        <v>56806223967</v>
       </c>
       <c r="D171" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>42.3</v>
+        <v>42.86</v>
       </c>
       <c r="C172" s="2">
-        <v>41874985884</v>
+        <v>41152299170</v>
       </c>
       <c r="D172" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4331,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>99</v>
+        <v>94.92</v>
       </c>
       <c r="C173" s="2">
-        <v>16173265011</v>
+        <v>16336359485</v>
       </c>
       <c r="D173" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>130.42</v>
+        <v>131.51</v>
       </c>
       <c r="C174" s="2">
-        <v>17719795457</v>
+        <v>17950376316</v>
       </c>
       <c r="D174" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>115.87</v>
+        <v>119.44</v>
       </c>
       <c r="C175" s="2">
-        <v>14948136520</v>
+        <v>15400052439</v>
       </c>
       <c r="D175" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="C176" s="2">
-        <v>35180091234</v>
+        <v>35344633561</v>
       </c>
       <c r="D176" s="3">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>48.29</v>
+        <v>49.26</v>
       </c>
       <c r="C177" s="2">
-        <v>7663170655</v>
+        <v>7981354381</v>
       </c>
       <c r="D177" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4401,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>51.08</v>
+        <v>50.52</v>
       </c>
       <c r="C178" s="2">
-        <v>29291330252</v>
+        <v>29355904621</v>
       </c>
       <c r="D178" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>280</v>
+        <v>273.4</v>
       </c>
       <c r="C179" s="2">
-        <v>772255571247</v>
+        <v>794821412090</v>
       </c>
       <c r="D179" s="3">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>90.26000000000001</v>
+        <v>91.81</v>
       </c>
       <c r="C180" s="2">
-        <v>12906173096</v>
+        <v>12657238180</v>
       </c>
       <c r="D180" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>25.69</v>
+        <v>25.88</v>
       </c>
       <c r="C181" s="2">
-        <v>37550302309</v>
+        <v>36785304252</v>
       </c>
       <c r="D181" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>281</v>
+        <v>281.47</v>
       </c>
       <c r="C182" s="2">
-        <v>71354150407</v>
+        <v>73343830430</v>
       </c>
       <c r="D182" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>30.24</v>
+        <v>30.8</v>
       </c>
       <c r="C183" s="2">
-        <v>16401014115</v>
+        <v>16606092589</v>
       </c>
       <c r="D183" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4485,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>176</v>
+        <v>183.52</v>
       </c>
       <c r="C184" s="2">
-        <v>11018944705</v>
+        <v>11170362929</v>
       </c>
       <c r="D184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>142.82</v>
+        <v>144.49</v>
       </c>
       <c r="C185" s="2">
-        <v>88192579951</v>
+        <v>88139907870</v>
       </c>
       <c r="D185" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>115.17</v>
+        <v>116.92</v>
       </c>
       <c r="C186" s="2">
-        <v>78455877293</v>
+        <v>78095787323</v>
       </c>
       <c r="D186" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>28.59</v>
+        <v>27.87</v>
       </c>
       <c r="C187" s="2">
-        <v>20300875942</v>
+        <v>19794305003</v>
       </c>
       <c r="D187" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>45.52</v>
+        <v>44.71</v>
       </c>
       <c r="C188" s="2">
-        <v>5995327905</v>
+        <v>6108129585</v>
       </c>
       <c r="D188" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4555,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>37.27</v>
+        <v>38</v>
       </c>
       <c r="C189" s="2">
-        <v>4891602819</v>
+        <v>4889790333</v>
       </c>
       <c r="D189" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4569,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>279.21</v>
+        <v>279.33</v>
       </c>
       <c r="C190" s="2">
-        <v>22620037445</v>
+        <v>23087329996</v>
       </c>
       <c r="D190" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>115.83</v>
+        <v>119.02</v>
       </c>
       <c r="C191" s="2">
-        <v>14967530804</v>
+        <v>15452152541</v>
       </c>
       <c r="D191" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4600,10 +4600,10 @@
         <v>28</v>
       </c>
       <c r="C192" s="2">
-        <v>17046912777</v>
+        <v>16820321859</v>
       </c>
       <c r="D192" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>29.25</v>
+        <v>28.79</v>
       </c>
       <c r="C193" s="2">
-        <v>17094713932</v>
+        <v>16891224432</v>
       </c>
       <c r="D193" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>140.58</v>
+        <v>143.1</v>
       </c>
       <c r="C194" s="2">
-        <v>24569935905</v>
+        <v>24492318709</v>
       </c>
       <c r="D194" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>87.44</v>
+        <v>87.91</v>
       </c>
       <c r="C195" s="2">
-        <v>6679868588</v>
+        <v>6755984372</v>
       </c>
       <c r="D195" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="C196" s="2">
-        <v>4347419323</v>
+        <v>4278011965</v>
       </c>
       <c r="D196" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>150.75</v>
+        <v>152.41</v>
       </c>
       <c r="C197" s="2">
-        <v>25201024816</v>
+        <v>24345808483</v>
       </c>
       <c r="D197" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>70.75</v>
+        <v>71.05</v>
       </c>
       <c r="C198" s="2">
-        <v>24602166183</v>
+        <v>24118390798</v>
       </c>
       <c r="D198" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>154.03</v>
+        <v>153.04</v>
       </c>
       <c r="C199" s="2">
-        <v>43419288934</v>
+        <v>42795103977</v>
       </c>
       <c r="D199" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>10.85</v>
+        <v>10.99</v>
       </c>
       <c r="C200" s="2">
-        <v>96943327955</v>
+        <v>95839180113</v>
       </c>
       <c r="D200" s="3">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>58.06</v>
+        <v>57.27</v>
       </c>
       <c r="C201" s="2">
-        <v>75031249318</v>
+        <v>72769821003</v>
       </c>
       <c r="D201" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>59.23</v>
+        <v>61.33</v>
       </c>
       <c r="C202" s="2">
-        <v>36510479144</v>
+        <v>36904230177</v>
       </c>
       <c r="D202" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4751,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>96.81999999999999</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="C203" s="2">
-        <v>9903296403</v>
+        <v>10177742014</v>
       </c>
       <c r="D203" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>36.42</v>
+        <v>37.34</v>
       </c>
       <c r="C204" s="2">
-        <v>28169376410</v>
+        <v>28722714053</v>
       </c>
       <c r="D204" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>43.05</v>
+        <v>42.08</v>
       </c>
       <c r="C205" s="2">
-        <v>60961219184</v>
+        <v>61996409274</v>
       </c>
       <c r="D205" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,13 +4793,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1752.43</v>
+        <v>1775.1</v>
       </c>
       <c r="C206" s="2">
-        <v>1186899657375</v>
+        <v>1187866776444</v>
       </c>
       <c r="D206" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4807,13 +4807,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1763.89</v>
+        <v>1806.75</v>
       </c>
       <c r="C207" s="2">
-        <v>1176354334093</v>
+        <v>1212839701761</v>
       </c>
       <c r="D207" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>104.17</v>
+        <v>101.65</v>
       </c>
       <c r="C208" s="2">
-        <v>14932232228</v>
+        <v>14771138651</v>
       </c>
       <c r="D208" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4835,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>210.51</v>
+        <v>210.78</v>
       </c>
       <c r="C209" s="2">
-        <v>63824333843</v>
+        <v>62961853903</v>
       </c>
       <c r="D209" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>20.55</v>
+        <v>21.34</v>
       </c>
       <c r="C210" s="2">
-        <v>7930626815</v>
+        <v>7680855671</v>
       </c>
       <c r="D210" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4863,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.05</v>
+        <v>124.32</v>
       </c>
       <c r="C211" s="2">
-        <v>23454400922</v>
+        <v>23105690763</v>
       </c>
       <c r="D211" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>268.05</v>
+        <v>257.01</v>
       </c>
       <c r="C212" s="2">
-        <v>90773179283</v>
+        <v>89913985433</v>
       </c>
       <c r="D212" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>435.14</v>
+        <v>430.43</v>
       </c>
       <c r="C213" s="2">
-        <v>22593122210</v>
+        <v>23173041038</v>
       </c>
       <c r="D213" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>19.43</v>
+        <v>20.02</v>
       </c>
       <c r="C214" s="2">
-        <v>17196753154</v>
+        <v>17486077894</v>
       </c>
       <c r="D214" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>97.70999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="C215" s="2">
-        <v>12826584594</v>
+        <v>12819731112</v>
       </c>
       <c r="D215" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>12.58</v>
+        <v>12.42</v>
       </c>
       <c r="C216" s="2">
-        <v>12719828142</v>
+        <v>13108375831</v>
       </c>
       <c r="D216" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>14.99</v>
+        <v>14.85</v>
       </c>
       <c r="C217" s="2">
-        <v>5129132246</v>
+        <v>5110932670</v>
       </c>
       <c r="D217" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>164.83</v>
+        <v>165.29</v>
       </c>
       <c r="C218" s="2">
-        <v>57368676033</v>
+        <v>56216120757</v>
       </c>
       <c r="D218" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,13 +4975,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>271.2</v>
+        <v>279.1</v>
       </c>
       <c r="C219" s="2">
-        <v>294344745938</v>
+        <v>305281991758</v>
       </c>
       <c r="D219" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>54.11</v>
+        <v>54.98</v>
       </c>
       <c r="C220" s="2">
-        <v>16716660341</v>
+        <v>17242729481</v>
       </c>
       <c r="D220" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>26.18</v>
+        <v>25.51</v>
       </c>
       <c r="C221" s="2">
-        <v>4197492426</v>
+        <v>4123601610</v>
       </c>
       <c r="D221" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>50.18</v>
+        <v>49.89</v>
       </c>
       <c r="C222" s="2">
-        <v>18093868297</v>
+        <v>17563775434</v>
       </c>
       <c r="D222" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>170.7</v>
+        <v>169.5</v>
       </c>
       <c r="C223" s="2">
-        <v>6736667493</v>
+        <v>6763469149</v>
       </c>
       <c r="D223" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5045,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>111.9</v>
+        <v>109.39</v>
       </c>
       <c r="C224" s="2">
-        <v>30694440512</v>
+        <v>30480122578</v>
       </c>
       <c r="D224" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>77.93000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C225" s="2">
-        <v>19244332105</v>
+        <v>19450951050</v>
       </c>
       <c r="D225" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>210.31</v>
+        <v>214.89</v>
       </c>
       <c r="C226" s="2">
-        <v>152356635291</v>
+        <v>149683909785</v>
       </c>
       <c r="D226" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>11.79</v>
+        <v>11.89</v>
       </c>
       <c r="C227" s="2">
-        <v>15858831719</v>
+        <v>15854155698</v>
       </c>
       <c r="D227" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>24.66</v>
+        <v>25.27</v>
       </c>
       <c r="C228" s="2">
-        <v>31376217601</v>
+        <v>32683070140</v>
       </c>
       <c r="D228" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>16.21</v>
+        <v>15.78</v>
       </c>
       <c r="C229" s="2">
-        <v>2842959442</v>
+        <v>2900102954</v>
       </c>
       <c r="D229" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.59</v>
+        <v>47.91</v>
       </c>
       <c r="C230" s="2">
-        <v>25609799384</v>
+        <v>26475463975</v>
       </c>
       <c r="D230" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>66.95999999999999</v>
+        <v>66.48</v>
       </c>
       <c r="C231" s="2">
-        <v>9515967197</v>
+        <v>9823007918</v>
       </c>
       <c r="D231" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="C232" s="2">
-        <v>10163498507</v>
+        <v>10033295513</v>
       </c>
       <c r="D232" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>154.74</v>
+        <v>156.95</v>
       </c>
       <c r="C233" s="2">
-        <v>32675942621</v>
+        <v>32019960206</v>
       </c>
       <c r="D233" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>408.65</v>
+        <v>407.68</v>
       </c>
       <c r="C234" s="2">
-        <v>54951592557</v>
+        <v>55698742393</v>
       </c>
       <c r="D234" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>27.91</v>
+        <v>28.08</v>
       </c>
       <c r="C235" s="2">
-        <v>12352688838</v>
+        <v>12000421426</v>
       </c>
       <c r="D235" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>125.16</v>
+        <v>124.87</v>
       </c>
       <c r="C236" s="2">
-        <v>115332757372</v>
+        <v>112671658354</v>
       </c>
       <c r="D236" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5227,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>115.26</v>
+        <v>114.92</v>
       </c>
       <c r="C237" s="2">
-        <v>65168377084</v>
+        <v>63463863259</v>
       </c>
       <c r="D237" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>500.93</v>
+        <v>511.22</v>
       </c>
       <c r="C238" s="2">
-        <v>43439524483</v>
+        <v>42854951974</v>
       </c>
       <c r="D238" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5255,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>199.65</v>
+        <v>200.74</v>
       </c>
       <c r="C239" s="2">
-        <v>14901952043</v>
+        <v>14949527880</v>
       </c>
       <c r="D239" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>115.2</v>
+        <v>114.46</v>
       </c>
       <c r="C240" s="2">
-        <v>11770015962</v>
+        <v>11846762961</v>
       </c>
       <c r="D240" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5283,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>375.29</v>
+        <v>378.3</v>
       </c>
       <c r="C241" s="2">
-        <v>53881754917</v>
+        <v>54931891787</v>
       </c>
       <c r="D241" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>89.05</v>
+        <v>87.42</v>
       </c>
       <c r="C242" s="2">
-        <v>19371075179</v>
+        <v>19238922705</v>
       </c>
       <c r="D242" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>88.01000000000001</v>
+        <v>87.58</v>
       </c>
       <c r="C243" s="2">
-        <v>37107875260</v>
+        <v>37184538610</v>
       </c>
       <c r="D243" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>47.83</v>
+        <v>48.85</v>
       </c>
       <c r="C244" s="2">
-        <v>196827803653</v>
+        <v>201234417065</v>
       </c>
       <c r="D244" s="3">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5339,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>384.42</v>
+        <v>390.7</v>
       </c>
       <c r="C245" s="2">
-        <v>109541531375</v>
+        <v>109617681735</v>
       </c>
       <c r="D245" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>50.35</v>
+        <v>49.76</v>
       </c>
       <c r="C246" s="2">
-        <v>20400789527</v>
+        <v>20028992504</v>
       </c>
       <c r="D246" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>23.82</v>
+        <v>24.24</v>
       </c>
       <c r="C247" s="2">
-        <v>9220398421</v>
+        <v>9359279815</v>
       </c>
       <c r="D247" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>230.38</v>
+        <v>221.5</v>
       </c>
       <c r="C248" s="2">
-        <v>12278687493</v>
+        <v>12366020251</v>
       </c>
       <c r="D248" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>176.42</v>
+        <v>176.57</v>
       </c>
       <c r="C249" s="2">
-        <v>34104378670</v>
+        <v>35414561153</v>
       </c>
       <c r="D249" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>46.86</v>
+        <v>47.51</v>
       </c>
       <c r="C250" s="2">
-        <v>19300277228</v>
+        <v>19489762015</v>
       </c>
       <c r="D250" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>30.84</v>
+        <v>29.96</v>
       </c>
       <c r="C251" s="2">
-        <v>8546221264</v>
+        <v>8766658441</v>
       </c>
       <c r="D251" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="C252" s="2">
-        <v>97477700673</v>
+        <v>98827571519</v>
       </c>
       <c r="D252" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>162</v>
+        <v>163.69</v>
       </c>
       <c r="C253" s="2">
-        <v>14735634201</v>
+        <v>14816870157</v>
       </c>
       <c r="D253" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>209.99</v>
+        <v>204.91</v>
       </c>
       <c r="C254" s="2">
-        <v>66461809352</v>
+        <v>66225087666</v>
       </c>
       <c r="D254" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>18.31</v>
+        <v>17.97</v>
       </c>
       <c r="C255" s="2">
-        <v>8343674237</v>
+        <v>8111573607</v>
       </c>
       <c r="D255" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>110.83</v>
+        <v>108.86</v>
       </c>
       <c r="C256" s="2">
-        <v>14523119222</v>
+        <v>14007471683</v>
       </c>
       <c r="D256" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>139.39</v>
+        <v>138.1</v>
       </c>
       <c r="C257" s="2">
-        <v>14723868155</v>
+        <v>14779095080</v>
       </c>
       <c r="D257" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>45.95</v>
+        <v>46.47</v>
       </c>
       <c r="C258" s="2">
-        <v>33899930143</v>
+        <v>34191486008</v>
       </c>
       <c r="D258" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>161.56</v>
+        <v>163.51</v>
       </c>
       <c r="C259" s="2">
-        <v>12574324780</v>
+        <v>12322004019</v>
       </c>
       <c r="D259" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>158.57</v>
+        <v>159.74</v>
       </c>
       <c r="C260" s="2">
-        <v>407667184333</v>
+        <v>413363303310</v>
       </c>
       <c r="D260" s="3">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C261" s="2">
-        <v>7688491503</v>
+        <v>7518341895</v>
       </c>
       <c r="D261" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5577,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>124.63</v>
+        <v>129.97</v>
       </c>
       <c r="C262" s="2">
-        <v>388331635795</v>
+        <v>397726565776</v>
       </c>
       <c r="D262" s="3">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>64.70999999999999</v>
+        <v>64.77</v>
       </c>
       <c r="C263" s="2">
-        <v>21665957520</v>
+        <v>21738090847</v>
       </c>
       <c r="D263" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.25</v>
+        <v>16.27</v>
       </c>
       <c r="C264" s="2">
-        <v>16176753063</v>
+        <v>16569578209</v>
       </c>
       <c r="D264" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5619,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>133.01</v>
+        <v>131.12</v>
       </c>
       <c r="C265" s="2">
-        <v>25023890885</v>
+        <v>25084372413</v>
       </c>
       <c r="D265" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>36</v>
+        <v>35.59</v>
       </c>
       <c r="C266" s="2">
-        <v>43580490977</v>
+        <v>43323667951</v>
       </c>
       <c r="D266" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>15.12</v>
+        <v>15.07</v>
       </c>
       <c r="C267" s="2">
-        <v>6455218898</v>
+        <v>6286033970</v>
       </c>
       <c r="D267" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5661,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>266.54</v>
+        <v>270.22</v>
       </c>
       <c r="C268" s="2">
-        <v>40330101795</v>
+        <v>40244941046</v>
       </c>
       <c r="D268" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5675,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>134.41</v>
+        <v>133.97</v>
       </c>
       <c r="C269" s="2">
-        <v>45701542196</v>
+        <v>47334998479</v>
       </c>
       <c r="D269" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>14.18</v>
+        <v>14.42</v>
       </c>
       <c r="C270" s="2">
-        <v>32021058996</v>
+        <v>32709420847</v>
       </c>
       <c r="D270" s="3">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C271" s="2">
-        <v>15422141120</v>
+        <v>15490418926</v>
       </c>
       <c r="D271" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>53.61</v>
+        <v>55.76</v>
       </c>
       <c r="C272" s="2">
-        <v>241009487222</v>
+        <v>238101676359</v>
       </c>
       <c r="D272" s="3">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>32.04</v>
+        <v>33.08</v>
       </c>
       <c r="C273" s="2">
-        <v>24470461455</v>
+        <v>24203481595</v>
       </c>
       <c r="D273" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>39.87</v>
+        <v>39.78</v>
       </c>
       <c r="C274" s="2">
-        <v>6230279448</v>
+        <v>6184427008</v>
       </c>
       <c r="D274" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>201.81</v>
+        <v>207.53</v>
       </c>
       <c r="C275" s="2">
-        <v>18868609775</v>
+        <v>19028538453</v>
       </c>
       <c r="D275" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C276" s="2">
-        <v>12139500213</v>
+        <v>12524842018</v>
       </c>
       <c r="D276" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>40.57</v>
+        <v>39.55</v>
       </c>
       <c r="C277" s="2">
-        <v>10875323431</v>
+        <v>11182464331</v>
       </c>
       <c r="D277" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>107.58</v>
+        <v>106.24</v>
       </c>
       <c r="C278" s="2">
-        <v>15062672887</v>
+        <v>15028750536</v>
       </c>
       <c r="D278" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>42.52</v>
+        <v>43.86</v>
       </c>
       <c r="C279" s="2">
-        <v>5865887880</v>
+        <v>5860559850</v>
       </c>
       <c r="D279" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>82.53</v>
+        <v>82.48</v>
       </c>
       <c r="C280" s="2">
-        <v>25047116353</v>
+        <v>24643107471</v>
       </c>
       <c r="D280" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,13 +5843,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>213.83</v>
+        <v>213.46</v>
       </c>
       <c r="C281" s="2">
-        <v>20353876928</v>
+        <v>20653264479</v>
       </c>
       <c r="D281" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5857,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>186.25</v>
+        <v>187.75</v>
       </c>
       <c r="C282" s="2">
-        <v>39487917834</v>
+        <v>40574187204</v>
       </c>
       <c r="D282" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,13 +5871,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>258.19</v>
+        <v>268.51</v>
       </c>
       <c r="C283" s="2">
-        <v>140879217312</v>
+        <v>134885799684</v>
       </c>
       <c r="D283" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>37.94</v>
+        <v>36.29</v>
       </c>
       <c r="C284" s="2">
-        <v>11434700252</v>
+        <v>11532727847</v>
       </c>
       <c r="D284" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>172.87</v>
+        <v>171.12</v>
       </c>
       <c r="C285" s="2">
-        <v>162363331527</v>
+        <v>164481696429</v>
       </c>
       <c r="D285" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>353</v>
+        <v>360.14</v>
       </c>
       <c r="C286" s="2">
-        <v>99878564569</v>
+        <v>100044401701</v>
       </c>
       <c r="D286" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>51.21</v>
+        <v>50.01</v>
       </c>
       <c r="C287" s="2">
-        <v>9774615553</v>
+        <v>9887808304</v>
       </c>
       <c r="D287" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>51.26</v>
+        <v>50.41</v>
       </c>
       <c r="C288" s="2">
-        <v>13112552142</v>
+        <v>12601472113</v>
       </c>
       <c r="D288" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>166.13</v>
+        <v>166.91</v>
       </c>
       <c r="C289" s="2">
-        <v>120296608535</v>
+        <v>124411781321</v>
       </c>
       <c r="D289" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5969,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>502.38</v>
+        <v>498.39</v>
       </c>
       <c r="C290" s="2">
-        <v>69239518347</v>
+        <v>69454731716</v>
       </c>
       <c r="D290" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>48.43</v>
+        <v>48.2</v>
       </c>
       <c r="C291" s="2">
-        <v>28342658272</v>
+        <v>27951081046</v>
       </c>
       <c r="D291" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>58.63</v>
+        <v>57.11</v>
       </c>
       <c r="C292" s="2">
-        <v>45661243151</v>
+        <v>43872933089</v>
       </c>
       <c r="D292" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>78.01000000000001</v>
+        <v>78.25</v>
       </c>
       <c r="C293" s="2">
-        <v>11791971318</v>
+        <v>11857159888</v>
       </c>
       <c r="D293" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>94.95</v>
+        <v>91.3</v>
       </c>
       <c r="C294" s="2">
-        <v>30498228959</v>
+        <v>31173688700</v>
       </c>
       <c r="D294" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.72</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="C295" s="2">
-        <v>15754858724</v>
+        <v>15965014932</v>
       </c>
       <c r="D295" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C296" s="2">
-        <v>333181279611</v>
+        <v>343601269665</v>
       </c>
       <c r="D296" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>129.8</v>
+        <v>128.6</v>
       </c>
       <c r="C297" s="2">
-        <v>14759549029</v>
+        <v>14506966436</v>
       </c>
       <c r="D297" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>132.07</v>
+        <v>130.78</v>
       </c>
       <c r="C298" s="2">
-        <v>43667547301</v>
+        <v>42090454028</v>
       </c>
       <c r="D298" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>58.86</v>
+        <v>57.05</v>
       </c>
       <c r="C299" s="2">
-        <v>15108199204</v>
+        <v>15453351895</v>
       </c>
       <c r="D299" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>219.79</v>
+        <v>219.54</v>
       </c>
       <c r="C300" s="2">
-        <v>160529063450</v>
+        <v>160996107211</v>
       </c>
       <c r="D300" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>138.29</v>
+        <v>142.35</v>
       </c>
       <c r="C301" s="2">
-        <v>36451476826</v>
+        <v>37136195828</v>
       </c>
       <c r="D301" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>172.11</v>
+        <v>177.2</v>
       </c>
       <c r="C302" s="2">
-        <v>27519997318</v>
+        <v>27564703254</v>
       </c>
       <c r="D302" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6151,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>281.74</v>
+        <v>288.77</v>
       </c>
       <c r="C303" s="2">
-        <v>53714852286</v>
+        <v>53687162213</v>
       </c>
       <c r="D303" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>58.37</v>
+        <v>60.5</v>
       </c>
       <c r="C304" s="2">
-        <v>83788498624</v>
+        <v>86131961991</v>
       </c>
       <c r="D304" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>115.64</v>
+        <v>117.4</v>
       </c>
       <c r="C305" s="2">
-        <v>154918754589</v>
+        <v>159835339493</v>
       </c>
       <c r="D305" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>46.75</v>
+        <v>47.4</v>
       </c>
       <c r="C306" s="2">
-        <v>43158832840</v>
+        <v>42634877110</v>
       </c>
       <c r="D306" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>30.96</v>
+        <v>31.55</v>
       </c>
       <c r="C307" s="2">
-        <v>15223973274</v>
+        <v>15549800208</v>
       </c>
       <c r="D307" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>143.31</v>
+        <v>139.34</v>
       </c>
       <c r="C308" s="2">
-        <v>9960621618</v>
+        <v>10073322757</v>
       </c>
       <c r="D308" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6235,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>94.34999999999999</v>
+        <v>97.73</v>
       </c>
       <c r="C309" s="2">
-        <v>25701841819</v>
+        <v>25628952890</v>
       </c>
       <c r="D309" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>590.67</v>
+        <v>595.13</v>
       </c>
       <c r="C310" s="2">
-        <v>22821552105</v>
+        <v>22606129383</v>
       </c>
       <c r="D310" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6263,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>275.15</v>
+        <v>283.46</v>
       </c>
       <c r="C311" s="2">
-        <v>17605450095</v>
+        <v>17460545379</v>
       </c>
       <c r="D311" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>116.01</v>
+        <v>115.44</v>
       </c>
       <c r="C312" s="2">
-        <v>60830805942</v>
+        <v>58916087897</v>
       </c>
       <c r="D312" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>178.43</v>
+        <v>181.51</v>
       </c>
       <c r="C313" s="2">
-        <v>102855160772</v>
+        <v>103675888458</v>
       </c>
       <c r="D313" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6305,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>91.33</v>
+        <v>90.27</v>
       </c>
       <c r="C314" s="2">
-        <v>48947468398</v>
+        <v>48643895652</v>
       </c>
       <c r="D314" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6319,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>43.69</v>
+        <v>42.32</v>
       </c>
       <c r="C315" s="2">
-        <v>79607309167</v>
+        <v>77738834865</v>
       </c>
       <c r="D315" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.59</v>
+        <v>22.68</v>
       </c>
       <c r="C316" s="2">
-        <v>8643920744</v>
+        <v>8543948079</v>
       </c>
       <c r="D316" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>42.41</v>
+        <v>42.33</v>
       </c>
       <c r="C317" s="2">
-        <v>27151512241</v>
+        <v>26851239765</v>
       </c>
       <c r="D317" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>82.58</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="C318" s="2">
-        <v>207868687098</v>
+        <v>212829729672</v>
       </c>
       <c r="D318" s="3">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="C319" s="2">
-        <v>5270701684</v>
+        <v>5325204067</v>
       </c>
       <c r="D319" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>70.69</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="C320" s="2">
-        <v>125210648615</v>
+        <v>127156107249</v>
       </c>
       <c r="D320" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6403,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>450.99</v>
+        <v>442.81</v>
       </c>
       <c r="C321" s="2">
-        <v>37391071075</v>
+        <v>37322913876</v>
       </c>
       <c r="D321" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,13 +6417,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>231.68</v>
+        <v>231.21</v>
       </c>
       <c r="C322" s="2">
-        <v>1689766540867</v>
+        <v>1755487097667</v>
       </c>
       <c r="D322" s="3">
-        <v>209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>170.7</v>
+        <v>176.41</v>
       </c>
       <c r="C323" s="2">
-        <v>29729447089</v>
+        <v>29447673947</v>
       </c>
       <c r="D323" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6445,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>125.94</v>
+        <v>126.69</v>
       </c>
       <c r="C324" s="2">
-        <v>16114363837</v>
+        <v>16200781164</v>
       </c>
       <c r="D324" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1155.69</v>
+        <v>1145.98</v>
       </c>
       <c r="C325" s="2">
-        <v>27321184580</v>
+        <v>27706600680</v>
       </c>
       <c r="D325" s="3">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>73</v>
+        <v>73.05</v>
       </c>
       <c r="C326" s="2">
-        <v>79342866438</v>
+        <v>81164820690</v>
       </c>
       <c r="D326" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>86.84999999999999</v>
+        <v>89.66</v>
       </c>
       <c r="C327" s="2">
-        <v>23805803330</v>
+        <v>23450096869</v>
       </c>
       <c r="D327" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.106</v>
+        <v>16.419</v>
       </c>
       <c r="C328" s="2">
-        <v>8784709131</v>
+        <v>8905910765</v>
       </c>
       <c r="D328" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.640000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="C329" s="2">
-        <v>4285450325</v>
+        <v>4105589971</v>
       </c>
       <c r="D329" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>25.05</v>
+        <v>25.69</v>
       </c>
       <c r="C330" s="2">
-        <v>5493478053</v>
+        <v>5330727475</v>
       </c>
       <c r="D330" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6543,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>134.2</v>
+        <v>130.96</v>
       </c>
       <c r="C331" s="2">
-        <v>21740913316</v>
+        <v>21521786449</v>
       </c>
       <c r="D331" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>77.36</v>
+        <v>75.14</v>
       </c>
       <c r="C332" s="2">
-        <v>152931689812</v>
+        <v>147895582141</v>
       </c>
       <c r="D332" s="3">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>63.44</v>
+        <v>62.97</v>
       </c>
       <c r="C333" s="2">
-        <v>48978483043</v>
+        <v>49659382936</v>
       </c>
       <c r="D333" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>515.05</v>
+        <v>528.83</v>
       </c>
       <c r="C334" s="2">
-        <v>233095461384</v>
+        <v>228390855097</v>
       </c>
       <c r="D334" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>22.95</v>
+        <v>22.93</v>
       </c>
       <c r="C335" s="2">
-        <v>8655344566</v>
+        <v>8512989231</v>
       </c>
       <c r="D335" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>145.5</v>
+        <v>146</v>
       </c>
       <c r="C336" s="2">
-        <v>225480224624</v>
+        <v>223124171888</v>
       </c>
       <c r="D336" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>21.61</v>
+        <v>21.89</v>
       </c>
       <c r="C337" s="2">
-        <v>12485132302</v>
+        <v>12461415792</v>
       </c>
       <c r="D337" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>20.91</v>
+        <v>21.24</v>
       </c>
       <c r="C338" s="2">
-        <v>7430625610</v>
+        <v>7408013213</v>
       </c>
       <c r="D338" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6655,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>301.4</v>
+        <v>312.5</v>
       </c>
       <c r="C339" s="2">
-        <v>50623032824</v>
+        <v>51460054954</v>
       </c>
       <c r="D339" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C340" s="2">
-        <v>5259549534</v>
+        <v>5327081343</v>
       </c>
       <c r="D340" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6683,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>568.34</v>
+        <v>574.83</v>
       </c>
       <c r="C341" s="2">
-        <v>112514565872</v>
+        <v>108639085676</v>
       </c>
       <c r="D341" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>35.15</v>
+        <v>35.09</v>
       </c>
       <c r="C342" s="2">
-        <v>8652900307</v>
+        <v>8786721500</v>
       </c>
       <c r="D342" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6711,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>240.01</v>
+        <v>245.7</v>
       </c>
       <c r="C343" s="2">
-        <v>59618602217</v>
+        <v>61275974980</v>
       </c>
       <c r="D343" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>68.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C344" s="2">
-        <v>15299417381</v>
+        <v>15053376773</v>
       </c>
       <c r="D344" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>92.19</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C345" s="2">
-        <v>19377277374</v>
+        <v>19551898747</v>
       </c>
       <c r="D345" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>54.43</v>
+        <v>53.58</v>
       </c>
       <c r="C346" s="2">
-        <v>16327690790</v>
+        <v>15883987707</v>
       </c>
       <c r="D346" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6767,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>540.16</v>
+        <v>530.55</v>
       </c>
       <c r="C347" s="2">
-        <v>327498340757</v>
+        <v>335984602774</v>
       </c>
       <c r="D347" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4344.21</v>
+        <v>4371.48</v>
       </c>
       <c r="C348" s="2">
-        <v>15809654844</v>
+        <v>15742099063</v>
       </c>
       <c r="D348" s="3">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>22.03</v>
+        <v>21.24</v>
       </c>
       <c r="C349" s="2">
-        <v>9305650794</v>
+        <v>9264266476</v>
       </c>
       <c r="D349" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>18.33</v>
+        <v>18.51</v>
       </c>
       <c r="C350" s="2">
-        <v>10568842797</v>
+        <v>10522759060</v>
       </c>
       <c r="D350" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>18.6</v>
+        <v>18.41</v>
       </c>
       <c r="C351" s="2">
-        <v>10920964400</v>
+        <v>10958377940</v>
       </c>
       <c r="D351" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>64.09</v>
+        <v>62.74</v>
       </c>
       <c r="C352" s="2">
-        <v>21499259004</v>
+        <v>22028757167</v>
       </c>
       <c r="D352" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6851,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>203.4</v>
+        <v>207.11</v>
       </c>
       <c r="C353" s="2">
-        <v>24100746648</v>
+        <v>24371885293</v>
       </c>
       <c r="D353" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>39.5</v>
+        <v>39.2</v>
       </c>
       <c r="C354" s="2">
-        <v>17574903861</v>
+        <v>17631188836</v>
       </c>
       <c r="D354" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>62</v>
+        <v>63.5</v>
       </c>
       <c r="C355" s="2">
-        <v>13203529192</v>
+        <v>13291923064</v>
       </c>
       <c r="D355" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>64.98999999999999</v>
+        <v>66.63</v>
       </c>
       <c r="C356" s="2">
-        <v>191246149831</v>
+        <v>200761653075</v>
       </c>
       <c r="D356" s="3">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6907,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>481.87</v>
+        <v>472.02</v>
       </c>
       <c r="C357" s="2">
-        <v>34148579892</v>
+        <v>34039078795</v>
       </c>
       <c r="D357" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>67.18000000000001</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="C358" s="2">
-        <v>29746475765</v>
+        <v>28929693455</v>
       </c>
       <c r="D358" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>17.89</v>
+        <v>18.53</v>
       </c>
       <c r="C359" s="2">
-        <v>16710178189</v>
+        <v>16555506332</v>
       </c>
       <c r="D359" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6949,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>469.63</v>
+        <v>465.16</v>
       </c>
       <c r="C360" s="2">
-        <v>27760853938</v>
+        <v>27385388010</v>
       </c>
       <c r="D360" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>95.29000000000001</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="C361" s="2">
-        <v>35006459386</v>
+        <v>34915193428</v>
       </c>
       <c r="D361" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>13.32</v>
+        <v>13.3</v>
       </c>
       <c r="C362" s="2">
-        <v>5625706228</v>
+        <v>5586980944</v>
       </c>
       <c r="D362" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>87.5</v>
+        <v>87.22</v>
       </c>
       <c r="C363" s="2">
-        <v>30567931220</v>
+        <v>31099827633</v>
       </c>
       <c r="D363" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7008,10 +7008,10 @@
         <v>31.01</v>
       </c>
       <c r="C364" s="2">
-        <v>16737777939</v>
+        <v>16181855492</v>
       </c>
       <c r="D364" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>59.45</v>
+        <v>59.59</v>
       </c>
       <c r="C365" s="2">
-        <v>29652099889</v>
+        <v>29842081228</v>
       </c>
       <c r="D365" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>145.09</v>
+        <v>149.52</v>
       </c>
       <c r="C366" s="2">
-        <v>204159588975</v>
+        <v>209514508575</v>
       </c>
       <c r="D366" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>38.1</v>
+        <v>37.92</v>
       </c>
       <c r="C367" s="2">
-        <v>215034113622</v>
+        <v>212964237255</v>
       </c>
       <c r="D367" s="3">
-        <v>162</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.66</v>
+        <v>50.35</v>
       </c>
       <c r="C368" s="2">
-        <v>13711885525</v>
+        <v>13527824412</v>
       </c>
       <c r="D368" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7075,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>140.73</v>
+        <v>143.43</v>
       </c>
       <c r="C369" s="2">
-        <v>350169891987</v>
+        <v>349279310084</v>
       </c>
       <c r="D369" s="3">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>99.79000000000001</v>
+        <v>99.55</v>
       </c>
       <c r="C370" s="2">
-        <v>58650408512</v>
+        <v>59731567573</v>
       </c>
       <c r="D370" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7103,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>270.58</v>
+        <v>272.33</v>
       </c>
       <c r="C371" s="2">
-        <v>35999987740</v>
+        <v>34793303238</v>
       </c>
       <c r="D371" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>45.8</v>
+        <v>46.6</v>
       </c>
       <c r="C372" s="2">
-        <v>12161102511</v>
+        <v>12692178107</v>
       </c>
       <c r="D372" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>140.9</v>
+        <v>141.4</v>
       </c>
       <c r="C373" s="2">
-        <v>13031439802</v>
+        <v>13187010810</v>
       </c>
       <c r="D373" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>140.66</v>
+        <v>141.62</v>
       </c>
       <c r="C374" s="2">
-        <v>16013090129</v>
+        <v>16157190566</v>
       </c>
       <c r="D374" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7159,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>101.21</v>
+        <v>100.56</v>
       </c>
       <c r="C375" s="2">
-        <v>73089921604</v>
+        <v>71961908274</v>
       </c>
       <c r="D375" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7173,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>84.43000000000001</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="C376" s="2">
-        <v>132634201650</v>
+        <v>134472800208</v>
       </c>
       <c r="D376" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>147.02</v>
+        <v>150.18</v>
       </c>
       <c r="C377" s="2">
-        <v>63673472284</v>
+        <v>62309148270</v>
       </c>
       <c r="D377" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>53.35</v>
+        <v>54.94</v>
       </c>
       <c r="C378" s="2">
-        <v>8785106055</v>
+        <v>8754873662</v>
       </c>
       <c r="D378" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>79.51000000000001</v>
+        <v>81.38</v>
       </c>
       <c r="C379" s="2">
-        <v>8770536650</v>
+        <v>9204940887</v>
       </c>
       <c r="D379" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C380" s="2">
-        <v>35842042862</v>
+        <v>35160203055</v>
       </c>
       <c r="D380" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>27.12</v>
+        <v>28</v>
       </c>
       <c r="C381" s="2">
-        <v>20917168238</v>
+        <v>21116656398</v>
       </c>
       <c r="D381" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>44.92</v>
+        <v>46.2</v>
       </c>
       <c r="C382" s="2">
-        <v>6165425034</v>
+        <v>6156664842</v>
       </c>
       <c r="D382" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>79.39</v>
+        <v>79.09</v>
       </c>
       <c r="C383" s="2">
-        <v>30635961487</v>
+        <v>30580499487</v>
       </c>
       <c r="D383" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7285,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>235.54</v>
+        <v>233.9</v>
       </c>
       <c r="C384" s="2">
-        <v>41396303317</v>
+        <v>40223366910</v>
       </c>
       <c r="D384" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>71.59999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="C385" s="2">
-        <v>30724423089</v>
+        <v>30308922081</v>
       </c>
       <c r="D385" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>95.45999999999999</v>
+        <v>96.73</v>
       </c>
       <c r="C386" s="2">
-        <v>6821020931</v>
+        <v>6953162821</v>
       </c>
       <c r="D386" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>73.26000000000001</v>
+        <v>72.39</v>
       </c>
       <c r="C387" s="2">
-        <v>10245417961</v>
+        <v>10296886725</v>
       </c>
       <c r="D387" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>115.14</v>
+        <v>117.72</v>
       </c>
       <c r="C388" s="2">
-        <v>18541405671</v>
+        <v>19025967094</v>
       </c>
       <c r="D388" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7355,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>249.94</v>
+        <v>239.35</v>
       </c>
       <c r="C389" s="2">
-        <v>290343967667</v>
+        <v>286011745870</v>
       </c>
       <c r="D389" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>148.88</v>
+        <v>150.43</v>
       </c>
       <c r="C390" s="2">
-        <v>168645271262</v>
+        <v>171510071331</v>
       </c>
       <c r="D390" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>167.34</v>
+        <v>174.56</v>
       </c>
       <c r="C391" s="2">
-        <v>19203631951</v>
+        <v>19540948783</v>
       </c>
       <c r="D391" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>71.56</v>
+        <v>72.39</v>
       </c>
       <c r="C392" s="2">
-        <v>16052065540</v>
+        <v>16079234118</v>
       </c>
       <c r="D392" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>237.48</v>
+        <v>230.21</v>
       </c>
       <c r="C393" s="2">
-        <v>9373416088</v>
+        <v>9215168021</v>
       </c>
       <c r="D393" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>47.44</v>
+        <v>47.43</v>
       </c>
       <c r="C394" s="2">
-        <v>7835244028</v>
+        <v>7788458412</v>
       </c>
       <c r="D394" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7439,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>506.09</v>
+        <v>510.25</v>
       </c>
       <c r="C395" s="2">
-        <v>52690188171</v>
+        <v>51519294717</v>
       </c>
       <c r="D395" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.22</v>
+        <v>16.07</v>
       </c>
       <c r="C396" s="2">
-        <v>15678463800</v>
+        <v>15895451636</v>
       </c>
       <c r="D396" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>64.68000000000001</v>
+        <v>64.87</v>
       </c>
       <c r="C397" s="2">
-        <v>7176321053</v>
+        <v>7383406324</v>
       </c>
       <c r="D397" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>95.95999999999999</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="C398" s="2">
-        <v>13156505835</v>
+        <v>13111111359</v>
       </c>
       <c r="D398" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>104.7</v>
+        <v>105.39</v>
       </c>
       <c r="C399" s="2">
-        <v>7457286453</v>
+        <v>7690504082</v>
       </c>
       <c r="D399" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7509,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>214.68</v>
+        <v>213.33</v>
       </c>
       <c r="C400" s="2">
-        <v>31310337422</v>
+        <v>31020417630</v>
       </c>
       <c r="D400" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7523,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>258.44</v>
+        <v>258.81</v>
       </c>
       <c r="C401" s="2">
-        <v>28995453217</v>
+        <v>29178631094</v>
       </c>
       <c r="D401" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.21</v>
+        <v>40.44</v>
       </c>
       <c r="C402" s="2">
-        <v>20280634364</v>
+        <v>20007862655</v>
       </c>
       <c r="D402" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7551,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>430.06</v>
+        <v>427.77</v>
       </c>
       <c r="C403" s="2">
-        <v>45935253968</v>
+        <v>46251841212</v>
       </c>
       <c r="D403" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>120.38</v>
+        <v>119.59</v>
       </c>
       <c r="C404" s="2">
-        <v>42640281913</v>
+        <v>43610661512</v>
       </c>
       <c r="D404" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>100.29</v>
+        <v>95.83</v>
       </c>
       <c r="C405" s="2">
-        <v>31881765773</v>
+        <v>30760374883</v>
       </c>
       <c r="D405" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>72.25</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C406" s="2">
-        <v>110626285596</v>
+        <v>111024451038</v>
       </c>
       <c r="D406" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>280.34</v>
+        <v>276.7</v>
       </c>
       <c r="C407" s="2">
-        <v>30677343171</v>
+        <v>30638780581</v>
       </c>
       <c r="D407" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>102.03</v>
+        <v>102.26</v>
       </c>
       <c r="C408" s="2">
-        <v>124332406629</v>
+        <v>121242841847</v>
       </c>
       <c r="D408" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>54.34</v>
+        <v>52.72</v>
       </c>
       <c r="C409" s="2">
-        <v>98335302992</v>
+        <v>102607217173</v>
       </c>
       <c r="D409" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>46.3</v>
+        <v>47.6</v>
       </c>
       <c r="C410" s="2">
-        <v>7179428975</v>
+        <v>7496525960</v>
       </c>
       <c r="D410" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7663,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>746.2</v>
+        <v>764.9</v>
       </c>
       <c r="C411" s="2">
-        <v>67543054971</v>
+        <v>69796391272</v>
       </c>
       <c r="D411" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7677,13 +7677,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>376.04</v>
+        <v>380.86</v>
       </c>
       <c r="C412" s="2">
-        <v>19555359374</v>
+        <v>20077983083</v>
       </c>
       <c r="D412" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>118.49</v>
+        <v>116.82</v>
       </c>
       <c r="C413" s="2">
-        <v>13845581675</v>
+        <v>13795392869</v>
       </c>
       <c r="D413" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>22.52</v>
+        <v>21.9</v>
       </c>
       <c r="C414" s="2">
-        <v>30550029740</v>
+        <v>30632726507</v>
       </c>
       <c r="D414" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>59.1</v>
+        <v>57.38</v>
       </c>
       <c r="C415" s="2">
-        <v>4316048258</v>
+        <v>4159227061</v>
       </c>
       <c r="D415" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7733,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>175.87</v>
+        <v>174.6</v>
       </c>
       <c r="C416" s="2">
-        <v>9463372919</v>
+        <v>9309065191</v>
       </c>
       <c r="D416" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7747,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>256.45</v>
+        <v>262.27</v>
       </c>
       <c r="C417" s="2">
-        <v>39351858864</v>
+        <v>40910167078</v>
       </c>
       <c r="D417" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>60.1</v>
+        <v>59.9</v>
       </c>
       <c r="C418" s="2">
-        <v>65824376791</v>
+        <v>63982658003</v>
       </c>
       <c r="D418" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>85.75</v>
+        <v>85.09</v>
       </c>
       <c r="C419" s="2">
-        <v>27848226076</v>
+        <v>28860393882</v>
       </c>
       <c r="D419" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7789,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>319.44</v>
+        <v>317</v>
       </c>
       <c r="C420" s="2">
-        <v>77990046238</v>
+        <v>79409001703</v>
       </c>
       <c r="D420" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>129.7</v>
+        <v>129.3</v>
       </c>
       <c r="C421" s="2">
-        <v>37221047205</v>
+        <v>37065865271</v>
       </c>
       <c r="D421" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>195.43</v>
+        <v>194.08</v>
       </c>
       <c r="C422" s="2">
-        <v>16407293518</v>
+        <v>16162745936</v>
       </c>
       <c r="D422" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>71.89</v>
+        <v>74.31</v>
       </c>
       <c r="C423" s="2">
-        <v>25864054873</v>
+        <v>25383233554</v>
       </c>
       <c r="D423" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>63.31</v>
+        <v>63.6</v>
       </c>
       <c r="C424" s="2">
-        <v>16949974451</v>
+        <v>16259159427</v>
       </c>
       <c r="D424" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7859,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>217.96</v>
+        <v>226.15</v>
       </c>
       <c r="C425" s="2">
-        <v>41850779630</v>
+        <v>42834041996</v>
       </c>
       <c r="D425" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>183.17</v>
+        <v>184.5</v>
       </c>
       <c r="C426" s="2">
-        <v>30061969206</v>
+        <v>29400240797</v>
       </c>
       <c r="D426" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>152.76</v>
+        <v>158.2</v>
       </c>
       <c r="C427" s="2">
-        <v>25850853589</v>
+        <v>25886445859</v>
       </c>
       <c r="D427" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>35.4</v>
+        <v>35.18</v>
       </c>
       <c r="C428" s="2">
-        <v>20423272000</v>
+        <v>20663513372</v>
       </c>
       <c r="D428" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7915,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>239.89</v>
+        <v>238.47</v>
       </c>
       <c r="C429" s="2">
-        <v>93031931462</v>
+        <v>91164421395</v>
       </c>
       <c r="D429" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>73.09</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C430" s="2">
-        <v>38046070901</v>
+        <v>38137724284</v>
       </c>
       <c r="D430" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>29.42</v>
+        <v>28.92</v>
       </c>
       <c r="C431" s="2">
-        <v>213406009277</v>
+        <v>206509494288</v>
       </c>
       <c r="D431" s="3">
-        <v>208</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>46.59</v>
+        <v>47.04</v>
       </c>
       <c r="C432" s="2">
-        <v>9546192828</v>
+        <v>9546730056</v>
       </c>
       <c r="D432" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7971,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>632.09</v>
+        <v>636.76</v>
       </c>
       <c r="C433" s="2">
-        <v>33216304910</v>
+        <v>33867001764</v>
       </c>
       <c r="D433" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,13 +7985,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>395.52</v>
+        <v>393.33</v>
       </c>
       <c r="C434" s="2">
-        <v>14624044074</v>
+        <v>14441852390</v>
       </c>
       <c r="D434" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>121.64</v>
+        <v>119.99</v>
       </c>
       <c r="C435" s="2">
-        <v>40623673632</v>
+        <v>40595124046</v>
       </c>
       <c r="D435" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>48.91</v>
+        <v>48.62</v>
       </c>
       <c r="C436" s="2">
-        <v>64387653343</v>
+        <v>64641481891</v>
       </c>
       <c r="D436" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8027,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>413.84</v>
+        <v>412.91</v>
       </c>
       <c r="C437" s="2">
-        <v>19399619392</v>
+        <v>19237878892</v>
       </c>
       <c r="D437" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>178.2</v>
+        <v>180.23</v>
       </c>
       <c r="C438" s="2">
-        <v>88556940137</v>
+        <v>90488769551</v>
       </c>
       <c r="D438" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,13 +8055,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>135.23</v>
+        <v>136.51</v>
       </c>
       <c r="C439" s="2">
-        <v>16596241164</v>
+        <v>16400942776</v>
       </c>
       <c r="D439" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>69.63</v>
+        <v>68.41</v>
       </c>
       <c r="C440" s="2">
-        <v>80503381391</v>
+        <v>82184310773</v>
       </c>
       <c r="D440" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8083,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>464.77</v>
+        <v>466.59</v>
       </c>
       <c r="C441" s="2">
-        <v>186654769898</v>
+        <v>189728544178</v>
       </c>
       <c r="D441" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>134.36</v>
+        <v>138.85</v>
       </c>
       <c r="C442" s="2">
-        <v>173088035737</v>
+        <v>170525451218</v>
       </c>
       <c r="D442" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>31.58</v>
+        <v>31.06</v>
       </c>
       <c r="C443" s="2">
-        <v>8636470772</v>
+        <v>8666882612</v>
       </c>
       <c r="D443" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>149.85</v>
+        <v>151.71</v>
       </c>
       <c r="C444" s="2">
-        <v>34072611427</v>
+        <v>33707512103</v>
       </c>
       <c r="D444" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8139,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>139.8</v>
+        <v>144.83</v>
       </c>
       <c r="C445" s="2">
-        <v>36501315380</v>
+        <v>36810443826</v>
       </c>
       <c r="D445" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,13 +8153,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>153.76</v>
+        <v>151.87</v>
       </c>
       <c r="C446" s="2">
-        <v>17259969123</v>
+        <v>17372130516</v>
       </c>
       <c r="D446" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>67.98</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C447" s="2">
-        <v>23979564151</v>
+        <v>23759336204</v>
       </c>
       <c r="D447" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>143.96</v>
+        <v>147.93</v>
       </c>
       <c r="C448" s="2">
-        <v>35187119491</v>
+        <v>35886587785</v>
       </c>
       <c r="D448" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,13 +8195,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>206.2</v>
+        <v>208</v>
       </c>
       <c r="C449" s="2">
-        <v>24243760708</v>
+        <v>24402795358</v>
       </c>
       <c r="D449" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>56.41</v>
+        <v>55.59</v>
       </c>
       <c r="C450" s="2">
-        <v>43697723063</v>
+        <v>44193003857</v>
       </c>
       <c r="D450" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8223,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>169.66</v>
+        <v>162.91</v>
       </c>
       <c r="C451" s="2">
-        <v>154049489553</v>
+        <v>151979472963</v>
       </c>
       <c r="D451" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>48.4</v>
+        <v>49.34</v>
       </c>
       <c r="C452" s="2">
-        <v>11147304749</v>
+        <v>11088730337</v>
       </c>
       <c r="D452" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8251,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>447.1</v>
+        <v>447.44</v>
       </c>
       <c r="C453" s="2">
-        <v>18364159854</v>
+        <v>18294036885</v>
       </c>
       <c r="D453" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>15.45</v>
+        <v>15.43</v>
       </c>
       <c r="C454" s="2">
-        <v>7401097272</v>
+        <v>7485858928</v>
       </c>
       <c r="D454" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>18.22</v>
+        <v>18.24</v>
       </c>
       <c r="C455" s="2">
-        <v>7407814492</v>
+        <v>7534627485</v>
       </c>
       <c r="D455" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>43.55</v>
+        <v>45.42</v>
       </c>
       <c r="C456" s="2">
-        <v>12891637529</v>
+        <v>13267408347</v>
       </c>
       <c r="D456" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>38.76</v>
+        <v>38.64</v>
       </c>
       <c r="C457" s="2">
-        <v>11484626350</v>
+        <v>11104451420</v>
       </c>
       <c r="D457" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>137.65</v>
+        <v>141.59</v>
       </c>
       <c r="C458" s="2">
-        <v>11745992059</v>
+        <v>12187347918</v>
       </c>
       <c r="D458" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>275.55</v>
+        <v>268.25</v>
       </c>
       <c r="C459" s="2">
-        <v>15135368217</v>
+        <v>14929100179</v>
       </c>
       <c r="D459" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,13 +8349,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>340.83</v>
+        <v>352.32</v>
       </c>
       <c r="C460" s="2">
-        <v>335496337610</v>
+        <v>336694010808</v>
       </c>
       <c r="D460" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>22.09</v>
+        <v>22.03</v>
       </c>
       <c r="C461" s="2">
-        <v>4559724872</v>
+        <v>4487453134</v>
       </c>
       <c r="D461" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>212.57</v>
+        <v>212.45</v>
       </c>
       <c r="C462" s="2">
-        <v>137453138934</v>
+        <v>140871478282</v>
       </c>
       <c r="D462" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>177.43</v>
+        <v>176.45</v>
       </c>
       <c r="C463" s="2">
-        <v>151222413731</v>
+        <v>152226283381</v>
       </c>
       <c r="D463" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8405,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>239.34</v>
+        <v>233.8</v>
       </c>
       <c r="C464" s="2">
-        <v>17243887797</v>
+        <v>17101311300</v>
       </c>
       <c r="D464" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>48.08</v>
+        <v>47.78</v>
       </c>
       <c r="C465" s="2">
-        <v>72249941738</v>
+        <v>70381532185</v>
       </c>
       <c r="D465" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>209.8</v>
+        <v>217.4</v>
       </c>
       <c r="C466" s="2">
-        <v>468350624916</v>
+        <v>460800818571</v>
       </c>
       <c r="D466" s="3">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>181.13</v>
+        <v>175.94</v>
       </c>
       <c r="C467" s="2">
-        <v>16506861211</v>
+        <v>16606804337</v>
       </c>
       <c r="D467" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>85.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C468" s="2">
-        <v>33196817739</v>
+        <v>33538577943</v>
       </c>
       <c r="D468" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>37.32</v>
+        <v>36.31</v>
       </c>
       <c r="C469" s="2">
-        <v>22427069069</v>
+        <v>22291388533</v>
       </c>
       <c r="D469" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>55.77</v>
+        <v>57.3</v>
       </c>
       <c r="C470" s="2">
-        <v>23362146118</v>
+        <v>22876634605</v>
       </c>
       <c r="D470" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8503,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>147.65</v>
+        <v>144.62</v>
       </c>
       <c r="C471" s="2">
-        <v>19850582253</v>
+        <v>19239689101</v>
       </c>
       <c r="D471" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>37.54</v>
+        <v>36.59</v>
       </c>
       <c r="C472" s="2">
-        <v>7175122605</v>
+        <v>7062412830</v>
       </c>
       <c r="D472" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>206.47</v>
+        <v>208.16</v>
       </c>
       <c r="C473" s="2">
-        <v>33495016715</v>
+        <v>33193973366</v>
       </c>
       <c r="D473" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8545,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>222.18</v>
+        <v>217.41</v>
       </c>
       <c r="C474" s="2">
-        <v>25573780944</v>
+        <v>25006834817</v>
       </c>
       <c r="D474" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8559,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>243.93</v>
+        <v>245.74</v>
       </c>
       <c r="C475" s="2">
-        <v>62047624880</v>
+        <v>63723056494</v>
       </c>
       <c r="D475" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>51.26</v>
+        <v>51.03</v>
       </c>
       <c r="C476" s="2">
-        <v>18698002977</v>
+        <v>18493175216</v>
       </c>
       <c r="D476" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>59.91</v>
+        <v>59.2</v>
       </c>
       <c r="C477" s="2">
-        <v>253470601660</v>
+        <v>247454231489</v>
       </c>
       <c r="D477" s="3">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>76.26000000000001</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="C478" s="2">
-        <v>14474545851</v>
+        <v>14220558845</v>
       </c>
       <c r="D478" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8615,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>248</v>
+        <v>254.9</v>
       </c>
       <c r="C479" s="2">
-        <v>15518923577</v>
+        <v>15823831178</v>
       </c>
       <c r="D479" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>40.32</v>
+        <v>41</v>
       </c>
       <c r="C480" s="2">
-        <v>35873218214</v>
+        <v>35443909972</v>
       </c>
       <c r="D480" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>51.73</v>
+        <v>51.8</v>
       </c>
       <c r="C481" s="2">
-        <v>15441707601</v>
+        <v>15926363457</v>
       </c>
       <c r="D481" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>92.59999999999999</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="C482" s="2">
-        <v>28213014585</v>
+        <v>29539852912</v>
       </c>
       <c r="D482" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>66.58</v>
+        <v>63.75</v>
       </c>
       <c r="C483" s="2">
-        <v>26877721409</v>
+        <v>27759464840</v>
       </c>
       <c r="D483" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>30.24</v>
+        <v>30.84</v>
       </c>
       <c r="C484" s="2">
-        <v>124820316778</v>
+        <v>127887297569</v>
       </c>
       <c r="D484" s="3">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>195.3</v>
+        <v>198.4</v>
       </c>
       <c r="C485" s="2">
-        <v>12472349307</v>
+        <v>12340609486</v>
       </c>
       <c r="D485" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>217.2</v>
+        <v>219.26</v>
       </c>
       <c r="C486" s="2">
-        <v>28600172028</v>
+        <v>27546762705</v>
       </c>
       <c r="D486" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8730,10 +8730,10 @@
         <v>122</v>
       </c>
       <c r="C487" s="2">
-        <v>51255861524</v>
+        <v>50022854708</v>
       </c>
       <c r="D487" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>21.76</v>
+        <v>21.13</v>
       </c>
       <c r="C488" s="2">
-        <v>26187337544</v>
+        <v>25997621004</v>
       </c>
       <c r="D488" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>148.5</v>
+        <v>145.8</v>
       </c>
       <c r="C489" s="2">
-        <v>425644304967</v>
+        <v>419110610043</v>
       </c>
       <c r="D489" s="3">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="C490" s="2">
-        <v>12095621295</v>
+        <v>12055786941</v>
       </c>
       <c r="D490" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>45.54</v>
+        <v>46.63</v>
       </c>
       <c r="C491" s="2">
-        <v>12206753141</v>
+        <v>11981123643</v>
       </c>
       <c r="D491" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8797,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>295.07</v>
+        <v>286.71</v>
       </c>
       <c r="C492" s="2">
-        <v>20969783427</v>
+        <v>21963170252</v>
       </c>
       <c r="D492" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.12</v>
+        <v>22.65</v>
       </c>
       <c r="C493" s="2">
-        <v>9368519639</v>
+        <v>9242853114</v>
       </c>
       <c r="D493" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>34.05</v>
+        <v>35.1</v>
       </c>
       <c r="C494" s="2">
-        <v>26330025214</v>
+        <v>25788377151</v>
       </c>
       <c r="D494" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>118.57</v>
+        <v>119.89</v>
       </c>
       <c r="C495" s="2">
-        <v>12650175604</v>
+        <v>12648809347</v>
       </c>
       <c r="D495" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8853,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>67.8</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C496" s="2">
-        <v>34430063897</v>
+        <v>34816925708</v>
       </c>
       <c r="D496" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>144.43</v>
+        <v>146.49</v>
       </c>
       <c r="C497" s="2">
-        <v>35117741211</v>
+        <v>35455775559</v>
       </c>
       <c r="D497" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="C498" s="2">
-        <v>182913357352</v>
+        <v>182045160511</v>
       </c>
       <c r="D498" s="3">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>52.61</v>
+        <v>53.21</v>
       </c>
       <c r="C499" s="2">
-        <v>11492502997</v>
+        <v>11828061493</v>
       </c>
       <c r="D499" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.32</v>
+        <v>23.16</v>
       </c>
       <c r="C500" s="2">
-        <v>4495622630</v>
+        <v>4518934397</v>
       </c>
       <c r="D500" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,13 +8923,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>102.24</v>
+        <v>101.82</v>
       </c>
       <c r="C501" s="2">
-        <v>18678819148</v>
+        <v>18215801742</v>
       </c>
       <c r="D501" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>110.88</v>
+        <v>112.26</v>
       </c>
       <c r="C502" s="2">
-        <v>33651654034</v>
+        <v>32708850633</v>
       </c>
       <c r="D502" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>153.14</v>
+        <v>150.42</v>
       </c>
       <c r="C503" s="2">
-        <v>32095912933</v>
+        <v>31335926200</v>
       </c>
       <c r="D503" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8965,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>385.36</v>
+        <v>394.63</v>
       </c>
       <c r="C504" s="2">
-        <v>20492787494</v>
+        <v>20744956057</v>
       </c>
       <c r="D504" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>45.5</v>
+        <v>44.13</v>
       </c>
       <c r="C505" s="2">
-        <v>7199224570</v>
+        <v>7368523438</v>
       </c>
       <c r="D505" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8993,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>162.06</v>
+        <v>166.73</v>
       </c>
       <c r="C506" s="2">
-        <v>78385304027</v>
+        <v>79393062462</v>
       </c>
       <c r="D506" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project_1b (marketcap_weighted_spdr)/recommended trades (marketcap).xlsx
+++ b/project_1b (marketcap_weighted_spdr)/recommended trades (marketcap).xlsx
@@ -1547,8 +1547,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1611,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1937,13 +1938,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>118.76</v>
+        <v>119.53</v>
       </c>
       <c r="C2" s="2">
-        <v>37159303206</v>
+        <v>36392341880</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>0.4387316264379296</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1952,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16.15</v>
+        <v>15.94</v>
       </c>
       <c r="C3" s="2">
-        <v>9877752814</v>
+        <v>9611752382</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.8689206428135126</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1966,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>165.96</v>
+        <v>162.15</v>
       </c>
       <c r="C4" s="2">
-        <v>11103307387</v>
+        <v>11310699024</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>0.1005167298116627</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>136.61</v>
+        <v>137.14</v>
       </c>
       <c r="C5" s="2">
-        <v>2336171167946</v>
+        <v>2267846475728</v>
       </c>
       <c r="D5" s="3">
-        <v>24</v>
+        <v>23.82952381611344</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>108.17</v>
+        <v>104.65</v>
       </c>
       <c r="C6" s="2">
-        <v>189309958807</v>
+        <v>183461543029</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>2.526222896715644</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2008,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>100.03</v>
+        <v>99.19</v>
       </c>
       <c r="C7" s="2">
-        <v>19915556137</v>
+        <v>20176745229</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>0.2931224472218864</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>306.92</v>
+        <v>317.72</v>
       </c>
       <c r="C8" s="2">
-        <v>13946374979</v>
+        <v>13818354953</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>0.06267259080590082</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2036,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>113.22</v>
+        <v>110.52</v>
       </c>
       <c r="C9" s="2">
-        <v>201497508447</v>
+        <v>193748907211</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>2.526179714073379</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2050,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>259.8</v>
+        <v>257.8</v>
       </c>
       <c r="C10" s="2">
-        <v>170311730698</v>
+        <v>177513371392</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>0.9922338004884786</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2064,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>504.79</v>
+        <v>513.76</v>
       </c>
       <c r="C11" s="2">
-        <v>245135310760</v>
+        <v>243366903044</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>0.6826012593933</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>146.76</v>
+        <v>149.29</v>
       </c>
       <c r="C12" s="2">
-        <v>54710887297</v>
+        <v>54811591966</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>0.5290632018283725</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2092,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>50.51</v>
+        <v>51.77</v>
       </c>
       <c r="C13" s="2">
-        <v>28082277272</v>
+        <v>28138553314</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>0.7832302603479689</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2106,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>183.56</v>
+        <v>185.22</v>
       </c>
       <c r="C14" s="2">
-        <v>77066202011</v>
+        <v>78505932628</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.6107738789988275</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,13 +2120,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>315.44</v>
+        <v>310.86</v>
       </c>
       <c r="C15" s="2">
-        <v>66894974704</v>
+        <v>67518464392</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.3129850341242297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2133,13 +2134,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>78.56</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>19834119954</v>
+        <v>19408181157</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>0.3524550715237634</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2148,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>82.52</v>
+        <v>81.83</v>
       </c>
       <c r="C17" s="2">
-        <v>41932075305</v>
+        <v>40659302734</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>0.7160003479684227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2162,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>23.68</v>
+        <v>24.07</v>
       </c>
       <c r="C18" s="2">
-        <v>16017003212</v>
+        <v>15561273116</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>0.9316116110922004</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2176,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>44.2</v>
+        <v>45.17</v>
       </c>
       <c r="C19" s="2">
-        <v>31851916468</v>
+        <v>32008698152</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>1.0211364488341</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2190,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>38.72</v>
+        <v>37.65</v>
       </c>
       <c r="C20" s="2">
-        <v>32763645504</v>
+        <v>32270249433</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>1.235103065571125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2204,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.15</v>
+        <v>5.22</v>
       </c>
       <c r="C21" s="2">
-        <v>789681281</v>
+        <v>780398700</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>0.2154328327940234</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2218,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>136.7</v>
+        <v>138.02</v>
       </c>
       <c r="C22" s="2">
-        <v>8176316302</v>
+        <v>7796788124</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>0.08140284195548421</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2232,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>127.81</v>
+        <v>128.01</v>
       </c>
       <c r="C23" s="2">
-        <v>24361004315</v>
+        <v>24869669488</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>0.2799574144649837</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>108.23</v>
+        <v>110.62</v>
       </c>
       <c r="C24" s="2">
-        <v>18141474759</v>
+        <v>17531586812</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>0.2283775608971904</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2260,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>154.08</v>
+        <v>153.64</v>
       </c>
       <c r="C25" s="2">
-        <v>16592814332</v>
+        <v>15994026928</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>0.1500097137292481</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2274,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>551.0599999999999</v>
+        <v>542.4</v>
       </c>
       <c r="C26" s="2">
-        <v>43528958973</v>
+        <v>41828661215</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>0.1111271410921533</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2288,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>53.59</v>
+        <v>54.76</v>
       </c>
       <c r="C27" s="2">
-        <v>6615907647</v>
+        <v>6780312521</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>0.1784235312628244</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2302,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>111.06</v>
+        <v>111.97</v>
       </c>
       <c r="C28" s="2">
-        <v>33791380544</v>
+        <v>32648520627</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>0.4201725601970013</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2316,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>117.14</v>
+        <v>113.35</v>
       </c>
       <c r="C29" s="2">
-        <v>10625687193</v>
+        <v>10529705512</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>0.1338630015348892</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>155.92</v>
+        <v>154.08</v>
       </c>
       <c r="C30" s="2">
-        <v>34820194273</v>
+        <v>34407042169</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>0.3217858389130112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2344,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>88.62</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>81905381336</v>
+        <v>81813597909</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>1.367044342983634</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2358,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="C32" s="2">
-        <v>18706375464</v>
+        <v>18848848685</v>
       </c>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>2.29209353161351</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2372,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>95.17</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="C33" s="2">
-        <v>111395276041</v>
+        <v>114936557663</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>1.744148014333182</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>124.53</v>
+        <v>123.17</v>
       </c>
       <c r="C34" s="2">
-        <v>27612996933</v>
+        <v>27915675843</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>0.3265946476770015</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2400,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>230.99</v>
+        <v>226.03</v>
       </c>
       <c r="C35" s="2">
-        <v>135569213974</v>
+        <v>133236903917</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>0.8494235648871445</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2414,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>195.3</v>
+        <v>192</v>
       </c>
       <c r="C36" s="2">
-        <v>23158127995</v>
+        <v>22792541952</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>0.1710635151536765</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>224.52</v>
+        <v>227.87</v>
       </c>
       <c r="C37" s="2">
-        <v>100961812299</v>
+        <v>100840743589</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>0.6376975449545543</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,13 +2442,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3295.08</v>
+        <v>3178.47</v>
       </c>
       <c r="C38" s="2">
-        <v>1596741136429</v>
+        <v>1599829640825</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>0.7253063506968174</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2455,13 +2456,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>296.81</v>
+        <v>291.51</v>
       </c>
       <c r="C39" s="2">
-        <v>22138850968</v>
+        <v>22423315078</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>0.1108440076993942</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2470,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>370.01</v>
+        <v>367.35</v>
       </c>
       <c r="C40" s="2">
-        <v>31649376332</v>
+        <v>32278417721</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>0.1266187586025171</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>314.88</v>
+        <v>322.37</v>
       </c>
       <c r="C41" s="2">
-        <v>78707958342</v>
+        <v>77484833321</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>0.3463601681519924</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2497,13 +2498,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>218.08</v>
+        <v>213.2</v>
       </c>
       <c r="C42" s="2">
-        <v>48922481975</v>
+        <v>49105925883</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>0.3319040574075242</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2512,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>55.93</v>
+        <v>58.07</v>
       </c>
       <c r="C43" s="2">
-        <v>8980141687</v>
+        <v>9272652590</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>0.2301007427964805</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2526,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>15.14</v>
+        <v>14.93</v>
       </c>
       <c r="C44" s="2">
-        <v>5608367990</v>
+        <v>5486233505</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>0.5295175251241806</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2540,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>268.56</v>
+        <v>276.63</v>
       </c>
       <c r="C45" s="2">
-        <v>60829923600</v>
+        <v>60869670785</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>0.3170790395477961</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2554,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>133.74</v>
+        <v>135.17</v>
       </c>
       <c r="C46" s="2">
-        <v>40521408096</v>
+        <v>40332200343</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>0.4299693119150964</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2568,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>130.28</v>
+        <v>128.58</v>
       </c>
       <c r="C47" s="2">
-        <v>36065044130</v>
+        <v>34882810012</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>0.390934410364446</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>177.9</v>
+        <v>183.1</v>
       </c>
       <c r="C48" s="2">
-        <v>24186451526</v>
+        <v>24242844202</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>0.190792405704745</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2596,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>95.59</v>
+        <v>97.31</v>
       </c>
       <c r="C49" s="2">
-        <v>11900533590</v>
+        <v>11722141279</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>0.1735862562014563</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2610,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>94.87</v>
+        <v>92.48</v>
       </c>
       <c r="C50" s="2">
-        <v>73480253024</v>
+        <v>71860168015</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>1.119711826012444</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2624,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>161.36</v>
+        <v>161.31</v>
       </c>
       <c r="C51" s="2">
-        <v>22079323881</v>
+        <v>22233996380</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>0.1986195974305148</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2638,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>442.44</v>
+        <v>433.35</v>
       </c>
       <c r="C52" s="2">
-        <v>176697510636</v>
+        <v>177154900619</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>0.5890880700343984</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2652,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>155.2</v>
+        <v>160.4</v>
       </c>
       <c r="C53" s="2">
-        <v>13069265432</v>
+        <v>12965868030</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>0.1164831457939066</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>155.74</v>
+        <v>151.44</v>
       </c>
       <c r="C54" s="2">
-        <v>27865996651</v>
+        <v>27360931802</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>0.2603491358705392</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2680,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>119.91</v>
+        <v>121.24</v>
       </c>
       <c r="C55" s="2">
-        <v>95083163878</v>
+        <v>96232857268</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>1.143782140228988</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,13 +2694,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1228.76</v>
+        <v>1227.14</v>
       </c>
       <c r="C56" s="2">
-        <v>27845352134</v>
+        <v>27563816344</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>0.03236764429882769</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2707,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>222.67</v>
+        <v>218.93</v>
       </c>
       <c r="C57" s="2">
-        <v>127174771410</v>
+        <v>124515973793</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>0.8195692401543758</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2722,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>30.4</v>
+        <v>30.25</v>
       </c>
       <c r="C58" s="2">
-        <v>270100590074</v>
+        <v>259304559444</v>
       </c>
       <c r="D58" s="3">
-        <v>12</v>
+        <v>12.35237967475465</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2736,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>82.59999999999999</v>
+        <v>82.02</v>
       </c>
       <c r="C59" s="2">
-        <v>42575391832</v>
+        <v>40960373389</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>0.7196312260819491</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2750,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>104.25</v>
+        <v>105.5</v>
       </c>
       <c r="C60" s="2">
-        <v>27375118946</v>
+        <v>26736960066</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>0.36519550690458</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2764,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>251.79</v>
+        <v>253</v>
       </c>
       <c r="C61" s="2">
-        <v>73677170581</v>
+        <v>74116310938</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>0.4221425520687724</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2778,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="C62" s="2">
-        <v>12740498088</v>
+        <v>12839071267</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>0.7227024085993401</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2792,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>81.56999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C63" s="2">
-        <v>37231227522</v>
+        <v>37082502209</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>0.6646283164263215</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2806,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>256.11</v>
+        <v>257.26</v>
       </c>
       <c r="C64" s="2">
-        <v>39196210570</v>
+        <v>38800995186</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>0.2173383958783471</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,13 +2820,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>588.11</v>
+        <v>576.13</v>
       </c>
       <c r="C65" s="2">
-        <v>17283680194</v>
+        <v>17957023193</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>0.04491379074371087</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2833,13 +2834,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>42.16</v>
+        <v>42.73</v>
       </c>
       <c r="C66" s="2">
-        <v>37726732482</v>
+        <v>37301815028</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>1.257948695969598</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2848,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2115.39</v>
+        <v>2171.64</v>
       </c>
       <c r="C67" s="2">
-        <v>86918534260</v>
+        <v>87451738485</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>0.05802918523532091</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2862,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>21.06</v>
+        <v>22.02</v>
       </c>
       <c r="C68" s="2">
-        <v>22444750160</v>
+        <v>21828160792</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>1.428452118600373</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2876,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>719.79</v>
+        <v>709.6</v>
       </c>
       <c r="C69" s="2">
-        <v>108393291609</v>
+        <v>112893754912</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>0.2292567699462925</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2890,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>93.48999999999999</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>31394439686</v>
+        <v>30785022480</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>0.4597513641743047</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2904,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>64.15000000000001</v>
+        <v>62.42</v>
       </c>
       <c r="C71" s="2">
-        <v>144402052919</v>
+        <v>144911018777</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>3.34536495664062</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2918,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>150.54</v>
+        <v>154.54</v>
       </c>
       <c r="C72" s="2">
-        <v>17953023304</v>
+        <v>17370192129</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>0.1619681315066953</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2932,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>230.84</v>
+        <v>231.83</v>
       </c>
       <c r="C73" s="2">
-        <v>556675390947</v>
+        <v>552118403890</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>3.431851178507132</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2946,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>35.52</v>
+        <v>36.09</v>
       </c>
       <c r="C74" s="2">
-        <v>50346235725</v>
+        <v>51627515880</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>2.061390189247607</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2960,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>40.09</v>
+        <v>40.35</v>
       </c>
       <c r="C75" s="2">
-        <v>9936722725</v>
+        <v>9740978341</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>0.3478763434501224</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2974,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>97.38</v>
+        <v>95.95</v>
       </c>
       <c r="C76" s="2">
-        <v>14978091839</v>
+        <v>14709216137</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>0.2209074733242611</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2988,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>63.33</v>
+        <v>61.71</v>
       </c>
       <c r="C77" s="2">
-        <v>128086584275</v>
+        <v>131966268358</v>
       </c>
       <c r="D77" s="3">
-        <v>2</v>
+        <v>3.081578587216671</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3002,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>37.01</v>
+        <v>37.3</v>
       </c>
       <c r="C78" s="2">
-        <v>18034347498</v>
+        <v>17942243889</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>0.693160460913179</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3016,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="C79" s="2">
-        <v>16392249176</v>
+        <v>16116985566</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>0.4139871048223092</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3030,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>38.33</v>
+        <v>38.38</v>
       </c>
       <c r="C80" s="2">
-        <v>32840918508</v>
+        <v>33508397811</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
+        <v>1.258098226756006</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3044,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>188.26</v>
+        <v>181.14</v>
       </c>
       <c r="C81" s="2">
-        <v>102314555704</v>
+        <v>101903556712</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>0.810663905810189</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3058,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>152</v>
+        <v>158.25</v>
       </c>
       <c r="C82" s="2">
-        <v>69652705479</v>
+        <v>70817096735</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>0.6448523062160302</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3072,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>95.45</v>
+        <v>92.69</v>
       </c>
       <c r="C83" s="2">
-        <v>10363037753</v>
+        <v>9966227499</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>0.1549400787332924</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3086,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>65.48</v>
+        <v>64.58</v>
       </c>
       <c r="C84" s="2">
-        <v>21887292291</v>
+        <v>21213854916</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>0.4733554824750685</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3100,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2">
-        <v>68641221169</v>
+        <v>66941431296</v>
       </c>
       <c r="D85" s="3">
-        <v>0</v>
+        <v>0.6066856567461659</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3114,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>21.75</v>
+        <v>20.93</v>
       </c>
       <c r="C86" s="2">
-        <v>23442285976</v>
+        <v>23227839218</v>
       </c>
       <c r="D86" s="3">
-        <v>1</v>
+        <v>1.599209793642306</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3128,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2">
-        <v>38568513880</v>
+        <v>37713561170</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
+        <v>0.4055632577152479</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3142,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>132.76</v>
+        <v>129.25</v>
       </c>
       <c r="C88" s="2">
-        <v>18867976970</v>
+        <v>19010938277</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>0.2119526534717188</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3156,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>134.05</v>
+        <v>134.44</v>
       </c>
       <c r="C89" s="2">
-        <v>15411310044</v>
+        <v>15711365045</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>0.1684035620610079</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3170,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>82.23999999999999</v>
+        <v>79.38</v>
       </c>
       <c r="C90" s="2">
-        <v>25145742224</v>
+        <v>24810623256</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>0.4503938351927236</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3184,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>37</v>
+        <v>38.45</v>
       </c>
       <c r="C91" s="2">
-        <v>8001220360</v>
+        <v>8021449422</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>0.3006231099181025</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3198,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>35.39</v>
+        <v>35.37</v>
       </c>
       <c r="C92" s="2">
-        <v>15298555114</v>
+        <v>15101312709</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>0.6152413250713471</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3212,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>88.05</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>21957525944</v>
+        <v>22253784852</v>
       </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>0.3664477496619248</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3226,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>97.81</v>
+        <v>96.37</v>
       </c>
       <c r="C94" s="2">
-        <v>13051387818</v>
+        <v>13133957438</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>0.1963901055221156</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,13 +3240,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>658.33</v>
+        <v>678.22</v>
       </c>
       <c r="C95" s="2">
-        <v>132559193981</v>
+        <v>135220906094</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>0.2873023028888486</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3253,13 +3254,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>202.45</v>
+        <v>202.79</v>
       </c>
       <c r="C96" s="2">
-        <v>75327898910</v>
+        <v>74607254130</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>0.5301519693809722</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3268,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>85.41</v>
+        <v>86.48</v>
       </c>
       <c r="C97" s="2">
-        <v>13821216074</v>
+        <v>13901903458</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>0.2316458078967763</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3282,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>88.47</v>
+        <v>88.88</v>
       </c>
       <c r="C98" s="2">
-        <v>72970053828</v>
+        <v>73516139222</v>
       </c>
       <c r="D98" s="3">
-        <v>1</v>
+        <v>1.191912854327741</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3296,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>210.8</v>
+        <v>205.3</v>
       </c>
       <c r="C99" s="2">
-        <v>26515721596</v>
+        <v>26764123815</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>0.1878581057473144</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3310,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>56.6</v>
+        <v>58.5</v>
       </c>
       <c r="C100" s="2">
-        <v>8147853228</v>
+        <v>8145811027</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>0.2006523833112118</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3324,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>50.95</v>
+        <v>51.83</v>
       </c>
       <c r="C101" s="2">
-        <v>240203392329</v>
+        <v>240808287922</v>
       </c>
       <c r="D101" s="3">
-        <v>6</v>
+        <v>6.695084752064724</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3338,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>182.62</v>
+        <v>182.95</v>
       </c>
       <c r="C102" s="2">
-        <v>66049740279</v>
+        <v>66844887913</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>0.5265039617734091</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,13 +3352,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1448.57</v>
+        <v>1451.7</v>
       </c>
       <c r="C103" s="2">
-        <v>40871502242</v>
+        <v>41068593937</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>0.04076606712607939</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3365,13 +3366,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>232.88</v>
+        <v>230.48</v>
       </c>
       <c r="C104" s="2">
-        <v>33748558989</v>
+        <v>34502489118</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>0.2157163385442951</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3380,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>60.86</v>
+        <v>60.44</v>
       </c>
       <c r="C105" s="2">
-        <v>16831606038</v>
+        <v>17103010377</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>0.4077687702572696</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3394,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>59.71</v>
+        <v>60.92</v>
       </c>
       <c r="C106" s="2">
-        <v>33747345248</v>
+        <v>33948320670</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>0.8030161116652202</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3408,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.82</v>
+        <v>22.23</v>
       </c>
       <c r="C107" s="2">
-        <v>11898271984</v>
+        <v>12131056242</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>0.7863665136956289</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3422,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>97.5</v>
+        <v>100.1</v>
       </c>
       <c r="C108" s="2">
-        <v>45560269039</v>
+        <v>45583804812</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>0.6562092571375958</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3436,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.4</v>
+        <v>17.32</v>
       </c>
       <c r="C109" s="2">
-        <v>6804468394</v>
+        <v>7043931791</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>0.5860478973382042</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3450,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>367.09</v>
+        <v>366.45</v>
       </c>
       <c r="C110" s="2">
-        <v>19806232711</v>
+        <v>19223614038</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>0.07559379876493208</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3464,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>39.51</v>
+        <v>41.14</v>
       </c>
       <c r="C111" s="2">
-        <v>44475564362</v>
+        <v>44412137867</v>
       </c>
       <c r="D111" s="3">
-        <v>1</v>
+        <v>1.555619039240249</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3478,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>368.67</v>
+        <v>377.15</v>
       </c>
       <c r="C112" s="2">
-        <v>166992156353</v>
+        <v>163221600101</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>0.6236334146188147</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3494,10 +3495,10 @@
         <v>7.27</v>
       </c>
       <c r="C113" s="2">
-        <v>5706913337</v>
+        <v>5535568719</v>
       </c>
       <c r="D113" s="3">
-        <v>1</v>
+        <v>1.097219945082249</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3506,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>50.6</v>
+        <v>49.84</v>
       </c>
       <c r="C114" s="2">
-        <v>15435782250</v>
+        <v>14931398112</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>0.4317062133875045</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3520,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>128.11</v>
+        <v>128.9</v>
       </c>
       <c r="C115" s="2">
-        <v>30587594856</v>
+        <v>30632846602</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>0.3424524650209291</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3534,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>234.15</v>
+        <v>231.48</v>
       </c>
       <c r="C116" s="2">
-        <v>211558897674</v>
+        <v>212068494083</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>1.320165978832404</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3548,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>46.57</v>
+        <v>44.73</v>
       </c>
       <c r="C117" s="2">
-        <v>188875494990</v>
+        <v>194541484442</v>
       </c>
       <c r="D117" s="3">
-        <v>5</v>
+        <v>6.267281259235326</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3562,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>90.31999999999999</v>
+        <v>93.45</v>
       </c>
       <c r="C118" s="2">
-        <v>70440371703</v>
+        <v>71005614923</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>1.094912074282773</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3576,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>351.8</v>
+        <v>350.5</v>
       </c>
       <c r="C119" s="2">
-        <v>35416390768</v>
+        <v>35808967474</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
+        <v>0.147220956221692</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,10 +3593,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12648291654</v>
+        <v>12596856472</v>
       </c>
       <c r="D120" s="3">
-        <v>1</v>
+        <v>1.65019533018038</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3603,13 +3604,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>82.19</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C121" s="2">
-        <v>44238947619</v>
+        <v>45104246489</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>0.7927247238595162</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3618,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C122" s="2">
-        <v>30315489956</v>
+        <v>30519180963</v>
       </c>
       <c r="D122" s="3">
-        <v>1</v>
+        <v>1.070032356386025</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3632,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>134.55</v>
+        <v>135.53</v>
       </c>
       <c r="C123" s="2">
-        <v>16550504393</v>
+        <v>16915568690</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
+        <v>0.1798527251232694</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3646,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>68.67</v>
+        <v>68.42</v>
       </c>
       <c r="C124" s="2">
-        <v>89865209132</v>
+        <v>91460120681</v>
       </c>
       <c r="D124" s="3">
-        <v>1</v>
+        <v>1.926258455625594</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3660,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>85.61</v>
+        <v>88.63</v>
       </c>
       <c r="C125" s="2">
-        <v>160974005980</v>
+        <v>165380956530</v>
       </c>
       <c r="D125" s="3">
-        <v>2</v>
+        <v>2.688874967692589</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3674,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>59.5</v>
+        <v>59.65</v>
       </c>
       <c r="C126" s="2">
-        <v>11639333752</v>
+        <v>11673128131</v>
       </c>
       <c r="D126" s="3">
-        <v>0</v>
+        <v>0.2819958145755519</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3688,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>77.33</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C127" s="2">
-        <v>60705959873</v>
+        <v>62542044138</v>
       </c>
       <c r="D127" s="3">
-        <v>1</v>
+        <v>1.175779192794098</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3702,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>39.99</v>
+        <v>39.91</v>
       </c>
       <c r="C128" s="2">
-        <v>25372637152</v>
+        <v>25980063762</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
+        <v>0.9380464467617686</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3716,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>70.25</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="C129" s="2">
-        <v>52140650994</v>
+        <v>52035069135</v>
       </c>
       <c r="D129" s="3">
-        <v>1</v>
+        <v>1.043602765605111</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3730,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>277.26</v>
+        <v>276.14</v>
       </c>
       <c r="C130" s="2">
-        <v>87782330781</v>
+        <v>85206855711</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>0.444642607972417</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,13 +3744,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>90.65000000000001</v>
+        <v>91.42</v>
       </c>
       <c r="C131" s="2">
-        <v>27879255706</v>
+        <v>28037337779</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
+        <v>0.4419380700272154</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3758,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>217.22</v>
+        <v>211.31</v>
       </c>
       <c r="C132" s="2">
-        <v>54160919383</v>
+        <v>54066319034</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
+        <v>0.3686995526204699</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3772,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>120.91</v>
+        <v>121.21</v>
       </c>
       <c r="C133" s="2">
-        <v>16635334586</v>
+        <v>16916941590</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>0.201117219646955</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3786,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>73.58</v>
+        <v>72.77</v>
       </c>
       <c r="C134" s="2">
-        <v>27428351339</v>
+        <v>26804097991</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
+        <v>0.5307801586712532</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3800,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>231.73</v>
+        <v>232.07</v>
       </c>
       <c r="C135" s="2">
-        <v>164664065713</v>
+        <v>157967917297</v>
       </c>
       <c r="D135" s="3">
-        <v>1</v>
+        <v>0.9808797030288142</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3814,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>177.29</v>
+        <v>177.82</v>
       </c>
       <c r="C136" s="2">
-        <v>315590682996</v>
+        <v>328740283869</v>
       </c>
       <c r="D136" s="3">
-        <v>2</v>
+        <v>2.664024274647576</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3828,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>29.24</v>
+        <v>29.17</v>
       </c>
       <c r="C137" s="2">
-        <v>13083693284</v>
+        <v>13225535548</v>
       </c>
       <c r="D137" s="3">
-        <v>0</v>
+        <v>0.6533451867001618</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3842,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>26.38</v>
+        <v>25.14</v>
       </c>
       <c r="C138" s="2">
-        <v>13271743383</v>
+        <v>13334171090</v>
       </c>
       <c r="D138" s="3">
-        <v>0</v>
+        <v>0.7643048364626248</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3856,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>31.76</v>
+        <v>31.55</v>
       </c>
       <c r="C139" s="2">
-        <v>17072918397</v>
+        <v>16555781523</v>
       </c>
       <c r="D139" s="3">
-        <v>0</v>
+        <v>0.7561643197299741</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3870,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>140.8</v>
+        <v>139.12</v>
       </c>
       <c r="C140" s="2">
-        <v>38753563445</v>
+        <v>38503201134</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>0.3988165083381867</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3884,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>110.23</v>
+        <v>112.61</v>
       </c>
       <c r="C141" s="2">
-        <v>26071572427</v>
+        <v>26069597580</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>0.3335978374889917</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3898,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>130.04</v>
+        <v>124.45</v>
       </c>
       <c r="C142" s="2">
-        <v>18303639037</v>
+        <v>18002360417</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
+        <v>0.2084492847193875</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3912,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>57.39</v>
+        <v>57.25</v>
       </c>
       <c r="C143" s="2">
-        <v>42450330784</v>
+        <v>41931009542</v>
       </c>
       <c r="D143" s="3">
-        <v>1</v>
+        <v>1.055420889170961</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3926,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>410.85</v>
+        <v>412.91</v>
       </c>
       <c r="C144" s="2">
-        <v>16310656484</v>
+        <v>15718318309</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>0.05485504003345103</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3942,10 +3943,10 @@
         <v>39.3</v>
       </c>
       <c r="C145" s="2">
-        <v>15232474957</v>
+        <v>14719169475</v>
       </c>
       <c r="D145" s="3">
-        <v>0</v>
+        <v>0.5397052134227048</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3954,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>120.98</v>
+        <v>121.35</v>
       </c>
       <c r="C146" s="2">
-        <v>15655919111</v>
+        <v>15739780539</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
+        <v>0.186906648432744</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3968,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>122.48</v>
+        <v>125.36</v>
       </c>
       <c r="C147" s="2">
-        <v>23641858204</v>
+        <v>23576519706</v>
       </c>
       <c r="D147" s="3">
-        <v>0</v>
+        <v>0.2710107828318107</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3982,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>90.29000000000001</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C148" s="2">
-        <v>66074721863</v>
+        <v>68377709568</v>
       </c>
       <c r="D148" s="3">
-        <v>1</v>
+        <v>1.056537694167178</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3996,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>119.78</v>
+        <v>116.11</v>
       </c>
       <c r="C149" s="2">
-        <v>12935191172</v>
+        <v>12943325737</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>0.1606357161375553</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4010,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>15.47</v>
+        <v>15.42</v>
       </c>
       <c r="C150" s="2">
-        <v>6077528479</v>
+        <v>6064469027</v>
       </c>
       <c r="D150" s="3">
-        <v>0</v>
+        <v>0.5667274733253345</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4024,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="C151" s="2">
-        <v>6062855325</v>
+        <v>5916645991</v>
       </c>
       <c r="D151" s="3">
-        <v>0</v>
+        <v>0.3552468217970067</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,13 +4038,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>366.47</v>
+        <v>371.75</v>
       </c>
       <c r="C152" s="2">
-        <v>34665025924</v>
+        <v>35744645774</v>
       </c>
       <c r="D152" s="3">
-        <v>0</v>
+        <v>0.1385561726574154</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4051,13 +4052,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>144.28</v>
+        <v>146.39</v>
       </c>
       <c r="C153" s="2">
-        <v>41178178880</v>
+        <v>43081837820</v>
       </c>
       <c r="D153" s="3">
-        <v>0</v>
+        <v>0.4240808567609297</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4066,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>50.62</v>
+        <v>50.45</v>
       </c>
       <c r="C154" s="2">
-        <v>35055218111</v>
+        <v>36275984914</v>
       </c>
       <c r="D154" s="3">
-        <v>0</v>
+        <v>1.036153026668472</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4080,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>221.44</v>
+        <v>221.21</v>
       </c>
       <c r="C155" s="2">
-        <v>63086395576</v>
+        <v>64553861123</v>
       </c>
       <c r="D155" s="3">
-        <v>0</v>
+        <v>0.4205167756117066</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4094,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>71.95</v>
+        <v>73.5</v>
       </c>
       <c r="C156" s="2">
-        <v>23967070337</v>
+        <v>24035519644</v>
       </c>
       <c r="D156" s="3">
-        <v>0</v>
+        <v>0.4712290272816396</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4108,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>195.14</v>
+        <v>194.98</v>
       </c>
       <c r="C157" s="2">
-        <v>23899986985</v>
+        <v>24245776502</v>
       </c>
       <c r="D157" s="3">
-        <v>0</v>
+        <v>0.1791892242645491</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4122,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>62.7</v>
+        <v>65.05</v>
       </c>
       <c r="C158" s="2">
-        <v>23915033324</v>
+        <v>24180135016</v>
       </c>
       <c r="D158" s="3">
-        <v>0</v>
+        <v>0.5356452752797388</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,13 +4136,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>262.07</v>
+        <v>265.64</v>
       </c>
       <c r="C159" s="2">
-        <v>99050549258</v>
+        <v>98691066513</v>
       </c>
       <c r="D159" s="3">
-        <v>0</v>
+        <v>0.5353653121278574</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4150,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>102.38</v>
+        <v>101.84</v>
       </c>
       <c r="C160" s="2">
-        <v>14194076268</v>
+        <v>13831189576</v>
       </c>
       <c r="D160" s="3">
-        <v>0</v>
+        <v>0.195707289105759</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4164,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>81.03</v>
+        <v>80.88</v>
       </c>
       <c r="C161" s="2">
-        <v>48851487183</v>
+        <v>50158393172</v>
       </c>
       <c r="D161" s="3">
-        <v>0</v>
+        <v>0.8936517922566455</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4178,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>50.2</v>
+        <v>52</v>
       </c>
       <c r="C162" s="2">
-        <v>29557967553</v>
+        <v>29405163384</v>
       </c>
       <c r="D162" s="3">
-        <v>0</v>
+        <v>0.8148658380345059</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4192,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>712.36</v>
+        <v>730.97</v>
       </c>
       <c r="C163" s="2">
-        <v>63495549596</v>
+        <v>64342321280</v>
       </c>
       <c r="D163" s="3">
-        <v>0</v>
+        <v>0.1268419848992279</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4206,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>59.9</v>
+        <v>59</v>
       </c>
       <c r="C164" s="2">
-        <v>22702832756</v>
+        <v>21675055257</v>
       </c>
       <c r="D164" s="3">
-        <v>0</v>
+        <v>0.5293879596961393</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4220,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>87.95</v>
+        <v>87.02</v>
       </c>
       <c r="C165" s="2">
-        <v>29945236435</v>
+        <v>29091697939</v>
       </c>
       <c r="D165" s="3">
-        <v>0</v>
+        <v>0.4817434833282184</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4234,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>245.67</v>
+        <v>244.98</v>
       </c>
       <c r="C166" s="2">
-        <v>15839291246</v>
+        <v>15307084405</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>0.09003838665727122</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4248,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>51.38</v>
+        <v>51.13</v>
       </c>
       <c r="C167" s="2">
-        <v>11055819166</v>
+        <v>11174374861</v>
       </c>
       <c r="D167" s="3">
-        <v>0</v>
+        <v>0.3149294694117536</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4262,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>123.77</v>
+        <v>121.83</v>
       </c>
       <c r="C168" s="2">
-        <v>47745412462</v>
+        <v>48508070285</v>
       </c>
       <c r="D168" s="3">
-        <v>0</v>
+        <v>0.5737538487974851</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4276,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>96.01000000000001</v>
+        <v>98.02</v>
       </c>
       <c r="C169" s="2">
-        <v>19973303019</v>
+        <v>19982401317</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>0.2937641782527317</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4290,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>53.57</v>
+        <v>54.81</v>
       </c>
       <c r="C170" s="2">
-        <v>12531910626</v>
+        <v>12291211230</v>
       </c>
       <c r="D170" s="3">
-        <v>0</v>
+        <v>0.3231474536515285</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4304,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>91.43000000000001</v>
+        <v>91.91</v>
       </c>
       <c r="C171" s="2">
-        <v>56806223967</v>
+        <v>57942641360</v>
       </c>
       <c r="D171" s="3">
-        <v>0</v>
+        <v>0.9084507352685901</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4318,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>42.86</v>
+        <v>42.67</v>
       </c>
       <c r="C172" s="2">
-        <v>41152299170</v>
+        <v>42462830243</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
+        <v>1.434009909713336</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4332,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>94.92</v>
+        <v>95.06</v>
       </c>
       <c r="C173" s="2">
-        <v>16336359485</v>
+        <v>16169850381</v>
       </c>
       <c r="D173" s="3">
-        <v>0</v>
+        <v>0.2451173480769994</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4346,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>131.51</v>
+        <v>127.64</v>
       </c>
       <c r="C174" s="2">
-        <v>17950376316</v>
+        <v>17343470774</v>
       </c>
       <c r="D174" s="3">
-        <v>0</v>
+        <v>0.195801076496894</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4360,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>119.44</v>
+        <v>115.8</v>
       </c>
       <c r="C175" s="2">
-        <v>15400052439</v>
+        <v>14892604626</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
+        <v>0.1853224181372483</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4374,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>8.9</v>
+        <v>9.25</v>
       </c>
       <c r="C176" s="2">
-        <v>35344633561</v>
+        <v>35342682430</v>
       </c>
       <c r="D176" s="3">
-        <v>5</v>
+        <v>5.50584059493829</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4388,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>49.26</v>
+        <v>48.46</v>
       </c>
       <c r="C177" s="2">
-        <v>7981354381</v>
+        <v>7815636093</v>
       </c>
       <c r="D177" s="3">
-        <v>0</v>
+        <v>0.2324057013498553</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4402,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>50.52</v>
+        <v>51.1</v>
       </c>
       <c r="C178" s="2">
-        <v>29355904621</v>
+        <v>28881167363</v>
       </c>
       <c r="D178" s="3">
-        <v>0</v>
+        <v>0.8144411359682487</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4418,10 +4419,10 @@
         <v>273.4</v>
       </c>
       <c r="C179" s="2">
-        <v>794821412090</v>
+        <v>783545137318</v>
       </c>
       <c r="D179" s="3">
-        <v>4</v>
+        <v>4.129822322445881</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4430,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>91.81</v>
+        <v>91.48</v>
       </c>
       <c r="C180" s="2">
-        <v>12657238180</v>
+        <v>12723668309</v>
       </c>
       <c r="D180" s="3">
-        <v>0</v>
+        <v>0.200425068636987</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4444,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>25.88</v>
+        <v>24.86</v>
       </c>
       <c r="C181" s="2">
-        <v>36785304252</v>
+        <v>36737333554</v>
       </c>
       <c r="D181" s="3">
-        <v>2</v>
+        <v>2.129474113396595</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4458,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>281.47</v>
+        <v>274.32</v>
       </c>
       <c r="C182" s="2">
-        <v>73343830430</v>
+        <v>72845001603</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>0.3826556612849463</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4472,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>30.8</v>
+        <v>30.44</v>
       </c>
       <c r="C183" s="2">
-        <v>16606092589</v>
+        <v>16365687055</v>
       </c>
       <c r="D183" s="3">
-        <v>0</v>
+        <v>0.7747390596302546</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4486,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>183.52</v>
+        <v>181.39</v>
       </c>
       <c r="C184" s="2">
-        <v>11170362929</v>
+        <v>11176393342</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>0.08878798398321563</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4500,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>144.49</v>
+        <v>145.49</v>
       </c>
       <c r="C185" s="2">
-        <v>88139907870</v>
+        <v>88065799621</v>
       </c>
       <c r="D185" s="3">
-        <v>0</v>
+        <v>0.8722480290460394</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4514,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>116.92</v>
+        <v>114</v>
       </c>
       <c r="C186" s="2">
-        <v>78095787323</v>
+        <v>76597272840</v>
       </c>
       <c r="D186" s="3">
-        <v>0</v>
+        <v>0.9682205897028615</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4528,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>27.87</v>
+        <v>27.8</v>
       </c>
       <c r="C187" s="2">
-        <v>19794305003</v>
+        <v>19737432530</v>
       </c>
       <c r="D187" s="3">
-        <v>1</v>
+        <v>1.023085007357892</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4542,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>44.71</v>
+        <v>44.98</v>
       </c>
       <c r="C188" s="2">
-        <v>6108129585</v>
+        <v>6056300085</v>
       </c>
       <c r="D188" s="3">
-        <v>0</v>
+        <v>0.1940232579452378</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4556,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>38</v>
+        <v>36.75</v>
       </c>
       <c r="C189" s="2">
-        <v>4889790333</v>
+        <v>5001679413</v>
       </c>
       <c r="D189" s="3">
-        <v>0</v>
+        <v>0.1961211206973805</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4570,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>279.33</v>
+        <v>281.61</v>
       </c>
       <c r="C190" s="2">
-        <v>23087329996</v>
+        <v>23231793463</v>
       </c>
       <c r="D190" s="3">
-        <v>0</v>
+        <v>0.1188777354234804</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4584,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>119.02</v>
+        <v>118.96</v>
       </c>
       <c r="C191" s="2">
-        <v>15452152541</v>
+        <v>15009673144</v>
       </c>
       <c r="D191" s="3">
-        <v>0</v>
+        <v>0.1818176906847541</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4598,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C192" s="2">
-        <v>16820321859</v>
+        <v>17359998310</v>
       </c>
       <c r="D192" s="3">
-        <v>0</v>
+        <v>0.8626160581509126</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4612,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>28.79</v>
+        <v>28.44</v>
       </c>
       <c r="C193" s="2">
-        <v>16891224432</v>
+        <v>16908012230</v>
       </c>
       <c r="D193" s="3">
-        <v>0</v>
+        <v>0.8567001030250881</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4626,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>143.1</v>
+        <v>144.17</v>
       </c>
       <c r="C194" s="2">
-        <v>24492318709</v>
+        <v>24754810049</v>
       </c>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>0.2474289759221418</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4640,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>87.91</v>
+        <v>90.12</v>
       </c>
       <c r="C195" s="2">
-        <v>6755984372</v>
+        <v>6644066209</v>
       </c>
       <c r="D195" s="3">
-        <v>0</v>
+        <v>0.1062376918307812</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4654,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="C196" s="2">
-        <v>4278011965</v>
+        <v>4240351671</v>
       </c>
       <c r="D196" s="3">
-        <v>0</v>
+        <v>0.6364972049687301</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4668,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>152.41</v>
+        <v>156.69</v>
       </c>
       <c r="C197" s="2">
-        <v>24345808483</v>
+        <v>25294111989</v>
       </c>
       <c r="D197" s="3">
-        <v>0</v>
+        <v>0.2326183733047381</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4682,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>71.05</v>
+        <v>72.34</v>
       </c>
       <c r="C198" s="2">
-        <v>24118390798</v>
+        <v>24013398761</v>
       </c>
       <c r="D198" s="3">
-        <v>0</v>
+        <v>0.4783447218001667</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4696,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>153.04</v>
+        <v>154.92</v>
       </c>
       <c r="C199" s="2">
-        <v>42795103977</v>
+        <v>43778731157</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>0.4072129115688459</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4710,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>10.99</v>
+        <v>10.94</v>
       </c>
       <c r="C200" s="2">
-        <v>95839180113</v>
+        <v>97041735241</v>
       </c>
       <c r="D200" s="3">
-        <v>12</v>
+        <v>12.78224359033959</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4724,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>57.27</v>
+        <v>58.44</v>
       </c>
       <c r="C201" s="2">
-        <v>72769821003</v>
+        <v>73346052473</v>
       </c>
       <c r="D201" s="3">
-        <v>1</v>
+        <v>1.808557810198582</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4738,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>61.33</v>
+        <v>61.32</v>
       </c>
       <c r="C202" s="2">
-        <v>36904230177</v>
+        <v>37122113408</v>
       </c>
       <c r="D202" s="3">
-        <v>0</v>
+        <v>0.8723613278725051</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4752,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>95.31999999999999</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="C203" s="2">
-        <v>10177742014</v>
+        <v>10113420750</v>
       </c>
       <c r="D203" s="3">
-        <v>0</v>
+        <v>0.1559831134456805</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4766,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>37.34</v>
+        <v>36.45</v>
       </c>
       <c r="C204" s="2">
-        <v>28722714053</v>
+        <v>28860201557</v>
       </c>
       <c r="D204" s="3">
-        <v>1</v>
+        <v>1.140952817310072</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4780,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>42.08</v>
+        <v>42.7</v>
       </c>
       <c r="C205" s="2">
-        <v>61996409274</v>
+        <v>60422877691</v>
       </c>
       <c r="D205" s="3">
-        <v>2</v>
+        <v>2.039104053370794</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,13 +4794,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1775.1</v>
+        <v>1822.38</v>
       </c>
       <c r="C206" s="2">
-        <v>1187866776444</v>
+        <v>1205461155249</v>
       </c>
       <c r="D206" s="3">
-        <v>0</v>
+        <v>0.95319144886119</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4807,13 +4808,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1806.75</v>
+        <v>1798.38</v>
       </c>
       <c r="C207" s="2">
-        <v>1212839701761</v>
+        <v>1194408550623</v>
       </c>
       <c r="D207" s="3">
-        <v>0</v>
+        <v>0.9570558838908783</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4822,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>101.65</v>
+        <v>102.59</v>
       </c>
       <c r="C208" s="2">
-        <v>14771138651</v>
+        <v>15027684644</v>
       </c>
       <c r="D208" s="3">
-        <v>0</v>
+        <v>0.2110828264698089</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4836,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>210.78</v>
+        <v>212.85</v>
       </c>
       <c r="C209" s="2">
-        <v>62961853903</v>
+        <v>63755901030</v>
       </c>
       <c r="D209" s="3">
-        <v>0</v>
+        <v>0.4316309629748266</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4850,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>21.34</v>
+        <v>20.82</v>
       </c>
       <c r="C210" s="2">
-        <v>7680855671</v>
+        <v>7673910812</v>
       </c>
       <c r="D210" s="3">
-        <v>0</v>
+        <v>0.5311312812103061</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4864,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.32</v>
+        <v>124.87</v>
       </c>
       <c r="C211" s="2">
-        <v>23105690763</v>
+        <v>23348343662</v>
       </c>
       <c r="D211" s="3">
-        <v>0</v>
+        <v>0.2694410878134388</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4878,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>257.01</v>
+        <v>259.26</v>
       </c>
       <c r="C212" s="2">
-        <v>89913985433</v>
+        <v>88767744573</v>
       </c>
       <c r="D212" s="3">
-        <v>0</v>
+        <v>0.4933845282480864</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4892,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>430.43</v>
+        <v>423.77</v>
       </c>
       <c r="C213" s="2">
-        <v>23173041038</v>
+        <v>23288872934</v>
       </c>
       <c r="D213" s="3">
-        <v>0</v>
+        <v>0.07919251231993792</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4906,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>20.02</v>
+        <v>19.96</v>
       </c>
       <c r="C214" s="2">
-        <v>17486077894</v>
+        <v>17445535516</v>
       </c>
       <c r="D214" s="3">
-        <v>1</v>
+        <v>1.25947521708246</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4920,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>97.41</v>
+        <v>95.81</v>
       </c>
       <c r="C215" s="2">
-        <v>12819731112</v>
+        <v>12872040719</v>
       </c>
       <c r="D215" s="3">
-        <v>0</v>
+        <v>0.1935986937252446</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4934,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>12.42</v>
+        <v>12.96</v>
       </c>
       <c r="C216" s="2">
-        <v>13108375831</v>
+        <v>12635201792</v>
       </c>
       <c r="D216" s="3">
-        <v>1</v>
+        <v>1.404892320750523</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4948,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>14.85</v>
+        <v>15.13</v>
       </c>
       <c r="C217" s="2">
-        <v>5110932670</v>
+        <v>5170811181</v>
       </c>
       <c r="D217" s="3">
-        <v>0</v>
+        <v>0.4924766104893871</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4962,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>165.29</v>
+        <v>167.64</v>
       </c>
       <c r="C218" s="2">
-        <v>56216120757</v>
+        <v>57178285061</v>
       </c>
       <c r="D218" s="3">
-        <v>0</v>
+        <v>0.4914952570455006</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,13 +4976,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>279.1</v>
+        <v>283.87</v>
       </c>
       <c r="C219" s="2">
-        <v>305281991758</v>
+        <v>294553113810</v>
       </c>
       <c r="D219" s="3">
-        <v>1</v>
+        <v>1.495236803952634</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4990,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>54.98</v>
+        <v>53.94</v>
       </c>
       <c r="C220" s="2">
-        <v>17242729481</v>
+        <v>16756255560</v>
       </c>
       <c r="D220" s="3">
-        <v>0</v>
+        <v>0.4476430964662871</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5004,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>25.51</v>
+        <v>26.04</v>
       </c>
       <c r="C221" s="2">
-        <v>4123601610</v>
+        <v>4231538842</v>
       </c>
       <c r="D221" s="3">
-        <v>0</v>
+        <v>0.2341656615292889</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5018,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>49.89</v>
+        <v>48.74</v>
       </c>
       <c r="C222" s="2">
-        <v>17563775434</v>
+        <v>18121041087</v>
       </c>
       <c r="D222" s="3">
-        <v>0</v>
+        <v>0.5357516017227241</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5032,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>169.5</v>
+        <v>168.4</v>
       </c>
       <c r="C223" s="2">
-        <v>6763469149</v>
+        <v>6809854521</v>
       </c>
       <c r="D223" s="3">
-        <v>0</v>
+        <v>0.0582722255222444</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5046,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>109.39</v>
+        <v>107.25</v>
       </c>
       <c r="C224" s="2">
-        <v>30480122578</v>
+        <v>30520411767</v>
       </c>
       <c r="D224" s="3">
-        <v>0</v>
+        <v>0.4100708945799097</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5060,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>77.15000000000001</v>
+        <v>77.17</v>
       </c>
       <c r="C225" s="2">
-        <v>19450951050</v>
+        <v>19281120502</v>
       </c>
       <c r="D225" s="3">
-        <v>0</v>
+        <v>0.3600390660903918</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5074,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>214.89</v>
+        <v>210.46</v>
       </c>
       <c r="C226" s="2">
-        <v>149683909785</v>
+        <v>148901654720</v>
       </c>
       <c r="D226" s="3">
-        <v>0</v>
+        <v>1.019520155097776</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5088,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>11.89</v>
+        <v>12.01</v>
       </c>
       <c r="C227" s="2">
-        <v>15854155698</v>
+        <v>15256117020</v>
       </c>
       <c r="D227" s="3">
-        <v>1</v>
+        <v>1.830487897092245</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5102,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>25.27</v>
+        <v>24.43</v>
       </c>
       <c r="C228" s="2">
-        <v>32683070140</v>
+        <v>32648243534</v>
       </c>
       <c r="D228" s="3">
-        <v>1</v>
+        <v>1.925760224008164</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5116,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>15.78</v>
+        <v>16.02</v>
       </c>
       <c r="C229" s="2">
-        <v>2900102954</v>
+        <v>2863453645</v>
       </c>
       <c r="D229" s="3">
-        <v>0</v>
+        <v>0.2575689473550318</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5130,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>47.91</v>
+        <v>47.88</v>
       </c>
       <c r="C230" s="2">
-        <v>26475463975</v>
+        <v>25741551151</v>
       </c>
       <c r="D230" s="3">
-        <v>0</v>
+        <v>0.77472296433386</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5144,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>66.48</v>
+        <v>67.98</v>
       </c>
       <c r="C231" s="2">
-        <v>9823007918</v>
+        <v>9586726246</v>
       </c>
       <c r="D231" s="3">
-        <v>0</v>
+        <v>0.2032146547308536</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5158,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C232" s="2">
-        <v>10033295513</v>
+        <v>10076836614</v>
       </c>
       <c r="D232" s="3">
-        <v>0</v>
+        <v>0.9945742685890654</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5172,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>156.95</v>
+        <v>154.69</v>
       </c>
       <c r="C233" s="2">
-        <v>32019960206</v>
+        <v>31709685914</v>
       </c>
       <c r="D233" s="3">
-        <v>0</v>
+        <v>0.2953898435358984</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5186,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>407.68</v>
+        <v>419.27</v>
       </c>
       <c r="C234" s="2">
-        <v>55698742393</v>
+        <v>55802543769</v>
       </c>
       <c r="D234" s="3">
-        <v>0</v>
+        <v>0.191790047274868</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5200,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>28.08</v>
+        <v>28.61</v>
       </c>
       <c r="C235" s="2">
-        <v>12000421426</v>
+        <v>12012839131</v>
       </c>
       <c r="D235" s="3">
-        <v>0</v>
+        <v>0.6050533382111909</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5214,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>124.87</v>
+        <v>129.08</v>
       </c>
       <c r="C236" s="2">
-        <v>112671658354</v>
+        <v>113856397281</v>
       </c>
       <c r="D236" s="3">
-        <v>1</v>
+        <v>1.271054986079597</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5228,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>114.92</v>
+        <v>113.6</v>
       </c>
       <c r="C237" s="2">
-        <v>63463863259</v>
+        <v>63952261517</v>
       </c>
       <c r="D237" s="3">
-        <v>0</v>
+        <v>0.8112289362141958</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5242,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>511.22</v>
+        <v>507.75</v>
       </c>
       <c r="C238" s="2">
-        <v>42854951974</v>
+        <v>43985879192</v>
       </c>
       <c r="D238" s="3">
-        <v>0</v>
+        <v>0.1248329411498601</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5256,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>200.74</v>
+        <v>197.3</v>
       </c>
       <c r="C239" s="2">
-        <v>14949527880</v>
+        <v>15303510930</v>
       </c>
       <c r="D239" s="3">
-        <v>0</v>
+        <v>0.111771183799123</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5270,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>114.46</v>
+        <v>112.8</v>
       </c>
       <c r="C240" s="2">
-        <v>11846762961</v>
+        <v>11991052426</v>
       </c>
       <c r="D240" s="3">
-        <v>0</v>
+        <v>0.1531842307502221</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5284,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>378.3</v>
+        <v>376.63</v>
       </c>
       <c r="C241" s="2">
-        <v>54931891787</v>
+        <v>55605901689</v>
       </c>
       <c r="D241" s="3">
-        <v>0</v>
+        <v>0.2127511102645202</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5298,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>87.42</v>
+        <v>90.56</v>
       </c>
       <c r="C242" s="2">
-        <v>19238922705</v>
+        <v>19205666165</v>
       </c>
       <c r="D242" s="3">
-        <v>0</v>
+        <v>0.3056038489469223</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5312,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>87.58</v>
+        <v>88.47</v>
       </c>
       <c r="C243" s="2">
-        <v>37184538610</v>
+        <v>37845880374</v>
       </c>
       <c r="D243" s="3">
-        <v>0</v>
+        <v>0.616436637627655</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5326,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>48.85</v>
+        <v>49.29</v>
       </c>
       <c r="C244" s="2">
-        <v>201234417065</v>
+        <v>194233215658</v>
       </c>
       <c r="D244" s="3">
-        <v>5</v>
+        <v>5.678459596021307</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5340,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>390.7</v>
+        <v>396.57</v>
       </c>
       <c r="C245" s="2">
-        <v>109617681735</v>
+        <v>106066227306</v>
       </c>
       <c r="D245" s="3">
-        <v>0</v>
+        <v>0.385410127216851</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5354,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>49.76</v>
+        <v>50.44</v>
       </c>
       <c r="C246" s="2">
-        <v>20028992504</v>
+        <v>19856857251</v>
       </c>
       <c r="D246" s="3">
-        <v>0</v>
+        <v>0.567284991501037</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5368,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>24.24</v>
+        <v>23.68</v>
       </c>
       <c r="C247" s="2">
-        <v>9359279815</v>
+        <v>9416751621</v>
       </c>
       <c r="D247" s="3">
-        <v>0</v>
+        <v>0.5730404449046135</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5382,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>221.5</v>
+        <v>230.71</v>
       </c>
       <c r="C248" s="2">
-        <v>12366020251</v>
+        <v>12269195080</v>
       </c>
       <c r="D248" s="3">
-        <v>0</v>
+        <v>0.07663294406557643</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5396,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>176.57</v>
+        <v>176.83</v>
       </c>
       <c r="C249" s="2">
-        <v>35414561153</v>
+        <v>35088678570</v>
       </c>
       <c r="D249" s="3">
-        <v>0</v>
+        <v>0.2859413242036448</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5410,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>47.51</v>
+        <v>46.24</v>
       </c>
       <c r="C250" s="2">
-        <v>19489762015</v>
+        <v>19772496842</v>
       </c>
       <c r="D250" s="3">
-        <v>0</v>
+        <v>0.6161827659283995</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5424,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>29.96</v>
+        <v>29.62</v>
       </c>
       <c r="C251" s="2">
-        <v>8766658441</v>
+        <v>8815964909</v>
       </c>
       <c r="D251" s="3">
-        <v>0</v>
+        <v>0.4288946772965943</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5438,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C252" s="2">
-        <v>98827571519</v>
+        <v>96440089524</v>
       </c>
       <c r="D252" s="3">
-        <v>0</v>
+        <v>0.1684494177611442</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5452,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>163.69</v>
+        <v>159.63</v>
       </c>
       <c r="C253" s="2">
-        <v>14816870157</v>
+        <v>14321084448</v>
       </c>
       <c r="D253" s="3">
-        <v>0</v>
+        <v>0.1292787814586812</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5466,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>204.91</v>
+        <v>210.73</v>
       </c>
       <c r="C254" s="2">
-        <v>66225087666</v>
+        <v>67171255834</v>
       </c>
       <c r="D254" s="3">
-        <v>0</v>
+        <v>0.4593280406837813</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5480,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>17.97</v>
+        <v>17.92</v>
       </c>
       <c r="C255" s="2">
-        <v>8111573607</v>
+        <v>8107674273</v>
       </c>
       <c r="D255" s="3">
-        <v>0</v>
+        <v>0.6519647948475603</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5494,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>108.86</v>
+        <v>109.47</v>
       </c>
       <c r="C256" s="2">
-        <v>14007471683</v>
+        <v>14403812968</v>
       </c>
       <c r="D256" s="3">
-        <v>0</v>
+        <v>0.1896043134814984</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5508,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>138.1</v>
+        <v>143.55</v>
       </c>
       <c r="C257" s="2">
-        <v>14779095080</v>
+        <v>14936731310</v>
       </c>
       <c r="D257" s="3">
-        <v>0</v>
+        <v>0.1499402497162486</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5522,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>46.47</v>
+        <v>47.67</v>
       </c>
       <c r="C258" s="2">
-        <v>34191486008</v>
+        <v>33418523365</v>
       </c>
       <c r="D258" s="3">
-        <v>1</v>
+        <v>1.010201390947196</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5536,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>163.51</v>
+        <v>163.55</v>
       </c>
       <c r="C259" s="2">
-        <v>12322004019</v>
+        <v>12509726599</v>
       </c>
       <c r="D259" s="3">
-        <v>0</v>
+        <v>0.1102206905675835</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5550,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>159.74</v>
+        <v>155.14</v>
       </c>
       <c r="C260" s="2">
-        <v>413363303310</v>
+        <v>402985858728</v>
       </c>
       <c r="D260" s="3">
-        <v>3</v>
+        <v>3.74310385655843</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5564,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="C261" s="2">
-        <v>7518341895</v>
+        <v>7428865159</v>
       </c>
       <c r="D261" s="3">
-        <v>0</v>
+        <v>0.4757795983391321</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5578,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>129.97</v>
+        <v>129.45</v>
       </c>
       <c r="C262" s="2">
-        <v>397726565776</v>
+        <v>393013079695</v>
       </c>
       <c r="D262" s="3">
-        <v>4</v>
+        <v>4.374926964908363</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5592,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>64.77</v>
+        <v>64.63</v>
       </c>
       <c r="C263" s="2">
-        <v>21738090847</v>
+        <v>21237200012</v>
       </c>
       <c r="D263" s="3">
-        <v>0</v>
+        <v>0.4735097862753214</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5606,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.27</v>
+        <v>16.79</v>
       </c>
       <c r="C264" s="2">
-        <v>16569578209</v>
+        <v>15994518174</v>
       </c>
       <c r="D264" s="3">
-        <v>1</v>
+        <v>1.372733788320861</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5620,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>131.12</v>
+        <v>133.27</v>
       </c>
       <c r="C265" s="2">
-        <v>25084372413</v>
+        <v>25055590851</v>
       </c>
       <c r="D265" s="3">
-        <v>0</v>
+        <v>0.2709181546312173</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5634,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.59</v>
+        <v>35.27</v>
       </c>
       <c r="C266" s="2">
-        <v>43323667951</v>
+        <v>44665449919</v>
       </c>
       <c r="D266" s="3">
-        <v>1</v>
+        <v>1.824870754719472</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5648,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>15.07</v>
+        <v>14.61</v>
       </c>
       <c r="C267" s="2">
-        <v>6286033970</v>
+        <v>6391980531</v>
       </c>
       <c r="D267" s="3">
-        <v>0</v>
+        <v>0.6304506335215719</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5662,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>270.22</v>
+        <v>260.34</v>
       </c>
       <c r="C268" s="2">
-        <v>40244941046</v>
+        <v>40409089512</v>
       </c>
       <c r="D268" s="3">
-        <v>0</v>
+        <v>0.2236680865905134</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5676,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>133.97</v>
+        <v>135.14</v>
       </c>
       <c r="C269" s="2">
-        <v>47334998479</v>
+        <v>46795312678</v>
       </c>
       <c r="D269" s="3">
-        <v>0</v>
+        <v>0.4989813306193678</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5690,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>14.42</v>
+        <v>14.1</v>
       </c>
       <c r="C270" s="2">
-        <v>32709420847</v>
+        <v>32188395755</v>
       </c>
       <c r="D270" s="3">
-        <v>3</v>
+        <v>3.289622607017957</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5704,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>93.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C271" s="2">
-        <v>15490418926</v>
+        <v>15391587729</v>
       </c>
       <c r="D271" s="3">
-        <v>0</v>
+        <v>0.2320018177770556</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5718,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>55.76</v>
+        <v>54.06</v>
       </c>
       <c r="C272" s="2">
-        <v>238101676359</v>
+        <v>240934806082</v>
       </c>
       <c r="D272" s="3">
-        <v>6</v>
+        <v>6.422281837884868</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5732,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>33.08</v>
+        <v>32.55</v>
       </c>
       <c r="C273" s="2">
-        <v>24203481595</v>
+        <v>24418409172</v>
       </c>
       <c r="D273" s="3">
-        <v>1</v>
+        <v>1.081016273418243</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5746,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>39.78</v>
+        <v>40.37</v>
       </c>
       <c r="C274" s="2">
-        <v>6184427008</v>
+        <v>6298410077</v>
       </c>
       <c r="D274" s="3">
-        <v>0</v>
+        <v>0.2248216038830813</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5760,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>207.53</v>
+        <v>204.24</v>
       </c>
       <c r="C275" s="2">
-        <v>19028538453</v>
+        <v>19185818557</v>
       </c>
       <c r="D275" s="3">
-        <v>0</v>
+        <v>0.1353646887675787</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5776,10 +5777,10 @@
         <v>44</v>
       </c>
       <c r="C276" s="2">
-        <v>12524842018</v>
+        <v>12375929330</v>
       </c>
       <c r="D276" s="3">
-        <v>0</v>
+        <v>0.4053134373723218</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5788,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>39.55</v>
+        <v>39.81</v>
       </c>
       <c r="C277" s="2">
-        <v>11182464331</v>
+        <v>11124821810</v>
       </c>
       <c r="D277" s="3">
-        <v>0</v>
+        <v>0.4026861973349735</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5802,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>106.24</v>
+        <v>106.97</v>
       </c>
       <c r="C278" s="2">
-        <v>15028750536</v>
+        <v>15054726751</v>
       </c>
       <c r="D278" s="3">
-        <v>0</v>
+        <v>0.2028041040679494</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5816,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>43.86</v>
+        <v>42.74</v>
       </c>
       <c r="C279" s="2">
-        <v>5860559850</v>
+        <v>5808281478</v>
       </c>
       <c r="D279" s="3">
-        <v>0</v>
+        <v>0.1958298967004801</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5830,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>82.48</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="C280" s="2">
-        <v>24643107471</v>
+        <v>25110509949</v>
       </c>
       <c r="D280" s="3">
-        <v>0</v>
+        <v>0.4469417147970339</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,13 +5844,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>213.46</v>
+        <v>213.74</v>
       </c>
       <c r="C281" s="2">
-        <v>20653264479</v>
+        <v>20659056002</v>
       </c>
       <c r="D281" s="3">
-        <v>0</v>
+        <v>0.1392805668932504</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5858,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>187.75</v>
+        <v>186.44</v>
       </c>
       <c r="C282" s="2">
-        <v>40574187204</v>
+        <v>40400289268</v>
       </c>
       <c r="D282" s="3">
-        <v>0</v>
+        <v>0.3122563208354457</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,13 +5872,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>268.51</v>
+        <v>263.78</v>
       </c>
       <c r="C283" s="2">
-        <v>134885799684</v>
+        <v>141131582279</v>
       </c>
       <c r="D283" s="3">
-        <v>0</v>
+        <v>0.7709890403395856</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5886,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>36.29</v>
+        <v>36.69</v>
       </c>
       <c r="C284" s="2">
-        <v>11532727847</v>
+        <v>11400546515</v>
       </c>
       <c r="D284" s="3">
-        <v>0</v>
+        <v>0.4477584773257261</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5900,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>171.12</v>
+        <v>172.44</v>
       </c>
       <c r="C285" s="2">
-        <v>164481696429</v>
+        <v>161066301891</v>
       </c>
       <c r="D285" s="3">
-        <v>1</v>
+        <v>1.345961170141685</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5914,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>360.14</v>
+        <v>352.26</v>
       </c>
       <c r="C286" s="2">
-        <v>100044401701</v>
+        <v>100842483980</v>
       </c>
       <c r="D286" s="3">
-        <v>0</v>
+        <v>0.4125210000654766</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5928,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>50.01</v>
+        <v>51.45</v>
       </c>
       <c r="C287" s="2">
-        <v>9887808304</v>
+        <v>9963965786</v>
       </c>
       <c r="D287" s="3">
-        <v>0</v>
+        <v>0.2790697134163158</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5942,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>50.41</v>
+        <v>51.69</v>
       </c>
       <c r="C288" s="2">
-        <v>12601472113</v>
+        <v>12903249345</v>
       </c>
       <c r="D288" s="3">
-        <v>0</v>
+        <v>0.3597148901190845</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5956,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>166.91</v>
+        <v>168.33</v>
       </c>
       <c r="C289" s="2">
-        <v>124411781321</v>
+        <v>121676287258</v>
       </c>
       <c r="D289" s="3">
-        <v>1</v>
+        <v>1.041622335673417</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5970,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>498.39</v>
+        <v>489.73</v>
       </c>
       <c r="C290" s="2">
-        <v>69454731716</v>
+        <v>71012700704</v>
       </c>
       <c r="D290" s="3">
-        <v>0</v>
+        <v>0.2089513486947457</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5984,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>48.2</v>
+        <v>46.74</v>
       </c>
       <c r="C291" s="2">
-        <v>27951081046</v>
+        <v>27920623878</v>
       </c>
       <c r="D291" s="3">
-        <v>0</v>
+        <v>0.8608000193330908</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5998,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>57.11</v>
+        <v>57.31</v>
       </c>
       <c r="C292" s="2">
-        <v>43872933089</v>
+        <v>45023918967</v>
       </c>
       <c r="D292" s="3">
-        <v>1</v>
+        <v>1.132084237475891</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6012,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>78.25</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C293" s="2">
-        <v>11857159888</v>
+        <v>11806876224</v>
       </c>
       <c r="D293" s="3">
-        <v>0</v>
+        <v>0.2158561554739344</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6026,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>91.3</v>
+        <v>92.48</v>
       </c>
       <c r="C294" s="2">
-        <v>31173688700</v>
+        <v>30767736838</v>
       </c>
       <c r="D294" s="3">
-        <v>0</v>
+        <v>0.4794171757287857</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6040,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.93000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C295" s="2">
-        <v>15965014932</v>
+        <v>16004130110</v>
       </c>
       <c r="D295" s="3">
-        <v>0</v>
+        <v>0.3112287606686692</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6056,10 +6057,10 @@
         <v>344</v>
       </c>
       <c r="C296" s="2">
-        <v>343601269665</v>
+        <v>344166914307</v>
       </c>
       <c r="D296" s="3">
-        <v>1</v>
+        <v>1.441705427497793</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6068,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>128.6</v>
+        <v>129.9</v>
       </c>
       <c r="C297" s="2">
-        <v>14506966436</v>
+        <v>14364625944</v>
       </c>
       <c r="D297" s="3">
-        <v>0</v>
+        <v>0.1593496185617454</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6082,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>130.78</v>
+        <v>134.67</v>
       </c>
       <c r="C298" s="2">
-        <v>42090454028</v>
+        <v>42116763030</v>
       </c>
       <c r="D298" s="3">
-        <v>0</v>
+        <v>0.4506610071891048</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6096,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>57.05</v>
+        <v>59.61</v>
       </c>
       <c r="C299" s="2">
-        <v>15453351895</v>
+        <v>15319125331</v>
       </c>
       <c r="D299" s="3">
-        <v>0</v>
+        <v>0.3703230164847792</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6110,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>219.54</v>
+        <v>216.3</v>
       </c>
       <c r="C300" s="2">
-        <v>160996107211</v>
+        <v>160200794697</v>
       </c>
       <c r="D300" s="3">
-        <v>1</v>
+        <v>1.067269269173</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6124,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>142.35</v>
+        <v>141.76</v>
       </c>
       <c r="C301" s="2">
-        <v>37136195828</v>
+        <v>35764589357</v>
       </c>
       <c r="D301" s="3">
-        <v>0</v>
+        <v>0.3635510441077168</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6138,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>177.2</v>
+        <v>177.23</v>
       </c>
       <c r="C302" s="2">
-        <v>27564703254</v>
+        <v>28016568971</v>
       </c>
       <c r="D302" s="3">
-        <v>0</v>
+        <v>0.2277946757332708</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6152,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>288.77</v>
+        <v>281.77</v>
       </c>
       <c r="C303" s="2">
-        <v>53687162213</v>
+        <v>54766549882</v>
       </c>
       <c r="D303" s="3">
-        <v>0</v>
+        <v>0.280082831661931</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6166,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>60.5</v>
+        <v>60.12</v>
       </c>
       <c r="C304" s="2">
-        <v>86131961991</v>
+        <v>84617371905</v>
       </c>
       <c r="D304" s="3">
-        <v>2</v>
+        <v>2.02817963954807</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6180,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>117.4</v>
+        <v>115.11</v>
       </c>
       <c r="C305" s="2">
-        <v>159835339493</v>
+        <v>153886062710</v>
       </c>
       <c r="D305" s="3">
-        <v>1</v>
+        <v>1.926424939617703</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6194,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>47.4</v>
+        <v>47.66</v>
       </c>
       <c r="C306" s="2">
-        <v>42634877110</v>
+        <v>43435646932</v>
       </c>
       <c r="D306" s="3">
-        <v>1</v>
+        <v>1.313282370021422</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6208,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>31.55</v>
+        <v>31.49</v>
       </c>
       <c r="C307" s="2">
-        <v>15549800208</v>
+        <v>15861885270</v>
       </c>
       <c r="D307" s="3">
-        <v>0</v>
+        <v>0.7258518725048602</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6222,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>139.34</v>
+        <v>140.14</v>
       </c>
       <c r="C308" s="2">
-        <v>10073322757</v>
+        <v>10334112349</v>
       </c>
       <c r="D308" s="3">
-        <v>0</v>
+        <v>0.1062617401020546</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6236,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>97.73</v>
+        <v>93.48</v>
       </c>
       <c r="C309" s="2">
-        <v>25628952890</v>
+        <v>25918040661</v>
       </c>
       <c r="D309" s="3">
-        <v>0</v>
+        <v>0.399529931701203</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6250,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>595.13</v>
+        <v>583.6900000000001</v>
       </c>
       <c r="C310" s="2">
-        <v>22606129383</v>
+        <v>22408766100</v>
       </c>
       <c r="D310" s="3">
-        <v>0</v>
+        <v>0.05532246829059666</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6264,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>283.46</v>
+        <v>278.24</v>
       </c>
       <c r="C311" s="2">
-        <v>17460545379</v>
+        <v>17360180358</v>
       </c>
       <c r="D311" s="3">
-        <v>0</v>
+        <v>0.08990845320111522</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6278,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>115.44</v>
+        <v>116.79</v>
       </c>
       <c r="C312" s="2">
-        <v>58916087897</v>
+        <v>59653433042</v>
       </c>
       <c r="D312" s="3">
-        <v>0</v>
+        <v>0.7360302127533451</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6292,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>181.51</v>
+        <v>175.58</v>
       </c>
       <c r="C313" s="2">
-        <v>103675888458</v>
+        <v>104746108935</v>
       </c>
       <c r="D313" s="3">
-        <v>0</v>
+        <v>0.8596639443889101</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6306,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>90.27</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="C314" s="2">
-        <v>48643895652</v>
+        <v>49084845894</v>
       </c>
       <c r="D314" s="3">
-        <v>0</v>
+        <v>0.7608817625198431</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6320,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>42.32</v>
+        <v>42.49</v>
       </c>
       <c r="C315" s="2">
-        <v>77738834865</v>
+        <v>78274978904</v>
       </c>
       <c r="D315" s="3">
-        <v>2</v>
+        <v>2.654618312860701</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6334,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.68</v>
+        <v>23.02</v>
       </c>
       <c r="C316" s="2">
-        <v>8543948079</v>
+        <v>8366679274</v>
       </c>
       <c r="D316" s="3">
-        <v>0</v>
+        <v>0.5237374866744611</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6348,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>42.33</v>
+        <v>42.01</v>
       </c>
       <c r="C317" s="2">
-        <v>26851239765</v>
+        <v>27252972628</v>
       </c>
       <c r="D317" s="3">
-        <v>0</v>
+        <v>0.9348179789123625</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6362,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>83.20999999999999</v>
+        <v>82.67</v>
       </c>
       <c r="C318" s="2">
-        <v>212829729672</v>
+        <v>211424832023</v>
       </c>
       <c r="D318" s="3">
-        <v>3</v>
+        <v>3.685309057007428</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6376,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>6.81</v>
+        <v>6.7</v>
       </c>
       <c r="C319" s="2">
-        <v>5325204067</v>
+        <v>5272839214</v>
       </c>
       <c r="D319" s="3">
-        <v>1</v>
+        <v>1.134058828016292</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6390,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>71.31999999999999</v>
+        <v>69.66</v>
       </c>
       <c r="C320" s="2">
-        <v>127156107249</v>
+        <v>128642305584</v>
       </c>
       <c r="D320" s="3">
-        <v>2</v>
+        <v>2.661130685579642</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6404,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>442.81</v>
+        <v>445.79</v>
       </c>
       <c r="C321" s="2">
-        <v>37322913876</v>
+        <v>37015449950</v>
       </c>
       <c r="D321" s="3">
-        <v>0</v>
+        <v>0.1196516160475603</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,13 +6418,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>231.21</v>
+        <v>226.47</v>
       </c>
       <c r="C322" s="2">
-        <v>1755487097667</v>
+        <v>1704992893135</v>
       </c>
       <c r="D322" s="3">
-        <v>10</v>
+        <v>10.84870127635691</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6432,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>176.41</v>
+        <v>168.69</v>
       </c>
       <c r="C323" s="2">
-        <v>29447673947</v>
+        <v>29304886436</v>
       </c>
       <c r="D323" s="3">
-        <v>0</v>
+        <v>0.2503321113947519</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6446,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>126.69</v>
+        <v>128.44</v>
       </c>
       <c r="C324" s="2">
-        <v>16200781164</v>
+        <v>16359482127</v>
       </c>
       <c r="D324" s="3">
-        <v>0</v>
+        <v>0.1835418532797522</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,13 +6460,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1145.98</v>
+        <v>1153.01</v>
       </c>
       <c r="C325" s="2">
-        <v>27706600680</v>
+        <v>28183751158</v>
       </c>
       <c r="D325" s="3">
-        <v>0</v>
+        <v>0.03522342473432137</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6473,13 +6474,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>73.05</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C326" s="2">
-        <v>81164820690</v>
+        <v>81583348132</v>
       </c>
       <c r="D326" s="3">
-        <v>1</v>
+        <v>1.621322752395645</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6488,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>89.66</v>
+        <v>89.02</v>
       </c>
       <c r="C327" s="2">
-        <v>23450096869</v>
+        <v>23921331616</v>
       </c>
       <c r="D327" s="3">
-        <v>0</v>
+        <v>0.3872252060847653</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6502,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.419</v>
+        <v>15.967</v>
       </c>
       <c r="C328" s="2">
-        <v>8905910765</v>
+        <v>8751242583</v>
       </c>
       <c r="D328" s="3">
-        <v>0</v>
+        <v>0.7897911358837015</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6516,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.58</v>
+        <v>8.77</v>
       </c>
       <c r="C329" s="2">
-        <v>4105589971</v>
+        <v>4103638070</v>
       </c>
       <c r="D329" s="3">
-        <v>0</v>
+        <v>0.6742722938629618</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6530,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>25.69</v>
+        <v>25.38</v>
       </c>
       <c r="C330" s="2">
-        <v>5330727475</v>
+        <v>5372660970</v>
       </c>
       <c r="D330" s="3">
-        <v>0</v>
+        <v>0.3050448352961284</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6544,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>130.96</v>
+        <v>133.1</v>
       </c>
       <c r="C331" s="2">
-        <v>21521786449</v>
+        <v>22069796348</v>
       </c>
       <c r="D331" s="3">
-        <v>0</v>
+        <v>0.2389384973157965</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6558,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>75.14</v>
+        <v>76.98</v>
       </c>
       <c r="C332" s="2">
-        <v>147895582141</v>
+        <v>153642046808</v>
       </c>
       <c r="D332" s="3">
-        <v>2</v>
+        <v>2.876060617885556</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6572,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>62.97</v>
+        <v>60.85</v>
       </c>
       <c r="C333" s="2">
-        <v>49659382936</v>
+        <v>50614937531</v>
       </c>
       <c r="D333" s="3">
-        <v>1</v>
+        <v>1.198626790837952</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6586,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>528.83</v>
+        <v>519.17</v>
       </c>
       <c r="C334" s="2">
-        <v>228390855097</v>
+        <v>229647519900</v>
       </c>
       <c r="D334" s="3">
-        <v>0</v>
+        <v>0.6374087610382667</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6600,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>22.93</v>
+        <v>22.5</v>
       </c>
       <c r="C335" s="2">
-        <v>8512989231</v>
+        <v>8543262151</v>
       </c>
       <c r="D335" s="3">
-        <v>0</v>
+        <v>0.5471508430576819</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6614,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>146</v>
+        <v>147.6</v>
       </c>
       <c r="C336" s="2">
-        <v>223124171888</v>
+        <v>230257737576</v>
       </c>
       <c r="D336" s="3">
-        <v>2</v>
+        <v>2.247986679809723</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6628,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>21.89</v>
+        <v>21.6</v>
       </c>
       <c r="C337" s="2">
-        <v>12461415792</v>
+        <v>12760505925</v>
       </c>
       <c r="D337" s="3">
-        <v>0</v>
+        <v>0.8512948385648091</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6642,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>21.24</v>
+        <v>21.23</v>
       </c>
       <c r="C338" s="2">
-        <v>7408013213</v>
+        <v>7450871553</v>
       </c>
       <c r="D338" s="3">
-        <v>0</v>
+        <v>0.5057349182027722</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6656,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>312.5</v>
+        <v>305.4</v>
       </c>
       <c r="C339" s="2">
-        <v>51460054954</v>
+        <v>50616781488</v>
       </c>
       <c r="D339" s="3">
-        <v>0</v>
+        <v>0.2388313601048163</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6670,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="C340" s="2">
-        <v>5327081343</v>
+        <v>5482641818</v>
       </c>
       <c r="D340" s="3">
-        <v>0</v>
+        <v>0.5766803654574633</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6684,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>574.83</v>
+        <v>559.52</v>
       </c>
       <c r="C341" s="2">
-        <v>108639085676</v>
+        <v>109447711628</v>
       </c>
       <c r="D341" s="3">
-        <v>0</v>
+        <v>0.2818752397036274</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6698,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>35.09</v>
+        <v>35.88</v>
       </c>
       <c r="C342" s="2">
-        <v>8786721500</v>
+        <v>8889240856</v>
       </c>
       <c r="D342" s="3">
-        <v>0</v>
+        <v>0.3570081225621489</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6712,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>245.7</v>
+        <v>242.85</v>
       </c>
       <c r="C343" s="2">
-        <v>61275974980</v>
+        <v>61615211527</v>
       </c>
       <c r="D343" s="3">
-        <v>0</v>
+        <v>0.3656080031406674</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6726,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>66.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C344" s="2">
-        <v>15053376773</v>
+        <v>15140829653</v>
       </c>
       <c r="D344" s="3">
-        <v>0</v>
+        <v>0.3261289959670741</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6740,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>92.65000000000001</v>
+        <v>93.22</v>
       </c>
       <c r="C345" s="2">
-        <v>19551898747</v>
+        <v>19931217978</v>
       </c>
       <c r="D345" s="3">
-        <v>0</v>
+        <v>0.3080992195028247</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6754,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>53.58</v>
+        <v>54.13</v>
       </c>
       <c r="C346" s="2">
-        <v>15883987707</v>
+        <v>16409635453</v>
       </c>
       <c r="D346" s="3">
-        <v>0</v>
+        <v>0.4368443911025804</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6768,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>530.55</v>
+        <v>524.08</v>
       </c>
       <c r="C347" s="2">
-        <v>335984602774</v>
+        <v>324788359037</v>
       </c>
       <c r="D347" s="3">
-        <v>0</v>
+        <v>0.8930355064522844</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,13 +6782,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4371.48</v>
+        <v>4313.02</v>
       </c>
       <c r="C348" s="2">
-        <v>15742099063</v>
+        <v>16271404146</v>
       </c>
       <c r="D348" s="3">
-        <v>0</v>
+        <v>0.005436375142258199</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6795,13 +6796,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>21.24</v>
+        <v>22.02</v>
       </c>
       <c r="C349" s="2">
-        <v>9264266476</v>
+        <v>9075652661</v>
       </c>
       <c r="D349" s="3">
-        <v>0</v>
+        <v>0.5939178932582311</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6810,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>18.51</v>
+        <v>18.16</v>
       </c>
       <c r="C350" s="2">
-        <v>10522759060</v>
+        <v>10812178903</v>
       </c>
       <c r="D350" s="3">
-        <v>0</v>
+        <v>0.8579524856670425</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6824,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>18.41</v>
+        <v>17.98</v>
       </c>
       <c r="C351" s="2">
-        <v>10958377940</v>
+        <v>10855467567</v>
       </c>
       <c r="D351" s="3">
-        <v>0</v>
+        <v>0.8700109218102481</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6838,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>62.74</v>
+        <v>61.65</v>
       </c>
       <c r="C352" s="2">
-        <v>22028757167</v>
+        <v>21916970626</v>
       </c>
       <c r="D352" s="3">
-        <v>0</v>
+        <v>0.5122869614841892</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6852,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>207.11</v>
+        <v>201.52</v>
       </c>
       <c r="C353" s="2">
-        <v>24371885293</v>
+        <v>24254836576</v>
       </c>
       <c r="D353" s="3">
-        <v>0</v>
+        <v>0.1734387185895385</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6866,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="C354" s="2">
-        <v>17631188836</v>
+        <v>17406596364</v>
       </c>
       <c r="D354" s="3">
-        <v>0</v>
+        <v>0.6270753443103201</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6880,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>63.5</v>
+        <v>63.1</v>
       </c>
       <c r="C355" s="2">
-        <v>13291923064</v>
+        <v>13226368733</v>
       </c>
       <c r="D355" s="3">
-        <v>0</v>
+        <v>0.3020488069860218</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6894,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>66.63</v>
+        <v>65.34</v>
       </c>
       <c r="C356" s="2">
-        <v>200761653075</v>
+        <v>200497188472</v>
       </c>
       <c r="D356" s="3">
-        <v>4</v>
+        <v>4.421758453109653</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6908,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>472.02</v>
+        <v>467.15</v>
       </c>
       <c r="C357" s="2">
-        <v>34039078795</v>
+        <v>34070747198</v>
       </c>
       <c r="D357" s="3">
-        <v>0</v>
+        <v>0.1050972041356973</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6922,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>68.43000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="C358" s="2">
-        <v>28929693455</v>
+        <v>29061074163</v>
       </c>
       <c r="D358" s="3">
-        <v>0</v>
+        <v>0.6238222682448137</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6936,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>18.53</v>
+        <v>18.16</v>
       </c>
       <c r="C359" s="2">
-        <v>16555506332</v>
+        <v>16918076579</v>
       </c>
       <c r="D359" s="3">
-        <v>1</v>
+        <v>1.342458905265714</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6950,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>465.16</v>
+        <v>480.67</v>
       </c>
       <c r="C360" s="2">
-        <v>27385388010</v>
+        <v>28142255900</v>
       </c>
       <c r="D360" s="3">
-        <v>0</v>
+        <v>0.08436799889258913</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6964,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>96.93000000000001</v>
+        <v>95.86</v>
       </c>
       <c r="C361" s="2">
-        <v>34915193428</v>
+        <v>35095518639</v>
       </c>
       <c r="D361" s="3">
-        <v>0</v>
+        <v>0.5275700077296148</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6978,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>13.3</v>
+        <v>13.26</v>
       </c>
       <c r="C362" s="2">
-        <v>5586980944</v>
+        <v>5735917045</v>
       </c>
       <c r="D362" s="3">
-        <v>0</v>
+        <v>0.6233402855448597</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6992,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>87.22</v>
+        <v>88.33</v>
       </c>
       <c r="C363" s="2">
-        <v>31099827633</v>
+        <v>31068892239</v>
       </c>
       <c r="D363" s="3">
-        <v>0</v>
+        <v>0.5068546045499529</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7006,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>31.01</v>
+        <v>30.65</v>
       </c>
       <c r="C364" s="2">
-        <v>16181855492</v>
+        <v>16207201566</v>
       </c>
       <c r="D364" s="3">
-        <v>0</v>
+        <v>0.7619797193610274</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7020,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>59.59</v>
+        <v>57.2</v>
       </c>
       <c r="C365" s="2">
-        <v>29842081228</v>
+        <v>29100440730</v>
       </c>
       <c r="D365" s="3">
-        <v>0</v>
+        <v>0.7331104254458825</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7034,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>149.52</v>
+        <v>150.64</v>
       </c>
       <c r="C366" s="2">
-        <v>209514508575</v>
+        <v>201316481580</v>
       </c>
       <c r="D366" s="3">
-        <v>2</v>
+        <v>1.925772064508365</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7048,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>37.92</v>
+        <v>38.08</v>
       </c>
       <c r="C367" s="2">
-        <v>212964237255</v>
+        <v>207918640754</v>
       </c>
       <c r="D367" s="3">
-        <v>8</v>
+        <v>7.867963662996044</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7062,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.35</v>
+        <v>50.86</v>
       </c>
       <c r="C368" s="2">
-        <v>13527824412</v>
+        <v>13693684329</v>
       </c>
       <c r="D368" s="3">
-        <v>0</v>
+        <v>0.3879804247973326</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7076,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>143.43</v>
+        <v>139.37</v>
       </c>
       <c r="C369" s="2">
-        <v>349279310084</v>
+        <v>346890273588</v>
       </c>
       <c r="D369" s="3">
-        <v>3</v>
+        <v>3.586647375653351</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7090,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>99.55</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C370" s="2">
-        <v>59731567573</v>
+        <v>57879195599</v>
       </c>
       <c r="D370" s="3">
-        <v>0</v>
+        <v>0.8348776911089264</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7104,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>272.33</v>
+        <v>272.84</v>
       </c>
       <c r="C371" s="2">
-        <v>34793303238</v>
+        <v>35493589061</v>
       </c>
       <c r="D371" s="3">
-        <v>0</v>
+        <v>0.1874596206506669</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7118,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="C372" s="2">
-        <v>12692178107</v>
+        <v>12378363767</v>
       </c>
       <c r="D372" s="3">
-        <v>0</v>
+        <v>0.3852548441309144</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7132,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>141.4</v>
+        <v>139.7</v>
       </c>
       <c r="C373" s="2">
-        <v>13187010810</v>
+        <v>13053038674</v>
       </c>
       <c r="D373" s="3">
-        <v>0</v>
+        <v>0.1346421619632316</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7146,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>141.62</v>
+        <v>140.8</v>
       </c>
       <c r="C374" s="2">
-        <v>16157190566</v>
+        <v>16014980020</v>
       </c>
       <c r="D374" s="3">
-        <v>0</v>
+        <v>0.1639040195556383</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7160,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>100.56</v>
+        <v>100.1</v>
       </c>
       <c r="C375" s="2">
-        <v>71961908274</v>
+        <v>74197511782</v>
       </c>
       <c r="D375" s="3">
-        <v>1</v>
+        <v>1.068122643310081</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7174,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>84.31999999999999</v>
+        <v>84.94</v>
       </c>
       <c r="C376" s="2">
-        <v>134472800208</v>
+        <v>130931776596</v>
       </c>
       <c r="D376" s="3">
-        <v>2</v>
+        <v>2.221256246115725</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7188,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>150.18</v>
+        <v>150.05</v>
       </c>
       <c r="C377" s="2">
-        <v>62309148270</v>
+        <v>63139644904</v>
       </c>
       <c r="D377" s="3">
-        <v>0</v>
+        <v>0.6063620230153615</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7202,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>54.94</v>
+        <v>53.45</v>
       </c>
       <c r="C378" s="2">
-        <v>8754873662</v>
+        <v>9025402177</v>
       </c>
       <c r="D378" s="3">
-        <v>0</v>
+        <v>0.2433238680847861</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7216,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>81.38</v>
+        <v>79.25</v>
       </c>
       <c r="C379" s="2">
-        <v>9204940887</v>
+        <v>9195680516</v>
       </c>
       <c r="D379" s="3">
-        <v>0</v>
+        <v>0.1672054624121085</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7230,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C380" s="2">
-        <v>35160203055</v>
+        <v>34690164204</v>
       </c>
       <c r="D380" s="3">
-        <v>0</v>
+        <v>0.3354949172851978</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7244,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>28</v>
+        <v>27.09</v>
       </c>
       <c r="C381" s="2">
-        <v>21116656398</v>
+        <v>20688800068</v>
       </c>
       <c r="D381" s="3">
-        <v>1</v>
+        <v>1.100505343378426</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7258,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>46.2</v>
+        <v>45.4</v>
       </c>
       <c r="C382" s="2">
-        <v>6156664842</v>
+        <v>6115183089</v>
       </c>
       <c r="D382" s="3">
-        <v>0</v>
+        <v>0.1940972889400076</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7272,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>79.09</v>
+        <v>77.47</v>
       </c>
       <c r="C383" s="2">
-        <v>30580499487</v>
+        <v>31344987118</v>
       </c>
       <c r="D383" s="3">
-        <v>0</v>
+        <v>0.583042747645701</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7286,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>233.9</v>
+        <v>233.59</v>
       </c>
       <c r="C384" s="2">
-        <v>40223366910</v>
+        <v>41009536767</v>
       </c>
       <c r="D384" s="3">
-        <v>0</v>
+        <v>0.2529859921107032</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7300,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>70.87</v>
+        <v>68.94</v>
       </c>
       <c r="C385" s="2">
-        <v>30308922081</v>
+        <v>30694202707</v>
       </c>
       <c r="D385" s="3">
-        <v>0</v>
+        <v>0.6415801750890818</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7314,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>96.73</v>
+        <v>98.5</v>
       </c>
       <c r="C386" s="2">
-        <v>6953162821</v>
+        <v>6711555325</v>
       </c>
       <c r="D386" s="3">
-        <v>0</v>
+        <v>0.0981867312109868</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7328,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>72.39</v>
+        <v>72.56</v>
       </c>
       <c r="C387" s="2">
-        <v>10296886725</v>
+        <v>10279104362</v>
       </c>
       <c r="D387" s="3">
-        <v>0</v>
+        <v>0.2041380017369597</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7342,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>117.72</v>
+        <v>114.16</v>
       </c>
       <c r="C388" s="2">
-        <v>19025967094</v>
+        <v>18669326987</v>
       </c>
       <c r="D388" s="3">
-        <v>0</v>
+        <v>0.2356571168947421</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7356,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>239.35</v>
+        <v>241.13</v>
       </c>
       <c r="C389" s="2">
-        <v>286011745870</v>
+        <v>279953442177</v>
       </c>
       <c r="D389" s="3">
-        <v>1</v>
+        <v>1.673017267802021</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7370,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>150.43</v>
+        <v>156.08</v>
       </c>
       <c r="C390" s="2">
-        <v>171510071331</v>
+        <v>175514227296</v>
       </c>
       <c r="D390" s="3">
-        <v>1</v>
+        <v>1.620432436394862</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7384,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>174.56</v>
+        <v>167.43</v>
       </c>
       <c r="C391" s="2">
-        <v>19540948783</v>
+        <v>19242472424</v>
       </c>
       <c r="D391" s="3">
-        <v>0</v>
+        <v>0.1656126298100059</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7398,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>72.39</v>
+        <v>74.05</v>
       </c>
       <c r="C392" s="2">
-        <v>16079234118</v>
+        <v>16522179363</v>
       </c>
       <c r="D392" s="3">
-        <v>0</v>
+        <v>0.3215200994684601</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7412,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>230.21</v>
+        <v>231.06</v>
       </c>
       <c r="C393" s="2">
-        <v>9215168021</v>
+        <v>9542872534</v>
       </c>
       <c r="D393" s="3">
-        <v>0</v>
+        <v>0.05951414678646856</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7426,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>47.43</v>
+        <v>45.66</v>
       </c>
       <c r="C394" s="2">
-        <v>7788458412</v>
+        <v>7882127952</v>
       </c>
       <c r="D394" s="3">
-        <v>0</v>
+        <v>0.248755923573326</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7440,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>510.25</v>
+        <v>509.29</v>
       </c>
       <c r="C395" s="2">
-        <v>51519294717</v>
+        <v>51480661579</v>
       </c>
       <c r="D395" s="3">
-        <v>0</v>
+        <v>0.1456615169501975</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7454,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.07</v>
+        <v>16.17</v>
       </c>
       <c r="C396" s="2">
-        <v>15895451636</v>
+        <v>15651999706</v>
       </c>
       <c r="D396" s="3">
-        <v>1</v>
+        <v>1.394844097726856</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7468,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>64.87</v>
+        <v>64.47</v>
       </c>
       <c r="C397" s="2">
-        <v>7383406324</v>
+        <v>7373643497</v>
       </c>
       <c r="D397" s="3">
-        <v>0</v>
+        <v>0.1648125671437338</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7482,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>94.04000000000001</v>
+        <v>92.95</v>
       </c>
       <c r="C398" s="2">
-        <v>13111111359</v>
+        <v>13179210657</v>
       </c>
       <c r="D398" s="3">
-        <v>0</v>
+        <v>0.2043176400171243</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7496,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>105.39</v>
+        <v>101.64</v>
       </c>
       <c r="C399" s="2">
-        <v>7690504082</v>
+        <v>7503862561</v>
       </c>
       <c r="D399" s="3">
-        <v>0</v>
+        <v>0.1063863900630837</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7510,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>213.33</v>
+        <v>215.69</v>
       </c>
       <c r="C400" s="2">
-        <v>31020417630</v>
+        <v>31467463398</v>
       </c>
       <c r="D400" s="3">
-        <v>0</v>
+        <v>0.2102314003542125</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7524,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>258.81</v>
+        <v>254.55</v>
       </c>
       <c r="C401" s="2">
-        <v>29178631094</v>
+        <v>29022335840</v>
       </c>
       <c r="D401" s="3">
-        <v>0</v>
+        <v>0.1642952924869811</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7538,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.44</v>
+        <v>41.72</v>
       </c>
       <c r="C402" s="2">
-        <v>20007862655</v>
+        <v>20482105603</v>
       </c>
       <c r="D402" s="3">
-        <v>0</v>
+        <v>0.7074506649261886</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7552,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>427.77</v>
+        <v>427.58</v>
       </c>
       <c r="C403" s="2">
-        <v>46251841212</v>
+        <v>44390931344</v>
       </c>
       <c r="D403" s="3">
-        <v>0</v>
+        <v>0.1496038368086024</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7566,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>119.59</v>
+        <v>119.33</v>
       </c>
       <c r="C404" s="2">
-        <v>43610661512</v>
+        <v>42742057027</v>
       </c>
       <c r="D404" s="3">
-        <v>0</v>
+        <v>0.5161448955191009</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7580,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>95.83</v>
+        <v>100.14</v>
       </c>
       <c r="C405" s="2">
-        <v>30760374883</v>
+        <v>31431716985</v>
       </c>
       <c r="D405" s="3">
-        <v>0</v>
+        <v>0.4522997796947377</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7594,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>70.48999999999999</v>
+        <v>70.28</v>
       </c>
       <c r="C406" s="2">
-        <v>111024451038</v>
+        <v>111255708136</v>
       </c>
       <c r="D406" s="3">
-        <v>2</v>
+        <v>2.281163465389563</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7608,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>276.7</v>
+        <v>283.64</v>
       </c>
       <c r="C407" s="2">
-        <v>30638780581</v>
+        <v>31648903559</v>
       </c>
       <c r="D407" s="3">
-        <v>0</v>
+        <v>0.1607892650699761</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7622,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>102.26</v>
+        <v>103.63</v>
       </c>
       <c r="C408" s="2">
-        <v>121242841847</v>
+        <v>121400880782</v>
       </c>
       <c r="D408" s="3">
-        <v>1</v>
+        <v>1.688115654894353</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7636,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>52.72</v>
+        <v>54.42</v>
       </c>
       <c r="C409" s="2">
-        <v>102607217173</v>
+        <v>97949427830</v>
       </c>
       <c r="D409" s="3">
-        <v>2</v>
+        <v>2.593637183983125</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7650,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>47.6</v>
+        <v>46.1</v>
       </c>
       <c r="C410" s="2">
-        <v>7496525960</v>
+        <v>7249156602</v>
       </c>
       <c r="D410" s="3">
-        <v>0</v>
+        <v>0.2265960913824586</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7664,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>764.9</v>
+        <v>747.4</v>
       </c>
       <c r="C411" s="2">
-        <v>69796391272</v>
+        <v>69778534500</v>
       </c>
       <c r="D411" s="3">
-        <v>0</v>
+        <v>0.1345347910217701</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7677,13 +7678,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>380.86</v>
+        <v>390.87</v>
       </c>
       <c r="C412" s="2">
-        <v>20077983083</v>
+        <v>20050480764</v>
       </c>
       <c r="D412" s="3">
-        <v>0</v>
+        <v>0.07391937897375767</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7692,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>116.82</v>
+        <v>121.18</v>
       </c>
       <c r="C413" s="2">
-        <v>13795392869</v>
+        <v>13854070484</v>
       </c>
       <c r="D413" s="3">
-        <v>0</v>
+        <v>0.1647450227221121</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7706,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="C414" s="2">
-        <v>30632726507</v>
+        <v>31147917503</v>
       </c>
       <c r="D414" s="3">
-        <v>2</v>
+        <v>1.986032881305622</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7720,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>57.38</v>
+        <v>59.26</v>
       </c>
       <c r="C415" s="2">
-        <v>4159227061</v>
+        <v>4304017618</v>
       </c>
       <c r="D415" s="3">
-        <v>0</v>
+        <v>0.1046594025287128</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7734,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>174.6</v>
+        <v>174.44</v>
       </c>
       <c r="C416" s="2">
-        <v>9309065191</v>
+        <v>9396881260</v>
       </c>
       <c r="D416" s="3">
-        <v>0</v>
+        <v>0.07762534064081358</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7748,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>262.27</v>
+        <v>262.15</v>
       </c>
       <c r="C417" s="2">
-        <v>40910167078</v>
+        <v>39504340041</v>
       </c>
       <c r="D417" s="3">
-        <v>0</v>
+        <v>0.2171504865164832</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7762,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>59.9</v>
+        <v>61.4</v>
       </c>
       <c r="C418" s="2">
-        <v>63982658003</v>
+        <v>64941230762</v>
       </c>
       <c r="D418" s="3">
-        <v>1</v>
+        <v>1.524115928265196</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7776,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>85.09</v>
+        <v>86.3</v>
       </c>
       <c r="C419" s="2">
-        <v>28860393882</v>
+        <v>28973174056</v>
       </c>
       <c r="D419" s="3">
-        <v>0</v>
+        <v>0.4837835951984619</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7790,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>317</v>
+        <v>329.75</v>
       </c>
       <c r="C420" s="2">
-        <v>79409001703</v>
+        <v>79272559184</v>
       </c>
       <c r="D420" s="3">
-        <v>0</v>
+        <v>0.3464207778925485</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7804,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>129.3</v>
+        <v>128.7</v>
       </c>
       <c r="C421" s="2">
-        <v>37065865271</v>
+        <v>37496470780</v>
       </c>
       <c r="D421" s="3">
-        <v>0</v>
+        <v>0.4198340942484016</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7818,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>194.08</v>
+        <v>192.46</v>
       </c>
       <c r="C422" s="2">
-        <v>16162745936</v>
+        <v>15900483760</v>
       </c>
       <c r="D422" s="3">
-        <v>0</v>
+        <v>0.1190517309033952</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7832,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>74.31</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="C423" s="2">
-        <v>25383233554</v>
+        <v>26111095981</v>
       </c>
       <c r="D423" s="3">
-        <v>0</v>
+        <v>0.5208506635373338</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7846,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>63.6</v>
+        <v>63.33</v>
       </c>
       <c r="C424" s="2">
-        <v>16259159427</v>
+        <v>16916057385</v>
       </c>
       <c r="D424" s="3">
-        <v>0</v>
+        <v>0.3849067432258866</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7860,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>226.15</v>
+        <v>222.5</v>
       </c>
       <c r="C425" s="2">
-        <v>42834041996</v>
+        <v>42774101067</v>
       </c>
       <c r="D425" s="3">
-        <v>0</v>
+        <v>0.2770235777236461</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7874,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>184.5</v>
+        <v>180.03</v>
       </c>
       <c r="C426" s="2">
-        <v>29400240797</v>
+        <v>29926147398</v>
       </c>
       <c r="D426" s="3">
-        <v>0</v>
+        <v>0.239536548279535</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7888,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>158.2</v>
+        <v>155.82</v>
       </c>
       <c r="C427" s="2">
-        <v>25886445859</v>
+        <v>25635912892</v>
       </c>
       <c r="D427" s="3">
-        <v>0</v>
+        <v>0.2370781038579724</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7902,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>35.18</v>
+        <v>35.49</v>
       </c>
       <c r="C428" s="2">
-        <v>20663513372</v>
+        <v>20620798403</v>
       </c>
       <c r="D428" s="3">
-        <v>0</v>
+        <v>0.8372696232552291</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7916,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>238.47</v>
+        <v>238.02</v>
       </c>
       <c r="C429" s="2">
-        <v>91164421395</v>
+        <v>91493849506</v>
       </c>
       <c r="D429" s="3">
-        <v>0</v>
+        <v>0.5539165069355443</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7930,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>72.90000000000001</v>
+        <v>75.53</v>
       </c>
       <c r="C430" s="2">
-        <v>38137724284</v>
+        <v>38381523828</v>
       </c>
       <c r="D430" s="3">
-        <v>0</v>
+        <v>0.732265522100239</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7944,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>28.92</v>
+        <v>29.63</v>
       </c>
       <c r="C431" s="2">
-        <v>206509494288</v>
+        <v>214223954241</v>
       </c>
       <c r="D431" s="3">
-        <v>10</v>
+        <v>10.41842903450743</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7958,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>47.04</v>
+        <v>46.17</v>
       </c>
       <c r="C432" s="2">
-        <v>9546730056</v>
+        <v>9487071432</v>
       </c>
       <c r="D432" s="3">
-        <v>0</v>
+        <v>0.2960998271812562</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7972,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>636.76</v>
+        <v>606.98</v>
       </c>
       <c r="C433" s="2">
-        <v>33867001764</v>
+        <v>34346986957</v>
       </c>
       <c r="D433" s="3">
-        <v>0</v>
+        <v>0.08154176764504342</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,13 +7986,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>393.33</v>
+        <v>394.54</v>
       </c>
       <c r="C434" s="2">
-        <v>14441852390</v>
+        <v>14166223169</v>
       </c>
       <c r="D434" s="3">
-        <v>0</v>
+        <v>0.05174029456253394</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,13 +8000,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>119.99</v>
+        <v>123.94</v>
       </c>
       <c r="C435" s="2">
-        <v>40595124046</v>
+        <v>40856480573</v>
       </c>
       <c r="D435" s="3">
-        <v>0</v>
+        <v>0.4750237451050466</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8014,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>48.62</v>
+        <v>47.34</v>
       </c>
       <c r="C436" s="2">
-        <v>64641481891</v>
+        <v>65162042602</v>
       </c>
       <c r="D436" s="3">
-        <v>1</v>
+        <v>1.983500406256546</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8028,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>412.91</v>
+        <v>417.96</v>
       </c>
       <c r="C437" s="2">
-        <v>19237878892</v>
+        <v>18961594599</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>0.06537414086012779</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8042,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>180.23</v>
+        <v>182.33</v>
       </c>
       <c r="C438" s="2">
-        <v>90488769551</v>
+        <v>87900433113</v>
       </c>
       <c r="D438" s="3">
-        <v>0</v>
+        <v>0.6947023066853694</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,13 +8056,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>136.51</v>
+        <v>136.49</v>
       </c>
       <c r="C439" s="2">
-        <v>16400942776</v>
+        <v>16644990016</v>
       </c>
       <c r="D439" s="3">
-        <v>0</v>
+        <v>0.175731073935839</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8070,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>68.41</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C440" s="2">
-        <v>82184310773</v>
+        <v>83848183425</v>
       </c>
       <c r="D440" s="3">
-        <v>1</v>
+        <v>1.781565239446841</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8084,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>466.59</v>
+        <v>468.54</v>
       </c>
       <c r="C441" s="2">
-        <v>189728544178</v>
+        <v>189230060985</v>
       </c>
       <c r="D441" s="3">
-        <v>0</v>
+        <v>0.5819816802053469</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8098,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>138.85</v>
+        <v>139.49</v>
       </c>
       <c r="C442" s="2">
-        <v>170525451218</v>
+        <v>167526061785</v>
       </c>
       <c r="D442" s="3">
-        <v>1</v>
+        <v>1.730633725852815</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8112,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>31.06</v>
+        <v>32.05</v>
       </c>
       <c r="C443" s="2">
-        <v>8666882612</v>
+        <v>8935816651</v>
       </c>
       <c r="D443" s="3">
-        <v>0</v>
+        <v>0.4017649749831078</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8126,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>151.71</v>
+        <v>149.38</v>
       </c>
       <c r="C444" s="2">
-        <v>33707512103</v>
+        <v>33676393250</v>
       </c>
       <c r="D444" s="3">
-        <v>0</v>
+        <v>0.32486204590176</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8140,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>144.83</v>
+        <v>140.1</v>
       </c>
       <c r="C445" s="2">
-        <v>36810443826</v>
+        <v>35575871531</v>
       </c>
       <c r="D445" s="3">
-        <v>0</v>
+        <v>0.3659175763745198</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,13 +8154,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>151.87</v>
+        <v>148.39</v>
       </c>
       <c r="C446" s="2">
-        <v>17372130516</v>
+        <v>17378441128</v>
       </c>
       <c r="D446" s="3">
-        <v>0</v>
+        <v>0.1687609805376384</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8168,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>66.20999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="C447" s="2">
-        <v>23759336204</v>
+        <v>23915183613</v>
       </c>
       <c r="D447" s="3">
-        <v>0</v>
+        <v>0.5091140277005728</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8182,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>147.93</v>
+        <v>149.13</v>
       </c>
       <c r="C448" s="2">
-        <v>35886587785</v>
+        <v>34539818119</v>
       </c>
       <c r="D448" s="3">
-        <v>0</v>
+        <v>0.3337497018079723</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,13 +8196,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>208</v>
+        <v>209.5</v>
       </c>
       <c r="C449" s="2">
-        <v>24402795358</v>
+        <v>24132188055</v>
       </c>
       <c r="D449" s="3">
-        <v>0</v>
+        <v>0.1659887030430663</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,13 +8210,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>55.59</v>
+        <v>55.09</v>
       </c>
       <c r="C450" s="2">
-        <v>44193003857</v>
+        <v>44859131896</v>
       </c>
       <c r="D450" s="3">
-        <v>1</v>
+        <v>1.173394235870471</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8224,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>162.91</v>
+        <v>168.89</v>
       </c>
       <c r="C451" s="2">
-        <v>151979472963</v>
+        <v>151097386824</v>
       </c>
       <c r="D451" s="3">
-        <v>1</v>
+        <v>1.289195781154696</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8238,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>49.34</v>
+        <v>50.11</v>
       </c>
       <c r="C452" s="2">
-        <v>11088730337</v>
+        <v>11512311289</v>
       </c>
       <c r="D452" s="3">
-        <v>0</v>
+        <v>0.3310579179506897</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8252,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>447.44</v>
+        <v>445.55</v>
       </c>
       <c r="C453" s="2">
-        <v>18294036885</v>
+        <v>17965152155</v>
       </c>
       <c r="D453" s="3">
-        <v>0</v>
+        <v>0.05810323453270116</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8266,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>15.43</v>
+        <v>15.16</v>
       </c>
       <c r="C454" s="2">
-        <v>7485858928</v>
+        <v>7334355922</v>
       </c>
       <c r="D454" s="3">
-        <v>0</v>
+        <v>0.6971538630270687</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8280,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>18.24</v>
+        <v>18.09</v>
       </c>
       <c r="C455" s="2">
-        <v>7534627485</v>
+        <v>7344317904</v>
       </c>
       <c r="D455" s="3">
-        <v>0</v>
+        <v>0.5850308370147954</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8294,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>45.42</v>
+        <v>44.1</v>
       </c>
       <c r="C456" s="2">
-        <v>13267408347</v>
+        <v>12689664160</v>
       </c>
       <c r="D456" s="3">
-        <v>0</v>
+        <v>0.4146459203722832</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8308,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>38.64</v>
+        <v>38.7</v>
       </c>
       <c r="C457" s="2">
-        <v>11104451420</v>
+        <v>11182468553</v>
       </c>
       <c r="D457" s="3">
-        <v>0</v>
+        <v>0.4163826054678076</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8322,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>141.59</v>
+        <v>140.96</v>
       </c>
       <c r="C458" s="2">
-        <v>12187347918</v>
+        <v>11984411471</v>
       </c>
       <c r="D458" s="3">
-        <v>0</v>
+        <v>0.1225142705101363</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8336,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>268.25</v>
+        <v>267.03</v>
       </c>
       <c r="C459" s="2">
-        <v>14929100179</v>
+        <v>14986074649</v>
       </c>
       <c r="D459" s="3">
-        <v>0</v>
+        <v>0.08087116393508981</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,13 +8350,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>352.32</v>
+        <v>356.12</v>
       </c>
       <c r="C460" s="2">
-        <v>336694010808</v>
+        <v>330247425075</v>
       </c>
       <c r="D460" s="3">
-        <v>1</v>
+        <v>1.336315276823727</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8364,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>22.03</v>
+        <v>22.47</v>
       </c>
       <c r="C461" s="2">
-        <v>4487453134</v>
+        <v>4612708944</v>
       </c>
       <c r="D461" s="3">
-        <v>0</v>
+        <v>0.2958140773124636</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8378,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>212.45</v>
+        <v>204.64</v>
       </c>
       <c r="C462" s="2">
-        <v>140871478282</v>
+        <v>143732682590</v>
       </c>
       <c r="D462" s="3">
-        <v>0</v>
+        <v>1.012117331944481</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8392,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>176.45</v>
+        <v>173.64</v>
       </c>
       <c r="C463" s="2">
-        <v>152226283381</v>
+        <v>155674990318</v>
       </c>
       <c r="D463" s="3">
-        <v>1</v>
+        <v>1.291917937251403</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8406,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>233.8</v>
+        <v>243</v>
       </c>
       <c r="C464" s="2">
-        <v>17101311300</v>
+        <v>17262441841</v>
       </c>
       <c r="D464" s="3">
-        <v>0</v>
+        <v>0.1023674329503933</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8420,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>47.78</v>
+        <v>47.43</v>
       </c>
       <c r="C465" s="2">
-        <v>70381532185</v>
+        <v>70707197946</v>
       </c>
       <c r="D465" s="3">
-        <v>2</v>
+        <v>2.148208151365493</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8434,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>217.4</v>
+        <v>216.8</v>
       </c>
       <c r="C466" s="2">
-        <v>460800818571</v>
+        <v>461897426086</v>
       </c>
       <c r="D466" s="3">
-        <v>3</v>
+        <v>3.070097176119929</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8448,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>175.94</v>
+        <v>177.57</v>
       </c>
       <c r="C467" s="2">
-        <v>16606804337</v>
+        <v>16574215995</v>
       </c>
       <c r="D467" s="3">
-        <v>0</v>
+        <v>0.134502159579019</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8462,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>87.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C468" s="2">
-        <v>33538577943</v>
+        <v>33084031920</v>
       </c>
       <c r="D468" s="3">
-        <v>0</v>
+        <v>0.5682276048978047</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8476,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>36.31</v>
+        <v>36.36</v>
       </c>
       <c r="C469" s="2">
-        <v>22291388533</v>
+        <v>23204344488</v>
       </c>
       <c r="D469" s="3">
-        <v>0</v>
+        <v>0.9196260981483337</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8490,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>57.3</v>
+        <v>57.21</v>
       </c>
       <c r="C470" s="2">
-        <v>22876634605</v>
+        <v>23316223190</v>
       </c>
       <c r="D470" s="3">
-        <v>0</v>
+        <v>0.5872893346453267</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8504,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>144.62</v>
+        <v>146.12</v>
       </c>
       <c r="C471" s="2">
-        <v>19239689101</v>
+        <v>19269821842</v>
       </c>
       <c r="D471" s="3">
-        <v>0</v>
+        <v>0.1900351306512807</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8518,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>36.59</v>
+        <v>37.4</v>
       </c>
       <c r="C472" s="2">
-        <v>7062412830</v>
+        <v>7003855000</v>
       </c>
       <c r="D472" s="3">
-        <v>0</v>
+        <v>0.2698555795844957</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8532,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>208.16</v>
+        <v>202.45</v>
       </c>
       <c r="C473" s="2">
-        <v>33193973366</v>
+        <v>32756680404</v>
       </c>
       <c r="D473" s="3">
-        <v>0</v>
+        <v>0.2331567324156915</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8546,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>217.41</v>
+        <v>223.27</v>
       </c>
       <c r="C474" s="2">
-        <v>25006834817</v>
+        <v>25480284291</v>
       </c>
       <c r="D474" s="3">
-        <v>0</v>
+        <v>0.1644522253765445</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8560,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>245.74</v>
+        <v>235.8</v>
       </c>
       <c r="C475" s="2">
-        <v>63723056494</v>
+        <v>63505958927</v>
       </c>
       <c r="D475" s="3">
-        <v>0</v>
+        <v>0.3880936486093199</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8574,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>51.03</v>
+        <v>50.1</v>
       </c>
       <c r="C476" s="2">
-        <v>18493175216</v>
+        <v>18612667542</v>
       </c>
       <c r="D476" s="3">
-        <v>0</v>
+        <v>0.5353486996321756</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8588,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>59.2</v>
+        <v>59.28</v>
       </c>
       <c r="C477" s="2">
-        <v>247454231489</v>
+        <v>251847538241</v>
       </c>
       <c r="D477" s="3">
-        <v>5</v>
+        <v>6.122028865788327</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8602,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>75.15000000000001</v>
+        <v>74.44</v>
       </c>
       <c r="C478" s="2">
-        <v>14220558845</v>
+        <v>14584840824</v>
       </c>
       <c r="D478" s="3">
-        <v>0</v>
+        <v>0.2823327037183588</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8616,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>254.9</v>
+        <v>251.22</v>
       </c>
       <c r="C479" s="2">
-        <v>15823831178</v>
+        <v>15883261574</v>
       </c>
       <c r="D479" s="3">
-        <v>0</v>
+        <v>0.09110691367079887</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8630,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>41</v>
+        <v>41.28</v>
       </c>
       <c r="C480" s="2">
-        <v>35443909972</v>
+        <v>35170768962</v>
       </c>
       <c r="D480" s="3">
-        <v>1</v>
+        <v>1.227744600898219</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8644,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>51.8</v>
+        <v>50.1</v>
       </c>
       <c r="C481" s="2">
-        <v>15926363457</v>
+        <v>15264421568</v>
       </c>
       <c r="D481" s="3">
-        <v>0</v>
+        <v>0.439044442105156</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8658,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>91.31999999999999</v>
+        <v>93.06</v>
       </c>
       <c r="C482" s="2">
-        <v>29539852912</v>
+        <v>29363566109</v>
       </c>
       <c r="D482" s="3">
-        <v>0</v>
+        <v>0.4546860267079612</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8672,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>63.75</v>
+        <v>65.45</v>
       </c>
       <c r="C483" s="2">
-        <v>27759464840</v>
+        <v>27765512721</v>
       </c>
       <c r="D483" s="3">
-        <v>0</v>
+        <v>0.6113105692945338</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8686,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>30.84</v>
+        <v>31.13</v>
       </c>
       <c r="C484" s="2">
-        <v>127887297569</v>
+        <v>125545767006</v>
       </c>
       <c r="D484" s="3">
-        <v>5</v>
+        <v>5.811507619039384</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8700,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>198.4</v>
+        <v>198</v>
       </c>
       <c r="C485" s="2">
-        <v>12340609486</v>
+        <v>12577105310</v>
       </c>
       <c r="D485" s="3">
-        <v>0</v>
+        <v>0.09153377315418106</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8714,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>219.26</v>
+        <v>217.64</v>
       </c>
       <c r="C486" s="2">
-        <v>27546762705</v>
+        <v>28364594060</v>
       </c>
       <c r="D486" s="3">
-        <v>0</v>
+        <v>0.1878035136051688</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,13 +8728,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C487" s="2">
-        <v>50022854708</v>
+        <v>51158645969</v>
       </c>
       <c r="D487" s="3">
-        <v>0</v>
+        <v>0.6092555989088939</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8742,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>21.13</v>
+        <v>21.14</v>
       </c>
       <c r="C488" s="2">
-        <v>25997621004</v>
+        <v>26247522788</v>
       </c>
       <c r="D488" s="3">
-        <v>1</v>
+        <v>1.789160066817333</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8756,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>145.8</v>
+        <v>144.2</v>
       </c>
       <c r="C489" s="2">
-        <v>419110610043</v>
+        <v>423576669695</v>
       </c>
       <c r="D489" s="3">
-        <v>4</v>
+        <v>4.232847566947011</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8770,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C490" s="2">
-        <v>12055786941</v>
+        <v>11975285897</v>
       </c>
       <c r="D490" s="3">
-        <v>0</v>
+        <v>0.2587175646497578</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8784,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>46.63</v>
+        <v>46.52</v>
       </c>
       <c r="C491" s="2">
-        <v>11981123643</v>
+        <v>11863847496</v>
       </c>
       <c r="D491" s="3">
-        <v>0</v>
+        <v>0.3674952307015562</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8798,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>286.71</v>
+        <v>287.17</v>
       </c>
       <c r="C492" s="2">
-        <v>21963170252</v>
+        <v>21029923103</v>
       </c>
       <c r="D492" s="3">
-        <v>0</v>
+        <v>0.1055272144379339</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8812,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.65</v>
+        <v>22.75</v>
       </c>
       <c r="C493" s="2">
-        <v>9242853114</v>
+        <v>9137234059</v>
       </c>
       <c r="D493" s="3">
-        <v>0</v>
+        <v>0.5787609313233386</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8826,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>35.1</v>
+        <v>34.4</v>
       </c>
       <c r="C494" s="2">
-        <v>25788377151</v>
+        <v>25370855184</v>
       </c>
       <c r="D494" s="3">
-        <v>1</v>
+        <v>1.062777916717643</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8840,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>119.89</v>
+        <v>117.23</v>
       </c>
       <c r="C495" s="2">
-        <v>12648809347</v>
+        <v>12938216893</v>
       </c>
       <c r="D495" s="3">
-        <v>0</v>
+        <v>0.1590382250678888</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8854,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>65.79000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C496" s="2">
-        <v>34816925708</v>
+        <v>34526396910</v>
       </c>
       <c r="D496" s="3">
-        <v>0</v>
+        <v>0.7403683479890449</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8868,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>146.49</v>
+        <v>144.72</v>
       </c>
       <c r="C497" s="2">
-        <v>35455775559</v>
+        <v>35053158522</v>
       </c>
       <c r="D497" s="3">
-        <v>0</v>
+        <v>0.3490313691855742</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8882,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="C498" s="2">
-        <v>182045160511</v>
+        <v>184652876892</v>
       </c>
       <c r="D498" s="3">
-        <v>6</v>
+        <v>6.380957929442429</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8896,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>53.21</v>
+        <v>52.83</v>
       </c>
       <c r="C499" s="2">
-        <v>11828061493</v>
+        <v>11617144511</v>
       </c>
       <c r="D499" s="3">
-        <v>0</v>
+        <v>0.3168725647233407</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8910,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.16</v>
+        <v>22.6</v>
       </c>
       <c r="C500" s="2">
-        <v>4518934397</v>
+        <v>4497164299</v>
       </c>
       <c r="D500" s="3">
-        <v>0</v>
+        <v>0.2867452108022153</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,13 +8924,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>101.82</v>
+        <v>101.52</v>
       </c>
       <c r="C501" s="2">
-        <v>18215801742</v>
+        <v>18391386119</v>
       </c>
       <c r="D501" s="3">
-        <v>0</v>
+        <v>0.2610530136213795</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8938,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>112.26</v>
+        <v>107.66</v>
       </c>
       <c r="C502" s="2">
-        <v>32708850633</v>
+        <v>33720324819</v>
       </c>
       <c r="D502" s="3">
-        <v>0</v>
+        <v>0.4513393839991532</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8952,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>150.42</v>
+        <v>154.43</v>
       </c>
       <c r="C503" s="2">
-        <v>31335926200</v>
+        <v>31007955211</v>
       </c>
       <c r="D503" s="3">
-        <v>0</v>
+        <v>0.2893392254291323</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8966,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>394.63</v>
+        <v>383.47</v>
       </c>
       <c r="C504" s="2">
-        <v>20744956057</v>
+        <v>20734469588</v>
       </c>
       <c r="D504" s="3">
-        <v>0</v>
+        <v>0.07791613376504231</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8980,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>44.13</v>
+        <v>45.26</v>
       </c>
       <c r="C505" s="2">
-        <v>7368523438</v>
+        <v>7337317859</v>
       </c>
       <c r="D505" s="3">
-        <v>0</v>
+        <v>0.2336085005115978</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8994,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>166.73</v>
+        <v>162.66</v>
       </c>
       <c r="C506" s="2">
-        <v>79393062462</v>
+        <v>79854166044</v>
       </c>
       <c r="D506" s="3">
-        <v>0</v>
+        <v>0.7074286893993356</v>
       </c>
     </row>
   </sheetData>
